--- a/Excel_Sample.xlsx
+++ b/Excel_Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
   <si>
     <t>Alliance</t>
   </si>
@@ -61,37 +61,157 @@
     <t>Money Looted</t>
   </si>
   <si>
-    <t>Yarr</t>
-  </si>
-  <si>
-    <t>Seb</t>
-  </si>
-  <si>
-    <t>im317</t>
-  </si>
-  <si>
-    <t>Prefontaine</t>
-  </si>
-  <si>
-    <t>Kija Van Falsavior</t>
-  </si>
-  <si>
-    <t>OsRavan</t>
-  </si>
-  <si>
-    <t>Bahgat</t>
-  </si>
-  <si>
-    <t>cctmsp13</t>
-  </si>
-  <si>
-    <t>ODriscoll</t>
-  </si>
-  <si>
-    <t>Sailor Jerry</t>
-  </si>
-  <si>
-    <t>Izrail</t>
+    <t>Carthago</t>
+  </si>
+  <si>
+    <t>Azrael</t>
+  </si>
+  <si>
+    <t>Tamasith</t>
+  </si>
+  <si>
+    <t>EvilPiggyFooFoo</t>
+  </si>
+  <si>
+    <t>Ragnarok8085</t>
+  </si>
+  <si>
+    <t>Germania</t>
+  </si>
+  <si>
+    <t>Tyras Calidan</t>
+  </si>
+  <si>
+    <t>Strett</t>
+  </si>
+  <si>
+    <t>Asierith</t>
+  </si>
+  <si>
+    <t>Trouble 3</t>
+  </si>
+  <si>
+    <t>Velium</t>
+  </si>
+  <si>
+    <t>Al Fappino</t>
+  </si>
+  <si>
+    <t>Miyamoto Musashi</t>
+  </si>
+  <si>
+    <t>New Suleiman</t>
+  </si>
+  <si>
+    <t>Ion Constantinescu</t>
+  </si>
+  <si>
+    <t>CaN</t>
+  </si>
+  <si>
+    <t>AU David</t>
+  </si>
+  <si>
+    <t>Yuri B Molotov</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>El Chach</t>
+  </si>
+  <si>
+    <t>Zeannon</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Waldo</t>
+  </si>
+  <si>
+    <t>Madder Red</t>
+  </si>
+  <si>
+    <t>KingDracula</t>
+  </si>
+  <si>
+    <t>Solomoriah</t>
+  </si>
+  <si>
+    <t>Bmber</t>
+  </si>
+  <si>
+    <t>Lils</t>
+  </si>
+  <si>
+    <t>the Rising Sun</t>
+  </si>
+  <si>
+    <t>NotCool</t>
+  </si>
+  <si>
+    <t>Roach</t>
+  </si>
+  <si>
+    <t>Tugberk</t>
+  </si>
+  <si>
+    <t>John Silva</t>
+  </si>
+  <si>
+    <t>Petko Vidmar</t>
+  </si>
+  <si>
+    <t>Morgrim</t>
+  </si>
+  <si>
+    <t>Lothair of Acre</t>
+  </si>
+  <si>
+    <t>Locinii</t>
+  </si>
+  <si>
+    <t>Al Sahina</t>
+  </si>
+  <si>
+    <t>Auto Von Bismarck</t>
+  </si>
+  <si>
+    <t>Uhsnadev</t>
+  </si>
+  <si>
+    <t>GrandmasterBee</t>
+  </si>
+  <si>
+    <t>Thibaud Brent</t>
+  </si>
+  <si>
+    <t>Cthulhu The Devourer</t>
+  </si>
+  <si>
+    <t>Aaron Comneno</t>
+  </si>
+  <si>
+    <t>Gust</t>
+  </si>
+  <si>
+    <t>Zegrath the Black</t>
+  </si>
+  <si>
+    <t>Karl the not Blessed</t>
+  </si>
+  <si>
+    <t>Filedsome</t>
+  </si>
+  <si>
+    <t>Jobizig</t>
+  </si>
+  <si>
+    <t>Vladimir Ivanov</t>
+  </si>
+  <si>
+    <t>Misha Polikarpov</t>
   </si>
 </sst>
 </file>
@@ -449,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,43 +633,43 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>1888</v>
+        <v>998</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2">
-        <v>8750220</v>
+        <v>6447536</v>
       </c>
       <c r="G2">
-        <v>5763793</v>
+        <v>4499890</v>
       </c>
       <c r="H2">
-        <v>596412</v>
+        <v>155262</v>
       </c>
       <c r="I2">
-        <v>96601</v>
+        <v>59684</v>
       </c>
       <c r="J2">
-        <v>65159</v>
+        <v>28295</v>
       </c>
       <c r="K2">
-        <v>29490</v>
+        <v>20519</v>
       </c>
       <c r="L2">
-        <v>3148</v>
+        <v>2379</v>
       </c>
       <c r="M2">
-        <v>1172</v>
+        <v>1088</v>
       </c>
       <c r="N2">
-        <v>212666.76</v>
+        <v>180573.84</v>
       </c>
       <c r="O2">
-        <v>108054</v>
+        <v>82500</v>
       </c>
       <c r="P2">
-        <v>596086776.3200001</v>
+        <v>213994064.8</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -563,43 +683,43 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>2035</v>
+        <v>1148</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>9493134</v>
+        <v>4475452</v>
       </c>
       <c r="G3">
-        <v>6406051</v>
+        <v>5075728</v>
       </c>
       <c r="H3">
-        <v>232939</v>
+        <v>62615</v>
       </c>
       <c r="I3">
-        <v>291071</v>
+        <v>42599</v>
       </c>
       <c r="J3">
-        <v>20910</v>
+        <v>12311</v>
       </c>
       <c r="K3">
-        <v>27203</v>
+        <v>8720</v>
       </c>
       <c r="L3">
-        <v>1189</v>
+        <v>817</v>
       </c>
       <c r="M3">
-        <v>1233</v>
+        <v>451</v>
       </c>
       <c r="N3">
-        <v>151074.88</v>
+        <v>108423</v>
       </c>
       <c r="O3">
-        <v>78153</v>
+        <v>69893</v>
       </c>
       <c r="P3">
-        <v>92933071.75</v>
+        <v>218206773.38</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -613,43 +733,43 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>2172</v>
+        <v>1381</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>12978406</v>
+        <v>11466092</v>
       </c>
       <c r="G4">
-        <v>7288628</v>
+        <v>17625905</v>
       </c>
       <c r="H4">
-        <v>527254</v>
+        <v>276189</v>
       </c>
       <c r="I4">
-        <v>255625</v>
+        <v>120956</v>
       </c>
       <c r="J4">
-        <v>38980</v>
+        <v>63725</v>
       </c>
       <c r="K4">
-        <v>31216</v>
+        <v>55444</v>
       </c>
       <c r="L4">
-        <v>4764</v>
+        <v>3826</v>
       </c>
       <c r="M4">
-        <v>3196</v>
+        <v>2620</v>
       </c>
       <c r="N4">
-        <v>285402.51</v>
+        <v>509199.8</v>
       </c>
       <c r="O4">
-        <v>197340</v>
+        <v>250825</v>
       </c>
       <c r="P4">
-        <v>545309654.78</v>
+        <v>2512670631.58</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -663,43 +783,43 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>1651</v>
+        <v>751</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>191517</v>
+        <v>2641488</v>
       </c>
       <c r="G5">
-        <v>680033</v>
+        <v>1624539</v>
       </c>
       <c r="H5">
-        <v>3581</v>
+        <v>29762</v>
       </c>
       <c r="I5">
-        <v>33461</v>
+        <v>30379</v>
       </c>
       <c r="J5">
-        <v>3238</v>
+        <v>14133</v>
       </c>
       <c r="K5">
-        <v>8915</v>
+        <v>16505</v>
       </c>
       <c r="L5">
-        <v>247</v>
+        <v>663</v>
       </c>
       <c r="M5">
-        <v>791</v>
+        <v>448</v>
       </c>
       <c r="N5">
-        <v>20349.86</v>
+        <v>51852</v>
       </c>
       <c r="O5">
-        <v>74846</v>
+        <v>77293</v>
       </c>
       <c r="P5">
-        <v>5602928</v>
+        <v>160924991.02</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -713,43 +833,43 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>1230</v>
+        <v>918</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>1320348</v>
+        <v>1895722</v>
       </c>
       <c r="G6">
-        <v>1139545</v>
+        <v>2039576</v>
       </c>
       <c r="H6">
-        <v>8557</v>
+        <v>21552</v>
       </c>
       <c r="I6">
-        <v>7720</v>
+        <v>18142</v>
       </c>
       <c r="J6">
-        <v>8484</v>
+        <v>11388</v>
       </c>
       <c r="K6">
-        <v>23552</v>
+        <v>16971</v>
       </c>
       <c r="L6">
-        <v>2200</v>
+        <v>863</v>
       </c>
       <c r="M6">
-        <v>5398</v>
+        <v>914</v>
       </c>
       <c r="N6">
-        <v>105234.76</v>
+        <v>48947.53</v>
       </c>
       <c r="O6">
-        <v>135301</v>
+        <v>86921</v>
       </c>
       <c r="P6">
-        <v>34088680.46</v>
+        <v>29697519.98</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -763,43 +883,43 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>1676</v>
+        <v>1815</v>
       </c>
       <c r="E7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>4819355</v>
+        <v>1599618</v>
       </c>
       <c r="G7">
-        <v>4864501</v>
+        <v>3668503</v>
       </c>
       <c r="H7">
-        <v>94481</v>
+        <v>59278</v>
       </c>
       <c r="I7">
-        <v>93960</v>
+        <v>74842</v>
       </c>
       <c r="J7">
-        <v>12984</v>
+        <v>10449</v>
       </c>
       <c r="K7">
-        <v>12926</v>
+        <v>18520</v>
       </c>
       <c r="L7">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M7">
-        <v>734</v>
+        <v>1446</v>
       </c>
       <c r="N7">
-        <v>92150.52</v>
+        <v>32107.99</v>
       </c>
       <c r="O7">
-        <v>37845</v>
+        <v>80704</v>
       </c>
       <c r="P7">
-        <v>28865492.11</v>
+        <v>18569369.09</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -813,43 +933,43 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>2038</v>
+        <v>763</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>1650212</v>
+        <v>6825668</v>
       </c>
       <c r="G8">
-        <v>3590419</v>
+        <v>7566100</v>
       </c>
       <c r="H8">
-        <v>33272</v>
+        <v>49873</v>
       </c>
       <c r="I8">
-        <v>92566</v>
+        <v>45228</v>
       </c>
       <c r="J8">
-        <v>6740</v>
+        <v>14456</v>
       </c>
       <c r="K8">
-        <v>14941</v>
+        <v>19670</v>
       </c>
       <c r="L8">
-        <v>491</v>
+        <v>1295</v>
       </c>
       <c r="M8">
-        <v>1106</v>
+        <v>1825</v>
       </c>
       <c r="N8">
-        <v>33082.27</v>
+        <v>126584.74</v>
       </c>
       <c r="O8">
-        <v>62418</v>
+        <v>77199</v>
       </c>
       <c r="P8">
-        <v>27706956.4</v>
+        <v>153990661.1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -863,43 +983,43 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1960</v>
+        <v>770</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>3210830</v>
+        <v>3559643</v>
       </c>
       <c r="G9">
-        <v>5082779</v>
+        <v>5713686</v>
       </c>
       <c r="H9">
-        <v>104990</v>
+        <v>50184</v>
       </c>
       <c r="I9">
-        <v>231058</v>
+        <v>17394</v>
       </c>
       <c r="J9">
-        <v>12991</v>
+        <v>18708</v>
       </c>
       <c r="K9">
-        <v>32674</v>
+        <v>13774</v>
       </c>
       <c r="L9">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="M9">
-        <v>1508</v>
+        <v>479</v>
       </c>
       <c r="N9">
-        <v>84017.69</v>
+        <v>36963.35</v>
       </c>
       <c r="O9">
-        <v>155259</v>
+        <v>62756</v>
       </c>
       <c r="P9">
-        <v>12310090.48</v>
+        <v>146128154.1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -913,43 +1033,43 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>2169</v>
+        <v>963</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>8449532</v>
+        <v>7009896</v>
       </c>
       <c r="G10">
-        <v>7469079</v>
+        <v>4909960</v>
       </c>
       <c r="H10">
-        <v>219107</v>
+        <v>62117</v>
       </c>
       <c r="I10">
-        <v>330271</v>
+        <v>45407</v>
       </c>
       <c r="J10">
-        <v>30498</v>
+        <v>20395</v>
       </c>
       <c r="K10">
-        <v>31728</v>
+        <v>19347</v>
       </c>
       <c r="L10">
-        <v>2326</v>
+        <v>1653</v>
       </c>
       <c r="M10">
-        <v>3562</v>
+        <v>1294</v>
       </c>
       <c r="N10">
-        <v>199274.68</v>
+        <v>69928.09</v>
       </c>
       <c r="O10">
-        <v>196335</v>
+        <v>65509</v>
       </c>
       <c r="P10">
-        <v>296536165.89</v>
+        <v>62394173.95</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -963,43 +1083,2043 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>299</v>
+        <v>966</v>
       </c>
       <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>3572001</v>
+      </c>
+      <c r="G11">
+        <v>2369409</v>
+      </c>
+      <c r="H11">
+        <v>58369</v>
+      </c>
+      <c r="I11">
+        <v>38756</v>
+      </c>
+      <c r="J11">
+        <v>8032</v>
+      </c>
+      <c r="K11">
+        <v>8868</v>
+      </c>
+      <c r="L11">
+        <v>951</v>
+      </c>
+      <c r="M11">
+        <v>1053</v>
+      </c>
+      <c r="N11">
+        <v>47296.99</v>
+      </c>
+      <c r="O11">
+        <v>37216</v>
+      </c>
+      <c r="P11">
+        <v>161558224.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>962</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>7794228</v>
+      </c>
+      <c r="G12">
+        <v>3755840</v>
+      </c>
+      <c r="H12">
+        <v>38021</v>
+      </c>
+      <c r="I12">
+        <v>39187</v>
+      </c>
+      <c r="J12">
+        <v>10623</v>
+      </c>
+      <c r="K12">
+        <v>14517</v>
+      </c>
+      <c r="L12">
+        <v>658</v>
+      </c>
+      <c r="M12">
+        <v>748</v>
+      </c>
+      <c r="N12">
+        <v>139978.26</v>
+      </c>
+      <c r="O12">
+        <v>68002</v>
+      </c>
+      <c r="P12">
+        <v>245293504.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
-        <v>7336294</v>
-      </c>
-      <c r="G11">
-        <v>9650856</v>
-      </c>
-      <c r="H11">
-        <v>62610</v>
-      </c>
-      <c r="I11">
-        <v>25298</v>
-      </c>
-      <c r="J11">
-        <v>6867</v>
-      </c>
-      <c r="K11">
-        <v>3214</v>
-      </c>
-      <c r="L11">
-        <v>1198</v>
-      </c>
-      <c r="M11">
-        <v>762</v>
-      </c>
-      <c r="N11">
-        <v>319531.23</v>
-      </c>
-      <c r="O11">
-        <v>42513</v>
-      </c>
-      <c r="P11">
-        <v>4197428102.77</v>
+      <c r="D13">
+        <v>607</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>2534998</v>
+      </c>
+      <c r="G13">
+        <v>1428596</v>
+      </c>
+      <c r="H13">
+        <v>10746</v>
+      </c>
+      <c r="I13">
+        <v>25160</v>
+      </c>
+      <c r="J13">
+        <v>4476</v>
+      </c>
+      <c r="K13">
+        <v>5620</v>
+      </c>
+      <c r="L13">
+        <v>410</v>
+      </c>
+      <c r="M13">
+        <v>461</v>
+      </c>
+      <c r="N13">
+        <v>32925.71</v>
+      </c>
+      <c r="O13">
+        <v>31257</v>
+      </c>
+      <c r="P13">
+        <v>26568854.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>1166</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>13044197</v>
+      </c>
+      <c r="G14">
+        <v>8571987</v>
+      </c>
+      <c r="H14">
+        <v>310714</v>
+      </c>
+      <c r="I14">
+        <v>105999</v>
+      </c>
+      <c r="J14">
+        <v>38594</v>
+      </c>
+      <c r="K14">
+        <v>32487</v>
+      </c>
+      <c r="L14">
+        <v>3570</v>
+      </c>
+      <c r="M14">
+        <v>2860</v>
+      </c>
+      <c r="N14">
+        <v>207135.79</v>
+      </c>
+      <c r="O14">
+        <v>114248</v>
+      </c>
+      <c r="P14">
+        <v>522848267.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>810</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>5903897</v>
+      </c>
+      <c r="G15">
+        <v>2705238</v>
+      </c>
+      <c r="H15">
+        <v>47902</v>
+      </c>
+      <c r="I15">
+        <v>44007</v>
+      </c>
+      <c r="J15">
+        <v>13648</v>
+      </c>
+      <c r="K15">
+        <v>11447</v>
+      </c>
+      <c r="L15">
+        <v>316</v>
+      </c>
+      <c r="M15">
+        <v>396</v>
+      </c>
+      <c r="N15">
+        <v>51217.17</v>
+      </c>
+      <c r="O15">
+        <v>36222</v>
+      </c>
+      <c r="P15">
+        <v>142728593.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>678</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>811144</v>
+      </c>
+      <c r="G16">
+        <v>1140369</v>
+      </c>
+      <c r="H16">
+        <v>11087</v>
+      </c>
+      <c r="I16">
+        <v>39767</v>
+      </c>
+      <c r="J16">
+        <v>4417</v>
+      </c>
+      <c r="K16">
+        <v>5158</v>
+      </c>
+      <c r="L16">
+        <v>284</v>
+      </c>
+      <c r="M16">
+        <v>365</v>
+      </c>
+      <c r="N16">
+        <v>29593.99</v>
+      </c>
+      <c r="O16">
+        <v>32424</v>
+      </c>
+      <c r="P16">
+        <v>33856324.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>576</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>11960965</v>
+      </c>
+      <c r="G17">
+        <v>5196642</v>
+      </c>
+      <c r="H17">
+        <v>61759</v>
+      </c>
+      <c r="I17">
+        <v>91269</v>
+      </c>
+      <c r="J17">
+        <v>12723</v>
+      </c>
+      <c r="K17">
+        <v>15839</v>
+      </c>
+      <c r="L17">
+        <v>1469</v>
+      </c>
+      <c r="M17">
+        <v>1876</v>
+      </c>
+      <c r="N17">
+        <v>100927.91</v>
+      </c>
+      <c r="O17">
+        <v>56998</v>
+      </c>
+      <c r="P17">
+        <v>616071935.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>804</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>4467046</v>
+      </c>
+      <c r="G18">
+        <v>5284678</v>
+      </c>
+      <c r="H18">
+        <v>40360</v>
+      </c>
+      <c r="I18">
+        <v>40118</v>
+      </c>
+      <c r="J18">
+        <v>9727</v>
+      </c>
+      <c r="K18">
+        <v>7418</v>
+      </c>
+      <c r="L18">
+        <v>550</v>
+      </c>
+      <c r="M18">
+        <v>774</v>
+      </c>
+      <c r="N18">
+        <v>62095.38</v>
+      </c>
+      <c r="O18">
+        <v>40604</v>
+      </c>
+      <c r="P18">
+        <v>85310030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>844</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>1542104</v>
+      </c>
+      <c r="G19">
+        <v>2757213</v>
+      </c>
+      <c r="H19">
+        <v>28305</v>
+      </c>
+      <c r="I19">
+        <v>45578</v>
+      </c>
+      <c r="J19">
+        <v>8152</v>
+      </c>
+      <c r="K19">
+        <v>8564</v>
+      </c>
+      <c r="L19">
+        <v>409</v>
+      </c>
+      <c r="M19">
+        <v>658</v>
+      </c>
+      <c r="N19">
+        <v>14911.21</v>
+      </c>
+      <c r="O19">
+        <v>35754</v>
+      </c>
+      <c r="P19">
+        <v>14045351.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>738</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>4516060</v>
+      </c>
+      <c r="G20">
+        <v>2572816</v>
+      </c>
+      <c r="H20">
+        <v>61139</v>
+      </c>
+      <c r="I20">
+        <v>43152</v>
+      </c>
+      <c r="J20">
+        <v>17376</v>
+      </c>
+      <c r="K20">
+        <v>14256</v>
+      </c>
+      <c r="L20">
+        <v>609</v>
+      </c>
+      <c r="M20">
+        <v>264</v>
+      </c>
+      <c r="N20">
+        <v>31417.17</v>
+      </c>
+      <c r="O20">
+        <v>56585</v>
+      </c>
+      <c r="P20">
+        <v>61749248.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>1040</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>2660502</v>
+      </c>
+      <c r="G21">
+        <v>2915730</v>
+      </c>
+      <c r="H21">
+        <v>26153</v>
+      </c>
+      <c r="I21">
+        <v>62597</v>
+      </c>
+      <c r="J21">
+        <v>9854</v>
+      </c>
+      <c r="K21">
+        <v>9325</v>
+      </c>
+      <c r="L21">
+        <v>574</v>
+      </c>
+      <c r="M21">
+        <v>709</v>
+      </c>
+      <c r="N21">
+        <v>51693.24</v>
+      </c>
+      <c r="O21">
+        <v>31653</v>
+      </c>
+      <c r="P21">
+        <v>66766209.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>974</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>4277014</v>
+      </c>
+      <c r="G22">
+        <v>3915176</v>
+      </c>
+      <c r="H22">
+        <v>71341</v>
+      </c>
+      <c r="I22">
+        <v>68444</v>
+      </c>
+      <c r="J22">
+        <v>18037</v>
+      </c>
+      <c r="K22">
+        <v>16141</v>
+      </c>
+      <c r="L22">
+        <v>1269</v>
+      </c>
+      <c r="M22">
+        <v>549</v>
+      </c>
+      <c r="N22">
+        <v>62651.99</v>
+      </c>
+      <c r="O22">
+        <v>47580</v>
+      </c>
+      <c r="P22">
+        <v>87746280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>805</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1722111</v>
+      </c>
+      <c r="G23">
+        <v>1880070</v>
+      </c>
+      <c r="H23">
+        <v>14714</v>
+      </c>
+      <c r="I23">
+        <v>28705</v>
+      </c>
+      <c r="J23">
+        <v>6604</v>
+      </c>
+      <c r="K23">
+        <v>7136</v>
+      </c>
+      <c r="L23">
+        <v>214</v>
+      </c>
+      <c r="M23">
+        <v>212</v>
+      </c>
+      <c r="N23">
+        <v>13838.91</v>
+      </c>
+      <c r="O23">
+        <v>25113</v>
+      </c>
+      <c r="P23">
+        <v>36838391.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24">
+        <v>549</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>2197091</v>
+      </c>
+      <c r="G24">
+        <v>1930534</v>
+      </c>
+      <c r="H24">
+        <v>16554</v>
+      </c>
+      <c r="I24">
+        <v>25167</v>
+      </c>
+      <c r="J24">
+        <v>8465</v>
+      </c>
+      <c r="K24">
+        <v>9346</v>
+      </c>
+      <c r="L24">
+        <v>443</v>
+      </c>
+      <c r="M24">
+        <v>589</v>
+      </c>
+      <c r="N24">
+        <v>21898.67</v>
+      </c>
+      <c r="O24">
+        <v>14879</v>
+      </c>
+      <c r="P24">
+        <v>34563614.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>761</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>712139</v>
+      </c>
+      <c r="G25">
+        <v>851095</v>
+      </c>
+      <c r="H25">
+        <v>14555</v>
+      </c>
+      <c r="I25">
+        <v>29551</v>
+      </c>
+      <c r="J25">
+        <v>4361</v>
+      </c>
+      <c r="K25">
+        <v>4051</v>
+      </c>
+      <c r="L25">
+        <v>582</v>
+      </c>
+      <c r="M25">
+        <v>504</v>
+      </c>
+      <c r="N25">
+        <v>34530.72</v>
+      </c>
+      <c r="O25">
+        <v>40531</v>
+      </c>
+      <c r="P25">
+        <v>22892761.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>116</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>523328</v>
+      </c>
+      <c r="G26">
+        <v>307986</v>
+      </c>
+      <c r="H26">
+        <v>4038</v>
+      </c>
+      <c r="I26">
+        <v>1590</v>
+      </c>
+      <c r="J26">
+        <v>916</v>
+      </c>
+      <c r="K26">
+        <v>544</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>52</v>
+      </c>
+      <c r="N26">
+        <v>9984</v>
+      </c>
+      <c r="O26">
+        <v>1519</v>
+      </c>
+      <c r="P26">
+        <v>32007301.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>868</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>2102691</v>
+      </c>
+      <c r="G27">
+        <v>1738381</v>
+      </c>
+      <c r="H27">
+        <v>20637</v>
+      </c>
+      <c r="I27">
+        <v>35182</v>
+      </c>
+      <c r="J27">
+        <v>6703</v>
+      </c>
+      <c r="K27">
+        <v>7055</v>
+      </c>
+      <c r="L27">
+        <v>563</v>
+      </c>
+      <c r="M27">
+        <v>562</v>
+      </c>
+      <c r="N27">
+        <v>39017.03</v>
+      </c>
+      <c r="O27">
+        <v>38059</v>
+      </c>
+      <c r="P27">
+        <v>40243228.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>300</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>4134734</v>
+      </c>
+      <c r="G28">
+        <v>2140137</v>
+      </c>
+      <c r="H28">
+        <v>29094</v>
+      </c>
+      <c r="I28">
+        <v>14182</v>
+      </c>
+      <c r="J28">
+        <v>11671</v>
+      </c>
+      <c r="K28">
+        <v>8271</v>
+      </c>
+      <c r="L28">
+        <v>710</v>
+      </c>
+      <c r="M28">
+        <v>488</v>
+      </c>
+      <c r="N28">
+        <v>34989.36</v>
+      </c>
+      <c r="O28">
+        <v>25083</v>
+      </c>
+      <c r="P28">
+        <v>120947904.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>799</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>621441</v>
+      </c>
+      <c r="G29">
+        <v>1029414</v>
+      </c>
+      <c r="H29">
+        <v>6317</v>
+      </c>
+      <c r="I29">
+        <v>27402</v>
+      </c>
+      <c r="J29">
+        <v>2468</v>
+      </c>
+      <c r="K29">
+        <v>5681</v>
+      </c>
+      <c r="L29">
+        <v>253</v>
+      </c>
+      <c r="M29">
+        <v>748</v>
+      </c>
+      <c r="N29">
+        <v>10759.21</v>
+      </c>
+      <c r="O29">
+        <v>48345</v>
+      </c>
+      <c r="P29">
+        <v>27948608.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>201</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>957506</v>
+      </c>
+      <c r="G30">
+        <v>790093</v>
+      </c>
+      <c r="H30">
+        <v>2680</v>
+      </c>
+      <c r="I30">
+        <v>3779</v>
+      </c>
+      <c r="J30">
+        <v>2599</v>
+      </c>
+      <c r="K30">
+        <v>2320</v>
+      </c>
+      <c r="L30">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>68</v>
+      </c>
+      <c r="N30">
+        <v>20538.34</v>
+      </c>
+      <c r="O30">
+        <v>5841</v>
+      </c>
+      <c r="P30">
+        <v>146759047.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>156</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>187198</v>
+      </c>
+      <c r="G31">
+        <v>105439</v>
+      </c>
+      <c r="H31">
+        <v>599</v>
+      </c>
+      <c r="I31">
+        <v>476</v>
+      </c>
+      <c r="J31">
+        <v>574</v>
+      </c>
+      <c r="K31">
+        <v>244</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>5873.85</v>
+      </c>
+      <c r="O31">
+        <v>134</v>
+      </c>
+      <c r="P31">
+        <v>53483079.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>674</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>2347054</v>
+      </c>
+      <c r="G32">
+        <v>1322778</v>
+      </c>
+      <c r="H32">
+        <v>29795</v>
+      </c>
+      <c r="I32">
+        <v>31620</v>
+      </c>
+      <c r="J32">
+        <v>4158</v>
+      </c>
+      <c r="K32">
+        <v>6165</v>
+      </c>
+      <c r="L32">
+        <v>279</v>
+      </c>
+      <c r="M32">
+        <v>516</v>
+      </c>
+      <c r="N32">
+        <v>36642.63</v>
+      </c>
+      <c r="O32">
+        <v>23283</v>
+      </c>
+      <c r="P32">
+        <v>129912093.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>1031</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>3280550</v>
+      </c>
+      <c r="G33">
+        <v>2102175</v>
+      </c>
+      <c r="H33">
+        <v>25417</v>
+      </c>
+      <c r="I33">
+        <v>49951</v>
+      </c>
+      <c r="J33">
+        <v>6305</v>
+      </c>
+      <c r="K33">
+        <v>10256</v>
+      </c>
+      <c r="L33">
+        <v>576</v>
+      </c>
+      <c r="M33">
+        <v>927</v>
+      </c>
+      <c r="N33">
+        <v>30180.51</v>
+      </c>
+      <c r="O33">
+        <v>52451</v>
+      </c>
+      <c r="P33">
+        <v>52536064.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>566</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>3248620</v>
+      </c>
+      <c r="G34">
+        <v>2156502</v>
+      </c>
+      <c r="H34">
+        <v>29347</v>
+      </c>
+      <c r="I34">
+        <v>73789</v>
+      </c>
+      <c r="J34">
+        <v>8519</v>
+      </c>
+      <c r="K34">
+        <v>8969</v>
+      </c>
+      <c r="L34">
+        <v>353</v>
+      </c>
+      <c r="M34">
+        <v>415</v>
+      </c>
+      <c r="N34">
+        <v>27941.98</v>
+      </c>
+      <c r="O34">
+        <v>29979</v>
+      </c>
+      <c r="P34">
+        <v>78533518.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>2035</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>5871127</v>
+      </c>
+      <c r="G35">
+        <v>6256303</v>
+      </c>
+      <c r="H35">
+        <v>142618</v>
+      </c>
+      <c r="I35">
+        <v>190634</v>
+      </c>
+      <c r="J35">
+        <v>12384</v>
+      </c>
+      <c r="K35">
+        <v>24101</v>
+      </c>
+      <c r="L35">
+        <v>1298</v>
+      </c>
+      <c r="M35">
+        <v>2137</v>
+      </c>
+      <c r="N35">
+        <v>137684.88</v>
+      </c>
+      <c r="O35">
+        <v>109110</v>
+      </c>
+      <c r="P35">
+        <v>33669534.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>335</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>605380</v>
+      </c>
+      <c r="G36">
+        <v>501756</v>
+      </c>
+      <c r="H36">
+        <v>6560</v>
+      </c>
+      <c r="I36">
+        <v>20757</v>
+      </c>
+      <c r="J36">
+        <v>1486</v>
+      </c>
+      <c r="K36">
+        <v>693</v>
+      </c>
+      <c r="L36">
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <v>83</v>
+      </c>
+      <c r="N36">
+        <v>16204.35</v>
+      </c>
+      <c r="O36">
+        <v>11596</v>
+      </c>
+      <c r="P36">
+        <v>65891576.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>451628</v>
+      </c>
+      <c r="G37">
+        <v>275699</v>
+      </c>
+      <c r="H37">
+        <v>5244</v>
+      </c>
+      <c r="I37">
+        <v>2679</v>
+      </c>
+      <c r="J37">
+        <v>627</v>
+      </c>
+      <c r="K37">
+        <v>416</v>
+      </c>
+      <c r="L37">
+        <v>57</v>
+      </c>
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>10976.7</v>
+      </c>
+      <c r="O37">
+        <v>857</v>
+      </c>
+      <c r="P37">
+        <v>78858032.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>1246008</v>
+      </c>
+      <c r="G38">
+        <v>583664</v>
+      </c>
+      <c r="H38">
+        <v>14871</v>
+      </c>
+      <c r="I38">
+        <v>2151</v>
+      </c>
+      <c r="J38">
+        <v>1420</v>
+      </c>
+      <c r="K38">
+        <v>1330</v>
+      </c>
+      <c r="L38">
+        <v>157</v>
+      </c>
+      <c r="M38">
+        <v>63</v>
+      </c>
+      <c r="N38">
+        <v>65736.11</v>
+      </c>
+      <c r="O38">
+        <v>1567</v>
+      </c>
+      <c r="P38">
+        <v>329121989.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>66</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>117046</v>
+      </c>
+      <c r="G39">
+        <v>53529</v>
+      </c>
+      <c r="H39">
+        <v>2166</v>
+      </c>
+      <c r="I39">
+        <v>197</v>
+      </c>
+      <c r="J39">
+        <v>385</v>
+      </c>
+      <c r="K39">
+        <v>319</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>10766.15</v>
+      </c>
+      <c r="O39">
+        <v>115</v>
+      </c>
+      <c r="P39">
+        <v>90547140.26000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>615557</v>
+      </c>
+      <c r="G40">
+        <v>307384</v>
+      </c>
+      <c r="H40">
+        <v>9619</v>
+      </c>
+      <c r="I40">
+        <v>6596</v>
+      </c>
+      <c r="J40">
+        <v>842</v>
+      </c>
+      <c r="K40">
+        <v>411</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>15691.97</v>
+      </c>
+      <c r="O40">
+        <v>2049</v>
+      </c>
+      <c r="P40">
+        <v>66307816.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41">
+        <v>66</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>695321</v>
+      </c>
+      <c r="G41">
+        <v>359597</v>
+      </c>
+      <c r="H41">
+        <v>9005</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>682</v>
+      </c>
+      <c r="K41">
+        <v>380</v>
+      </c>
+      <c r="L41">
+        <v>79</v>
+      </c>
+      <c r="M41">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>52447.83</v>
+      </c>
+      <c r="O41">
+        <v>825</v>
+      </c>
+      <c r="P41">
+        <v>223595009.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>65</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>693890</v>
+      </c>
+      <c r="G42">
+        <v>358224</v>
+      </c>
+      <c r="H42">
+        <v>9940</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>239</v>
+      </c>
+      <c r="K42">
+        <v>198</v>
+      </c>
+      <c r="L42">
+        <v>97</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>28733.98</v>
+      </c>
+      <c r="O42">
+        <v>1045</v>
+      </c>
+      <c r="P42">
+        <v>187530476.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>600810</v>
+      </c>
+      <c r="G43">
+        <v>317742</v>
+      </c>
+      <c r="H43">
+        <v>7020</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>1387</v>
+      </c>
+      <c r="K43">
+        <v>869</v>
+      </c>
+      <c r="L43">
+        <v>323</v>
+      </c>
+      <c r="M43">
+        <v>96</v>
+      </c>
+      <c r="N43">
+        <v>12102.8</v>
+      </c>
+      <c r="O43">
+        <v>2388</v>
+      </c>
+      <c r="P43">
+        <v>74118362.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>66</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>265960</v>
+      </c>
+      <c r="G44">
+        <v>139660</v>
+      </c>
+      <c r="H44">
+        <v>2032</v>
+      </c>
+      <c r="I44">
+        <v>2070</v>
+      </c>
+      <c r="J44">
+        <v>127</v>
+      </c>
+      <c r="K44">
+        <v>36</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>6301.33</v>
+      </c>
+      <c r="O44">
+        <v>168</v>
+      </c>
+      <c r="P44">
+        <v>57538167.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>1096</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>6943198</v>
+      </c>
+      <c r="G45">
+        <v>4391450</v>
+      </c>
+      <c r="H45">
+        <v>73938</v>
+      </c>
+      <c r="I45">
+        <v>54192</v>
+      </c>
+      <c r="J45">
+        <v>18140</v>
+      </c>
+      <c r="K45">
+        <v>13195</v>
+      </c>
+      <c r="L45">
+        <v>881</v>
+      </c>
+      <c r="M45">
+        <v>678</v>
+      </c>
+      <c r="N45">
+        <v>98085.78</v>
+      </c>
+      <c r="O45">
+        <v>29324</v>
+      </c>
+      <c r="P45">
+        <v>263186429.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>67</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>358330</v>
+      </c>
+      <c r="G46">
+        <v>174350</v>
+      </c>
+      <c r="H46">
+        <v>1901</v>
+      </c>
+      <c r="I46">
+        <v>670</v>
+      </c>
+      <c r="J46">
+        <v>29</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>7820.39</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>59961130.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>62</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>271066</v>
+      </c>
+      <c r="G47">
+        <v>136682</v>
+      </c>
+      <c r="H47">
+        <v>2918</v>
+      </c>
+      <c r="I47">
+        <v>2063</v>
+      </c>
+      <c r="J47">
+        <v>143</v>
+      </c>
+      <c r="K47">
+        <v>19</v>
+      </c>
+      <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>10853.64</v>
+      </c>
+      <c r="O47">
+        <v>87</v>
+      </c>
+      <c r="P47">
+        <v>74477154.20999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>64</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>56689</v>
+      </c>
+      <c r="G48">
+        <v>20813</v>
+      </c>
+      <c r="H48">
+        <v>270</v>
+      </c>
+      <c r="I48">
+        <v>941</v>
+      </c>
+      <c r="J48">
+        <v>32</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1722.39</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>7923659.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>66</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>27733</v>
+      </c>
+      <c r="G49">
+        <v>22316</v>
+      </c>
+      <c r="H49">
+        <v>735</v>
+      </c>
+      <c r="I49">
+        <v>479</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>18</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>509.38</v>
+      </c>
+      <c r="O49">
+        <v>242</v>
+      </c>
+      <c r="P49">
+        <v>2112070.63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>134</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>310.99</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>12528477.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>993</v>
+      </c>
+      <c r="G51">
+        <v>740</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>710.4400000000001</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>12924647.09</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Sample.xlsx
+++ b/Excel_Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="156">
   <si>
     <t>Alliance</t>
   </si>
@@ -64,12 +64,21 @@
     <t>Carthago</t>
   </si>
   <si>
+    <t>House Stark</t>
+  </si>
+  <si>
+    <t>Order of the White Rose</t>
+  </si>
+  <si>
     <t>Azrael</t>
   </si>
   <si>
     <t>Tamasith</t>
   </si>
   <si>
+    <t>Roberts</t>
+  </si>
+  <si>
     <t>EvilPiggyFooFoo</t>
   </si>
   <si>
@@ -82,6 +91,9 @@
     <t>Tyras Calidan</t>
   </si>
   <si>
+    <t>Haakon</t>
+  </si>
+  <si>
     <t>Strett</t>
   </si>
   <si>
@@ -94,105 +106,123 @@
     <t>Velium</t>
   </si>
   <si>
+    <t>New Suleiman</t>
+  </si>
+  <si>
+    <t>Miyamoto Musashi</t>
+  </si>
+  <si>
     <t>Al Fappino</t>
   </si>
   <si>
-    <t>Miyamoto Musashi</t>
-  </si>
-  <si>
-    <t>New Suleiman</t>
+    <t>Morgrim</t>
   </si>
   <si>
     <t>Ion Constantinescu</t>
   </si>
   <si>
+    <t>AU David</t>
+  </si>
+  <si>
     <t>CaN</t>
   </si>
   <si>
-    <t>AU David</t>
+    <t>Antonio</t>
   </si>
   <si>
     <t>Yuri B Molotov</t>
   </si>
   <si>
-    <t>Antonio</t>
+    <t>Zeannon</t>
+  </si>
+  <si>
+    <t>Billy</t>
   </si>
   <si>
     <t>El Chach</t>
   </si>
   <si>
-    <t>Zeannon</t>
-  </si>
-  <si>
-    <t>Billy</t>
+    <t>Madder Red</t>
   </si>
   <si>
     <t>Waldo</t>
   </si>
   <si>
-    <t>Madder Red</t>
-  </si>
-  <si>
     <t>KingDracula</t>
   </si>
   <si>
     <t>Solomoriah</t>
   </si>
   <si>
+    <t>Urias</t>
+  </si>
+  <si>
     <t>Bmber</t>
   </si>
   <si>
     <t>Lils</t>
   </si>
   <si>
+    <t>NotCool</t>
+  </si>
+  <si>
     <t>the Rising Sun</t>
   </si>
   <si>
-    <t>NotCool</t>
-  </si>
-  <si>
     <t>Roach</t>
   </si>
   <si>
     <t>Tugberk</t>
   </si>
   <si>
+    <t>Erold Yerkin</t>
+  </si>
+  <si>
+    <t>Sgaaph</t>
+  </si>
+  <si>
     <t>John Silva</t>
   </si>
   <si>
     <t>Petko Vidmar</t>
   </si>
   <si>
-    <t>Morgrim</t>
-  </si>
-  <si>
     <t>Lothair of Acre</t>
   </si>
   <si>
+    <t>GrandmasterBee</t>
+  </si>
+  <si>
+    <t>Al Sahina</t>
+  </si>
+  <si>
+    <t>Romanov</t>
+  </si>
+  <si>
     <t>Locinii</t>
   </si>
   <si>
-    <t>Al Sahina</t>
-  </si>
-  <si>
     <t>Auto Von Bismarck</t>
   </si>
   <si>
     <t>Uhsnadev</t>
   </si>
   <si>
-    <t>GrandmasterBee</t>
+    <t>Cthulhu The Devourer</t>
+  </si>
+  <si>
+    <t>Aaron Comneno</t>
+  </si>
+  <si>
+    <t>Harry I</t>
+  </si>
+  <si>
+    <t>Novorossiya</t>
   </si>
   <si>
     <t>Thibaud Brent</t>
   </si>
   <si>
-    <t>Cthulhu The Devourer</t>
-  </si>
-  <si>
-    <t>Aaron Comneno</t>
-  </si>
-  <si>
     <t>Gust</t>
   </si>
   <si>
@@ -202,16 +232,256 @@
     <t>Karl the not Blessed</t>
   </si>
   <si>
+    <t>Shawn Washington</t>
+  </si>
+  <si>
+    <t>Shamadruu</t>
+  </si>
+  <si>
     <t>Filedsome</t>
   </si>
   <si>
     <t>Jobizig</t>
   </si>
   <si>
+    <t>Misha Polikarpov</t>
+  </si>
+  <si>
     <t>Vladimir Ivanov</t>
   </si>
   <si>
-    <t>Misha Polikarpov</t>
+    <t>Vaishnav</t>
+  </si>
+  <si>
+    <t>Zanure</t>
+  </si>
+  <si>
+    <t>Rotrules1234</t>
+  </si>
+  <si>
+    <t>Zygon</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>sojourner</t>
+  </si>
+  <si>
+    <t>Blackatron</t>
+  </si>
+  <si>
+    <t>Prezyan</t>
+  </si>
+  <si>
+    <t>Nobody</t>
+  </si>
+  <si>
+    <t>My2Lemons</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Relapse</t>
+  </si>
+  <si>
+    <t>Jazzy</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Nox</t>
+  </si>
+  <si>
+    <t>Maximous</t>
+  </si>
+  <si>
+    <t>Bismol</t>
+  </si>
+  <si>
+    <t>WetPatootie</t>
+  </si>
+  <si>
+    <t>Archduke Jon</t>
+  </si>
+  <si>
+    <t>Mandystalin</t>
+  </si>
+  <si>
+    <t>The Devourer of Gods</t>
+  </si>
+  <si>
+    <t>Tarfx</t>
+  </si>
+  <si>
+    <t>StockHunter</t>
+  </si>
+  <si>
+    <t>Bandon</t>
+  </si>
+  <si>
+    <t>Merik</t>
+  </si>
+  <si>
+    <t>Aaurian</t>
+  </si>
+  <si>
+    <t>Lithius</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Feegs</t>
+  </si>
+  <si>
+    <t>Jack Taya</t>
+  </si>
+  <si>
+    <t>Brandon Hankinson</t>
+  </si>
+  <si>
+    <t>Samani</t>
+  </si>
+  <si>
+    <t>Aurelius Maximus</t>
+  </si>
+  <si>
+    <t>Romulus au Raa</t>
+  </si>
+  <si>
+    <t>WasabiDinosaur</t>
+  </si>
+  <si>
+    <t>Sean Hendrix</t>
+  </si>
+  <si>
+    <t>King Leon Kraus I</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Micheal Suleymanovic</t>
+  </si>
+  <si>
+    <t>Charasbat Townsend</t>
+  </si>
+  <si>
+    <t>Astro Qoxd</t>
+  </si>
+  <si>
+    <t>Nylla</t>
+  </si>
+  <si>
+    <t>Avivden Halistav</t>
+  </si>
+  <si>
+    <t>Sval</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Sozin</t>
+  </si>
+  <si>
+    <t>Kabu</t>
+  </si>
+  <si>
+    <t>Chennikins</t>
+  </si>
+  <si>
+    <t>Kleo Neferanzus Azu</t>
+  </si>
+  <si>
+    <t>Lorico</t>
+  </si>
+  <si>
+    <t>Greypher</t>
+  </si>
+  <si>
+    <t>Zaros Drahkiin</t>
+  </si>
+  <si>
+    <t>Bobert</t>
+  </si>
+  <si>
+    <t>Sudaking</t>
+  </si>
+  <si>
+    <t>bulbasaursucks</t>
+  </si>
+  <si>
+    <t>Chidgrat</t>
+  </si>
+  <si>
+    <t>Saito Garuwashi</t>
+  </si>
+  <si>
+    <t>Jack Williams</t>
+  </si>
+  <si>
+    <t>Ritz</t>
+  </si>
+  <si>
+    <t>Mi-Nam</t>
+  </si>
+  <si>
+    <t>Pyrisous</t>
+  </si>
+  <si>
+    <t>Delacroix</t>
+  </si>
+  <si>
+    <t>Zango</t>
+  </si>
+  <si>
+    <t>Thenaar</t>
+  </si>
+  <si>
+    <t>Muliana</t>
+  </si>
+  <si>
+    <t>Shjoptull</t>
+  </si>
+  <si>
+    <t>Morgan Grimshaw</t>
+  </si>
+  <si>
+    <t>Kamade</t>
+  </si>
+  <si>
+    <t>Avery of Avarion</t>
+  </si>
+  <si>
+    <t>DrRockso</t>
+  </si>
+  <si>
+    <t>Colle</t>
+  </si>
+  <si>
+    <t>xcom</t>
+  </si>
+  <si>
+    <t>Karl XVIII</t>
+  </si>
+  <si>
+    <t>Mr Freshie</t>
+  </si>
+  <si>
+    <t>Schnooba</t>
+  </si>
+  <si>
+    <t>Longuigon</t>
+  </si>
+  <si>
+    <t>Malcolm II</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -569,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="E2">
         <v>37</v>
@@ -680,10 +950,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -692,7 +962,7 @@
         <v>4475452</v>
       </c>
       <c r="G3">
-        <v>5075728</v>
+        <v>5075820</v>
       </c>
       <c r="H3">
         <v>62615</v>
@@ -713,10 +983,10 @@
         <v>451</v>
       </c>
       <c r="N3">
-        <v>108423</v>
+        <v>108931.37</v>
       </c>
       <c r="O3">
-        <v>69893</v>
+        <v>71662</v>
       </c>
       <c r="P3">
         <v>218206773.38</v>
@@ -730,46 +1000,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1381</v>
+        <v>811</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>11466092</v>
+        <v>4571283</v>
       </c>
       <c r="G4">
-        <v>17625905</v>
+        <v>9564983</v>
       </c>
       <c r="H4">
-        <v>276189</v>
+        <v>53846</v>
       </c>
       <c r="I4">
-        <v>120956</v>
+        <v>63235</v>
       </c>
       <c r="J4">
-        <v>63725</v>
+        <v>11284</v>
       </c>
       <c r="K4">
-        <v>55444</v>
+        <v>18484</v>
       </c>
       <c r="L4">
-        <v>3826</v>
+        <v>1550</v>
       </c>
       <c r="M4">
-        <v>2620</v>
+        <v>2306</v>
       </c>
       <c r="N4">
-        <v>509199.8</v>
+        <v>108534.88</v>
       </c>
       <c r="O4">
-        <v>250825</v>
+        <v>131145</v>
       </c>
       <c r="P4">
-        <v>2512670631.58</v>
+        <v>657812037.26</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -780,46 +1050,46 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>751</v>
+        <v>1391</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2641488</v>
+        <v>11486382</v>
       </c>
       <c r="G5">
-        <v>1624539</v>
+        <v>17631607</v>
       </c>
       <c r="H5">
-        <v>29762</v>
+        <v>276189</v>
       </c>
       <c r="I5">
-        <v>30379</v>
+        <v>120956</v>
       </c>
       <c r="J5">
-        <v>14133</v>
+        <v>63725</v>
       </c>
       <c r="K5">
-        <v>16505</v>
+        <v>55444</v>
       </c>
       <c r="L5">
-        <v>663</v>
+        <v>3826</v>
       </c>
       <c r="M5">
-        <v>448</v>
+        <v>2620</v>
       </c>
       <c r="N5">
-        <v>51852</v>
+        <v>510487.79</v>
       </c>
       <c r="O5">
-        <v>77293</v>
+        <v>254336</v>
       </c>
       <c r="P5">
-        <v>160924991.02</v>
+        <v>2512688131.58</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -830,46 +1100,46 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>918</v>
+        <v>762</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>1895722</v>
+        <v>2641488</v>
       </c>
       <c r="G6">
-        <v>2039576</v>
+        <v>1624661</v>
       </c>
       <c r="H6">
-        <v>21552</v>
+        <v>29762</v>
       </c>
       <c r="I6">
-        <v>18142</v>
+        <v>30379</v>
       </c>
       <c r="J6">
-        <v>11388</v>
+        <v>14133</v>
       </c>
       <c r="K6">
-        <v>16971</v>
+        <v>16505</v>
       </c>
       <c r="L6">
-        <v>863</v>
+        <v>663</v>
       </c>
       <c r="M6">
-        <v>914</v>
+        <v>448</v>
       </c>
       <c r="N6">
-        <v>48947.53</v>
+        <v>52668.27</v>
       </c>
       <c r="O6">
-        <v>86921</v>
+        <v>77293</v>
       </c>
       <c r="P6">
-        <v>29697519.98</v>
+        <v>160924991.02</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -880,46 +1150,46 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1815</v>
+        <v>928</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>1599618</v>
+        <v>1895722</v>
       </c>
       <c r="G7">
-        <v>3668503</v>
+        <v>2039657</v>
       </c>
       <c r="H7">
-        <v>59278</v>
+        <v>21552</v>
       </c>
       <c r="I7">
-        <v>74842</v>
+        <v>18142</v>
       </c>
       <c r="J7">
-        <v>10449</v>
+        <v>11388</v>
       </c>
       <c r="K7">
-        <v>18520</v>
+        <v>16971</v>
       </c>
       <c r="L7">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="M7">
-        <v>1446</v>
+        <v>914</v>
       </c>
       <c r="N7">
-        <v>32107.99</v>
+        <v>50807.46</v>
       </c>
       <c r="O7">
-        <v>80704</v>
+        <v>88871</v>
       </c>
       <c r="P7">
-        <v>18569369.09</v>
+        <v>29697519.98</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -930,46 +1200,46 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>763</v>
+        <v>1825</v>
       </c>
       <c r="E8">
         <v>21</v>
       </c>
       <c r="F8">
-        <v>6825668</v>
+        <v>1600080</v>
       </c>
       <c r="G8">
-        <v>7566100</v>
+        <v>3668666</v>
       </c>
       <c r="H8">
-        <v>49873</v>
+        <v>59278</v>
       </c>
       <c r="I8">
-        <v>45228</v>
+        <v>74842</v>
       </c>
       <c r="J8">
-        <v>14456</v>
+        <v>10449</v>
       </c>
       <c r="K8">
-        <v>19670</v>
+        <v>18520</v>
       </c>
       <c r="L8">
-        <v>1295</v>
+        <v>856</v>
       </c>
       <c r="M8">
-        <v>1825</v>
+        <v>1446</v>
       </c>
       <c r="N8">
-        <v>126584.74</v>
+        <v>32683.2</v>
       </c>
       <c r="O8">
-        <v>77199</v>
+        <v>80741</v>
       </c>
       <c r="P8">
-        <v>153990661.1</v>
+        <v>18581869.09</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -980,46 +1250,46 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>770</v>
+        <v>446</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>3559643</v>
+        <v>1852129</v>
       </c>
       <c r="G9">
-        <v>5713686</v>
+        <v>1923766</v>
       </c>
       <c r="H9">
-        <v>50184</v>
+        <v>22729</v>
       </c>
       <c r="I9">
-        <v>17394</v>
+        <v>53953</v>
       </c>
       <c r="J9">
-        <v>18708</v>
+        <v>5660</v>
       </c>
       <c r="K9">
-        <v>13774</v>
+        <v>7158</v>
       </c>
       <c r="L9">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="M9">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="N9">
-        <v>36963.35</v>
+        <v>42874.36</v>
       </c>
       <c r="O9">
-        <v>62756</v>
+        <v>18702</v>
       </c>
       <c r="P9">
-        <v>146128154.1</v>
+        <v>120862055.38</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1030,46 +1300,46 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>963</v>
+        <v>773</v>
       </c>
       <c r="E10">
         <v>21</v>
       </c>
       <c r="F10">
-        <v>7009896</v>
+        <v>6825668</v>
       </c>
       <c r="G10">
-        <v>4909960</v>
+        <v>7566214</v>
       </c>
       <c r="H10">
-        <v>62117</v>
+        <v>49873</v>
       </c>
       <c r="I10">
-        <v>45407</v>
+        <v>45228</v>
       </c>
       <c r="J10">
-        <v>20395</v>
+        <v>14456</v>
       </c>
       <c r="K10">
-        <v>19347</v>
+        <v>19670</v>
       </c>
       <c r="L10">
-        <v>1653</v>
+        <v>1295</v>
       </c>
       <c r="M10">
-        <v>1294</v>
+        <v>1825</v>
       </c>
       <c r="N10">
-        <v>69928.09</v>
+        <v>126971.59</v>
       </c>
       <c r="O10">
-        <v>65509</v>
+        <v>77199</v>
       </c>
       <c r="P10">
-        <v>62394173.95</v>
+        <v>154015661.1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1080,46 +1350,46 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>966</v>
+        <v>780</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>3572001</v>
+        <v>3566508</v>
       </c>
       <c r="G11">
-        <v>2369409</v>
+        <v>5715235</v>
       </c>
       <c r="H11">
-        <v>58369</v>
+        <v>50184</v>
       </c>
       <c r="I11">
-        <v>38756</v>
+        <v>17394</v>
       </c>
       <c r="J11">
-        <v>8032</v>
+        <v>18708</v>
       </c>
       <c r="K11">
-        <v>8868</v>
+        <v>13774</v>
       </c>
       <c r="L11">
-        <v>951</v>
+        <v>433</v>
       </c>
       <c r="M11">
-        <v>1053</v>
+        <v>479</v>
       </c>
       <c r="N11">
-        <v>47296.99</v>
+        <v>37857.67</v>
       </c>
       <c r="O11">
-        <v>37216</v>
+        <v>66214</v>
       </c>
       <c r="P11">
-        <v>161558224.54</v>
+        <v>146140654.1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1130,46 +1400,46 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>962</v>
+        <v>973</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>7794228</v>
+        <v>7009896</v>
       </c>
       <c r="G12">
-        <v>3755840</v>
+        <v>4909960</v>
       </c>
       <c r="H12">
-        <v>38021</v>
+        <v>62117</v>
       </c>
       <c r="I12">
-        <v>39187</v>
+        <v>45407</v>
       </c>
       <c r="J12">
-        <v>10623</v>
+        <v>20395</v>
       </c>
       <c r="K12">
-        <v>14517</v>
+        <v>19347</v>
       </c>
       <c r="L12">
-        <v>658</v>
+        <v>1653</v>
       </c>
       <c r="M12">
-        <v>748</v>
+        <v>1294</v>
       </c>
       <c r="N12">
-        <v>139978.26</v>
+        <v>69928.09</v>
       </c>
       <c r="O12">
-        <v>68002</v>
+        <v>65509</v>
       </c>
       <c r="P12">
-        <v>245293504.09</v>
+        <v>62394173.95</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1180,46 +1450,46 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>607</v>
+        <v>976</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2534998</v>
+        <v>3572001</v>
       </c>
       <c r="G13">
-        <v>1428596</v>
+        <v>2369409</v>
       </c>
       <c r="H13">
-        <v>10746</v>
+        <v>58369</v>
       </c>
       <c r="I13">
-        <v>25160</v>
+        <v>38756</v>
       </c>
       <c r="J13">
-        <v>4476</v>
+        <v>8032</v>
       </c>
       <c r="K13">
-        <v>5620</v>
+        <v>8868</v>
       </c>
       <c r="L13">
-        <v>410</v>
+        <v>951</v>
       </c>
       <c r="M13">
-        <v>461</v>
+        <v>1053</v>
       </c>
       <c r="N13">
-        <v>32925.71</v>
+        <v>47296.99</v>
       </c>
       <c r="O13">
-        <v>31257</v>
+        <v>37216</v>
       </c>
       <c r="P13">
-        <v>26568854.58</v>
+        <v>161558224.54</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1230,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="E14">
         <v>20</v>
@@ -1280,46 +1550,46 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>810</v>
+        <v>617</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>5903897</v>
+        <v>2534998</v>
       </c>
       <c r="G15">
-        <v>2705238</v>
+        <v>1428596</v>
       </c>
       <c r="H15">
-        <v>47902</v>
+        <v>10746</v>
       </c>
       <c r="I15">
-        <v>44007</v>
+        <v>25160</v>
       </c>
       <c r="J15">
-        <v>13648</v>
+        <v>4476</v>
       </c>
       <c r="K15">
-        <v>11447</v>
+        <v>5620</v>
       </c>
       <c r="L15">
-        <v>316</v>
+        <v>410</v>
       </c>
       <c r="M15">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="N15">
-        <v>51217.17</v>
+        <v>32925.71</v>
       </c>
       <c r="O15">
-        <v>36222</v>
+        <v>31257</v>
       </c>
       <c r="P15">
-        <v>142728593.55</v>
+        <v>26568854.58</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1330,46 +1600,46 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>678</v>
+        <v>972</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>811144</v>
+        <v>8014663</v>
       </c>
       <c r="G16">
-        <v>1140369</v>
+        <v>3785741</v>
       </c>
       <c r="H16">
-        <v>11087</v>
+        <v>38021</v>
       </c>
       <c r="I16">
-        <v>39767</v>
+        <v>39187</v>
       </c>
       <c r="J16">
-        <v>4417</v>
+        <v>10623</v>
       </c>
       <c r="K16">
-        <v>5158</v>
+        <v>14517</v>
       </c>
       <c r="L16">
-        <v>284</v>
+        <v>658</v>
       </c>
       <c r="M16">
-        <v>365</v>
+        <v>748</v>
       </c>
       <c r="N16">
-        <v>29593.99</v>
+        <v>140307.53</v>
       </c>
       <c r="O16">
-        <v>32424</v>
+        <v>69720</v>
       </c>
       <c r="P16">
-        <v>33856324.15</v>
+        <v>245293504.09</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1380,46 +1650,46 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>576</v>
+        <v>2045</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>11960965</v>
+        <v>5879772</v>
       </c>
       <c r="G17">
-        <v>5196642</v>
+        <v>6256848</v>
       </c>
       <c r="H17">
-        <v>61759</v>
+        <v>142618</v>
       </c>
       <c r="I17">
-        <v>91269</v>
+        <v>190634</v>
       </c>
       <c r="J17">
-        <v>12723</v>
+        <v>12384</v>
       </c>
       <c r="K17">
-        <v>15839</v>
+        <v>24101</v>
       </c>
       <c r="L17">
-        <v>1469</v>
+        <v>1298</v>
       </c>
       <c r="M17">
-        <v>1876</v>
+        <v>2137</v>
       </c>
       <c r="N17">
-        <v>100927.91</v>
+        <v>138081.75</v>
       </c>
       <c r="O17">
-        <v>56998</v>
+        <v>111283</v>
       </c>
       <c r="P17">
-        <v>616071935.01</v>
+        <v>33669534.7</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1430,46 +1700,46 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>4467046</v>
+        <v>5903897</v>
       </c>
       <c r="G18">
-        <v>5284678</v>
+        <v>2705238</v>
       </c>
       <c r="H18">
-        <v>40360</v>
+        <v>47902</v>
       </c>
       <c r="I18">
-        <v>40118</v>
+        <v>44007</v>
       </c>
       <c r="J18">
-        <v>9727</v>
+        <v>13648</v>
       </c>
       <c r="K18">
-        <v>7418</v>
+        <v>11447</v>
       </c>
       <c r="L18">
-        <v>550</v>
+        <v>316</v>
       </c>
       <c r="M18">
-        <v>774</v>
+        <v>396</v>
       </c>
       <c r="N18">
-        <v>62095.38</v>
+        <v>51217.17</v>
       </c>
       <c r="O18">
-        <v>40604</v>
+        <v>36222</v>
       </c>
       <c r="P18">
-        <v>85310030</v>
+        <v>142728593.55</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1480,46 +1750,46 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>844</v>
+        <v>586</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>1542104</v>
+        <v>11960965</v>
       </c>
       <c r="G19">
-        <v>2757213</v>
+        <v>5196642</v>
       </c>
       <c r="H19">
-        <v>28305</v>
+        <v>61759</v>
       </c>
       <c r="I19">
-        <v>45578</v>
+        <v>91269</v>
       </c>
       <c r="J19">
-        <v>8152</v>
+        <v>12723</v>
       </c>
       <c r="K19">
-        <v>8564</v>
+        <v>15839</v>
       </c>
       <c r="L19">
-        <v>409</v>
+        <v>1469</v>
       </c>
       <c r="M19">
-        <v>658</v>
+        <v>1876</v>
       </c>
       <c r="N19">
-        <v>14911.21</v>
+        <v>100927.91</v>
       </c>
       <c r="O19">
-        <v>35754</v>
+        <v>56998</v>
       </c>
       <c r="P19">
-        <v>14045351.04</v>
+        <v>616071935.01</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1530,46 +1800,46 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>738</v>
+        <v>689</v>
       </c>
       <c r="E20">
         <v>18</v>
       </c>
       <c r="F20">
-        <v>4516060</v>
+        <v>811144</v>
       </c>
       <c r="G20">
-        <v>2572816</v>
+        <v>1140369</v>
       </c>
       <c r="H20">
-        <v>61139</v>
+        <v>11087</v>
       </c>
       <c r="I20">
-        <v>43152</v>
+        <v>39767</v>
       </c>
       <c r="J20">
-        <v>17376</v>
+        <v>4417</v>
       </c>
       <c r="K20">
-        <v>14256</v>
+        <v>5158</v>
       </c>
       <c r="L20">
-        <v>609</v>
+        <v>284</v>
       </c>
       <c r="M20">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c r="N20">
-        <v>31417.17</v>
+        <v>29593.99</v>
       </c>
       <c r="O20">
-        <v>56585</v>
+        <v>32424</v>
       </c>
       <c r="P20">
-        <v>61749248.31</v>
+        <v>33856324.15</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1580,46 +1850,46 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>1040</v>
+        <v>854</v>
       </c>
       <c r="E21">
         <v>18</v>
       </c>
       <c r="F21">
-        <v>2660502</v>
+        <v>1542104</v>
       </c>
       <c r="G21">
-        <v>2915730</v>
+        <v>2757213</v>
       </c>
       <c r="H21">
-        <v>26153</v>
+        <v>28305</v>
       </c>
       <c r="I21">
-        <v>62597</v>
+        <v>45578</v>
       </c>
       <c r="J21">
-        <v>9854</v>
+        <v>8152</v>
       </c>
       <c r="K21">
-        <v>9325</v>
+        <v>8564</v>
       </c>
       <c r="L21">
-        <v>574</v>
+        <v>409</v>
       </c>
       <c r="M21">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="N21">
-        <v>51693.24</v>
+        <v>14911.21</v>
       </c>
       <c r="O21">
-        <v>31653</v>
+        <v>35754</v>
       </c>
       <c r="P21">
-        <v>66766209.08</v>
+        <v>14045351.04</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1630,46 +1900,46 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>974</v>
+        <v>814</v>
       </c>
       <c r="E22">
         <v>18</v>
       </c>
       <c r="F22">
-        <v>4277014</v>
+        <v>4467046</v>
       </c>
       <c r="G22">
-        <v>3915176</v>
+        <v>5284678</v>
       </c>
       <c r="H22">
-        <v>71341</v>
+        <v>40360</v>
       </c>
       <c r="I22">
-        <v>68444</v>
+        <v>40118</v>
       </c>
       <c r="J22">
-        <v>18037</v>
+        <v>9727</v>
       </c>
       <c r="K22">
-        <v>16141</v>
+        <v>7418</v>
       </c>
       <c r="L22">
-        <v>1269</v>
+        <v>550</v>
       </c>
       <c r="M22">
-        <v>549</v>
+        <v>774</v>
       </c>
       <c r="N22">
-        <v>62651.99</v>
+        <v>62095.38</v>
       </c>
       <c r="O22">
-        <v>47580</v>
+        <v>40604</v>
       </c>
       <c r="P22">
-        <v>87746280</v>
+        <v>85310030</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1680,46 +1950,46 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>805</v>
+        <v>1050</v>
       </c>
       <c r="E23">
         <v>18</v>
       </c>
       <c r="F23">
-        <v>1722111</v>
+        <v>2660502</v>
       </c>
       <c r="G23">
-        <v>1880070</v>
+        <v>2915730</v>
       </c>
       <c r="H23">
-        <v>14714</v>
+        <v>26153</v>
       </c>
       <c r="I23">
-        <v>28705</v>
+        <v>62597</v>
       </c>
       <c r="J23">
-        <v>6604</v>
+        <v>9854</v>
       </c>
       <c r="K23">
-        <v>7136</v>
+        <v>9325</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>574</v>
       </c>
       <c r="M23">
-        <v>212</v>
+        <v>709</v>
       </c>
       <c r="N23">
-        <v>13838.91</v>
+        <v>51693.24</v>
       </c>
       <c r="O23">
-        <v>25113</v>
+        <v>31653</v>
       </c>
       <c r="P23">
-        <v>36838391.75</v>
+        <v>66766209.08</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1730,46 +2000,46 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>549</v>
+        <v>984</v>
       </c>
       <c r="E24">
         <v>18</v>
       </c>
       <c r="F24">
-        <v>2197091</v>
+        <v>4277014</v>
       </c>
       <c r="G24">
-        <v>1930534</v>
+        <v>3915176</v>
       </c>
       <c r="H24">
-        <v>16554</v>
+        <v>71341</v>
       </c>
       <c r="I24">
-        <v>25167</v>
+        <v>68444</v>
       </c>
       <c r="J24">
-        <v>8465</v>
+        <v>18037</v>
       </c>
       <c r="K24">
-        <v>9346</v>
+        <v>16141</v>
       </c>
       <c r="L24">
-        <v>443</v>
+        <v>1269</v>
       </c>
       <c r="M24">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="N24">
-        <v>21898.67</v>
+        <v>62651.99</v>
       </c>
       <c r="O24">
-        <v>14879</v>
+        <v>47580</v>
       </c>
       <c r="P24">
-        <v>34563614.23</v>
+        <v>87746280</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1780,46 +2050,46 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>712139</v>
+        <v>4517534</v>
       </c>
       <c r="G25">
-        <v>851095</v>
+        <v>2572816</v>
       </c>
       <c r="H25">
-        <v>14555</v>
+        <v>61139</v>
       </c>
       <c r="I25">
-        <v>29551</v>
+        <v>43152</v>
       </c>
       <c r="J25">
-        <v>4361</v>
+        <v>17376</v>
       </c>
       <c r="K25">
-        <v>4051</v>
+        <v>14256</v>
       </c>
       <c r="L25">
-        <v>582</v>
+        <v>609</v>
       </c>
       <c r="M25">
-        <v>504</v>
+        <v>264</v>
       </c>
       <c r="N25">
-        <v>34530.72</v>
+        <v>31417.17</v>
       </c>
       <c r="O25">
-        <v>40531</v>
+        <v>58370</v>
       </c>
       <c r="P25">
-        <v>22892761.67</v>
+        <v>61749248.31</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1830,46 +2100,46 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>116</v>
+        <v>559</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>523328</v>
+        <v>2197091</v>
       </c>
       <c r="G26">
-        <v>307986</v>
+        <v>1930534</v>
       </c>
       <c r="H26">
-        <v>4038</v>
+        <v>16554</v>
       </c>
       <c r="I26">
-        <v>1590</v>
+        <v>25167</v>
       </c>
       <c r="J26">
-        <v>916</v>
+        <v>8465</v>
       </c>
       <c r="K26">
-        <v>544</v>
+        <v>9346</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>589</v>
       </c>
       <c r="N26">
-        <v>9984</v>
+        <v>21898.67</v>
       </c>
       <c r="O26">
-        <v>1519</v>
+        <v>14879</v>
       </c>
       <c r="P26">
-        <v>32007301.32</v>
+        <v>34563614.23</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1880,46 +2150,46 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>868</v>
+        <v>816</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F27">
-        <v>2102691</v>
+        <v>1722111</v>
       </c>
       <c r="G27">
-        <v>1738381</v>
+        <v>1880070</v>
       </c>
       <c r="H27">
-        <v>20637</v>
+        <v>14714</v>
       </c>
       <c r="I27">
-        <v>35182</v>
+        <v>28705</v>
       </c>
       <c r="J27">
-        <v>6703</v>
+        <v>6604</v>
       </c>
       <c r="K27">
-        <v>7055</v>
+        <v>7136</v>
       </c>
       <c r="L27">
-        <v>563</v>
+        <v>214</v>
       </c>
       <c r="M27">
-        <v>562</v>
+        <v>212</v>
       </c>
       <c r="N27">
-        <v>39017.03</v>
+        <v>13838.91</v>
       </c>
       <c r="O27">
-        <v>38059</v>
+        <v>25113</v>
       </c>
       <c r="P27">
-        <v>40243228.62</v>
+        <v>36838391.75</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1930,46 +2200,46 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>300</v>
+        <v>771</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F28">
-        <v>4134734</v>
+        <v>712139</v>
       </c>
       <c r="G28">
-        <v>2140137</v>
+        <v>851095</v>
       </c>
       <c r="H28">
-        <v>29094</v>
+        <v>14555</v>
       </c>
       <c r="I28">
-        <v>14182</v>
+        <v>29551</v>
       </c>
       <c r="J28">
-        <v>11671</v>
+        <v>4361</v>
       </c>
       <c r="K28">
-        <v>8271</v>
+        <v>4051</v>
       </c>
       <c r="L28">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="M28">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="N28">
-        <v>34989.36</v>
+        <v>34530.72</v>
       </c>
       <c r="O28">
-        <v>25083</v>
+        <v>40531</v>
       </c>
       <c r="P28">
-        <v>120947904.56</v>
+        <v>22892761.67</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1980,46 +2250,46 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>799</v>
+        <v>126</v>
       </c>
       <c r="E29">
         <v>15</v>
       </c>
       <c r="F29">
-        <v>621441</v>
+        <v>523328</v>
       </c>
       <c r="G29">
-        <v>1029414</v>
+        <v>307986</v>
       </c>
       <c r="H29">
-        <v>6317</v>
+        <v>4038</v>
       </c>
       <c r="I29">
-        <v>27402</v>
+        <v>1590</v>
       </c>
       <c r="J29">
-        <v>2468</v>
+        <v>916</v>
       </c>
       <c r="K29">
-        <v>5681</v>
+        <v>544</v>
       </c>
       <c r="L29">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>748</v>
+        <v>52</v>
       </c>
       <c r="N29">
-        <v>10759.21</v>
+        <v>9984</v>
       </c>
       <c r="O29">
-        <v>48345</v>
+        <v>1519</v>
       </c>
       <c r="P29">
-        <v>27948608.46</v>
+        <v>32007301.32</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2030,46 +2300,46 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>201</v>
+        <v>692</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>957506</v>
+        <v>3194762</v>
       </c>
       <c r="G30">
-        <v>790093</v>
+        <v>2800006</v>
       </c>
       <c r="H30">
-        <v>2680</v>
+        <v>40021</v>
       </c>
       <c r="I30">
-        <v>3779</v>
+        <v>42857</v>
       </c>
       <c r="J30">
-        <v>2599</v>
+        <v>7224</v>
       </c>
       <c r="K30">
-        <v>2320</v>
+        <v>7010</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="M30">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="N30">
-        <v>20538.34</v>
+        <v>41388.24</v>
       </c>
       <c r="O30">
-        <v>5841</v>
+        <v>32107</v>
       </c>
       <c r="P30">
-        <v>146759047.73</v>
+        <v>42675350.76</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2080,46 +2350,46 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>156</v>
+        <v>878</v>
       </c>
       <c r="E31">
         <v>15</v>
       </c>
       <c r="F31">
-        <v>187198</v>
+        <v>2102691</v>
       </c>
       <c r="G31">
-        <v>105439</v>
+        <v>1738381</v>
       </c>
       <c r="H31">
-        <v>599</v>
+        <v>20637</v>
       </c>
       <c r="I31">
-        <v>476</v>
+        <v>35182</v>
       </c>
       <c r="J31">
-        <v>574</v>
+        <v>6703</v>
       </c>
       <c r="K31">
-        <v>244</v>
+        <v>7055</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="N31">
-        <v>5873.85</v>
+        <v>39017.03</v>
       </c>
       <c r="O31">
-        <v>134</v>
+        <v>38059</v>
       </c>
       <c r="P31">
-        <v>53483079.42</v>
+        <v>40243228.62</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2130,46 +2400,46 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>674</v>
+        <v>310</v>
       </c>
       <c r="E32">
         <v>15</v>
       </c>
       <c r="F32">
-        <v>2347054</v>
+        <v>4134734</v>
       </c>
       <c r="G32">
-        <v>1322778</v>
+        <v>2140137</v>
       </c>
       <c r="H32">
-        <v>29795</v>
+        <v>29094</v>
       </c>
       <c r="I32">
-        <v>31620</v>
+        <v>14182</v>
       </c>
       <c r="J32">
-        <v>4158</v>
+        <v>11671</v>
       </c>
       <c r="K32">
-        <v>6165</v>
+        <v>8271</v>
       </c>
       <c r="L32">
-        <v>279</v>
+        <v>710</v>
       </c>
       <c r="M32">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="N32">
-        <v>36642.63</v>
+        <v>34989.36</v>
       </c>
       <c r="O32">
-        <v>23283</v>
+        <v>25083</v>
       </c>
       <c r="P32">
-        <v>129912093.79</v>
+        <v>120947904.56</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2180,46 +2450,46 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>1031</v>
+        <v>211</v>
       </c>
       <c r="E33">
         <v>15</v>
       </c>
       <c r="F33">
-        <v>3280550</v>
+        <v>957506</v>
       </c>
       <c r="G33">
-        <v>2102175</v>
+        <v>790093</v>
       </c>
       <c r="H33">
-        <v>25417</v>
+        <v>2680</v>
       </c>
       <c r="I33">
-        <v>49951</v>
+        <v>3779</v>
       </c>
       <c r="J33">
-        <v>6305</v>
+        <v>2599</v>
       </c>
       <c r="K33">
-        <v>10256</v>
+        <v>2320</v>
       </c>
       <c r="L33">
-        <v>576</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>927</v>
+        <v>68</v>
       </c>
       <c r="N33">
-        <v>30180.51</v>
+        <v>20538.34</v>
       </c>
       <c r="O33">
-        <v>52451</v>
+        <v>5841</v>
       </c>
       <c r="P33">
-        <v>52536064.6</v>
+        <v>146759047.73</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2230,46 +2500,46 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>566</v>
+        <v>809</v>
       </c>
       <c r="E34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>3248620</v>
+        <v>621441</v>
       </c>
       <c r="G34">
-        <v>2156502</v>
+        <v>1029414</v>
       </c>
       <c r="H34">
-        <v>29347</v>
+        <v>6317</v>
       </c>
       <c r="I34">
-        <v>73789</v>
+        <v>27402</v>
       </c>
       <c r="J34">
-        <v>8519</v>
+        <v>2468</v>
       </c>
       <c r="K34">
-        <v>8969</v>
+        <v>5681</v>
       </c>
       <c r="L34">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="M34">
-        <v>415</v>
+        <v>748</v>
       </c>
       <c r="N34">
-        <v>27941.98</v>
+        <v>10759.21</v>
       </c>
       <c r="O34">
-        <v>29979</v>
+        <v>48345</v>
       </c>
       <c r="P34">
-        <v>78533518.02</v>
+        <v>27948608.46</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2280,46 +2550,46 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>2035</v>
+        <v>166</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F35">
-        <v>5871127</v>
+        <v>187198</v>
       </c>
       <c r="G35">
-        <v>6256303</v>
+        <v>105439</v>
       </c>
       <c r="H35">
-        <v>142618</v>
+        <v>599</v>
       </c>
       <c r="I35">
-        <v>190634</v>
+        <v>476</v>
       </c>
       <c r="J35">
-        <v>12384</v>
+        <v>574</v>
       </c>
       <c r="K35">
-        <v>24101</v>
+        <v>244</v>
       </c>
       <c r="L35">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>2137</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>137684.88</v>
+        <v>5873.85</v>
       </c>
       <c r="O35">
-        <v>109110</v>
+        <v>134</v>
       </c>
       <c r="P35">
-        <v>33669534.7</v>
+        <v>53483079.42</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2330,46 +2600,46 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>335</v>
+        <v>684</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>605380</v>
+        <v>2347054</v>
       </c>
       <c r="G36">
-        <v>501756</v>
+        <v>1322778</v>
       </c>
       <c r="H36">
-        <v>6560</v>
+        <v>29795</v>
       </c>
       <c r="I36">
-        <v>20757</v>
+        <v>31620</v>
       </c>
       <c r="J36">
-        <v>1486</v>
+        <v>4158</v>
       </c>
       <c r="K36">
-        <v>693</v>
+        <v>6165</v>
       </c>
       <c r="L36">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="M36">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="N36">
-        <v>16204.35</v>
+        <v>36642.63</v>
       </c>
       <c r="O36">
-        <v>11596</v>
+        <v>23283</v>
       </c>
       <c r="P36">
-        <v>65891576.52</v>
+        <v>129912093.79</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2380,46 +2650,46 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>66</v>
+        <v>881</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>451628</v>
+        <v>6037053</v>
       </c>
       <c r="G37">
-        <v>275699</v>
+        <v>4826092</v>
       </c>
       <c r="H37">
-        <v>5244</v>
+        <v>53152</v>
       </c>
       <c r="I37">
-        <v>2679</v>
+        <v>93556</v>
       </c>
       <c r="J37">
-        <v>627</v>
+        <v>9778</v>
       </c>
       <c r="K37">
-        <v>416</v>
+        <v>11899</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>609</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="N37">
-        <v>10976.7</v>
+        <v>32588.32</v>
       </c>
       <c r="O37">
-        <v>857</v>
+        <v>52640</v>
       </c>
       <c r="P37">
-        <v>78858032.81</v>
+        <v>198842264.87</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2430,46 +2700,46 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>74</v>
+        <v>742</v>
       </c>
       <c r="E38">
         <v>13</v>
       </c>
       <c r="F38">
-        <v>1246008</v>
+        <v>1009663</v>
       </c>
       <c r="G38">
-        <v>583664</v>
+        <v>541472</v>
       </c>
       <c r="H38">
-        <v>14871</v>
+        <v>21274</v>
       </c>
       <c r="I38">
-        <v>2151</v>
+        <v>20963</v>
       </c>
       <c r="J38">
-        <v>1420</v>
+        <v>2460</v>
       </c>
       <c r="K38">
-        <v>1330</v>
+        <v>2189</v>
       </c>
       <c r="L38">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="M38">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="N38">
-        <v>65736.11</v>
+        <v>19287.61</v>
       </c>
       <c r="O38">
-        <v>1567</v>
+        <v>4532</v>
       </c>
       <c r="P38">
-        <v>329121989.16</v>
+        <v>14816935.93</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2480,46 +2750,46 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>66</v>
+        <v>1041</v>
       </c>
       <c r="E39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>117046</v>
+        <v>3280550</v>
       </c>
       <c r="G39">
-        <v>53529</v>
+        <v>2102175</v>
       </c>
       <c r="H39">
-        <v>2166</v>
+        <v>25417</v>
       </c>
       <c r="I39">
-        <v>197</v>
+        <v>49951</v>
       </c>
       <c r="J39">
-        <v>385</v>
+        <v>6305</v>
       </c>
       <c r="K39">
-        <v>319</v>
+        <v>10256</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>576</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>927</v>
       </c>
       <c r="N39">
-        <v>10766.15</v>
+        <v>30180.51</v>
       </c>
       <c r="O39">
-        <v>115</v>
+        <v>52451</v>
       </c>
       <c r="P39">
-        <v>90547140.26000001</v>
+        <v>52536064.6</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2530,46 +2800,46 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>128</v>
+        <v>576</v>
       </c>
       <c r="E40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>615557</v>
+        <v>3248620</v>
       </c>
       <c r="G40">
-        <v>307384</v>
+        <v>2156502</v>
       </c>
       <c r="H40">
-        <v>9619</v>
+        <v>29347</v>
       </c>
       <c r="I40">
-        <v>6596</v>
+        <v>73789</v>
       </c>
       <c r="J40">
-        <v>842</v>
+        <v>8519</v>
       </c>
       <c r="K40">
-        <v>411</v>
+        <v>8969</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="N40">
-        <v>15691.97</v>
+        <v>27941.98</v>
       </c>
       <c r="O40">
-        <v>2049</v>
+        <v>29979</v>
       </c>
       <c r="P40">
-        <v>66307816.42</v>
+        <v>78533518.02</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2580,46 +2850,46 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41">
-        <v>695321</v>
+        <v>605380</v>
       </c>
       <c r="G41">
-        <v>359597</v>
+        <v>501756</v>
       </c>
       <c r="H41">
-        <v>9005</v>
+        <v>6560</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>20757</v>
       </c>
       <c r="J41">
-        <v>682</v>
+        <v>1486</v>
       </c>
       <c r="K41">
-        <v>380</v>
+        <v>693</v>
       </c>
       <c r="L41">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="N41">
-        <v>52447.83</v>
+        <v>16204.35</v>
       </c>
       <c r="O41">
-        <v>825</v>
+        <v>11596</v>
       </c>
       <c r="P41">
-        <v>223595009.38</v>
+        <v>65891576.52</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2630,46 +2900,46 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>693890</v>
+        <v>804222</v>
       </c>
       <c r="G42">
-        <v>358224</v>
+        <v>480486</v>
       </c>
       <c r="H42">
-        <v>9940</v>
+        <v>12701</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>239</v>
+        <v>682</v>
       </c>
       <c r="K42">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="L42">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M42">
         <v>27</v>
       </c>
       <c r="N42">
-        <v>28733.98</v>
+        <v>58473.27</v>
       </c>
       <c r="O42">
-        <v>1045</v>
+        <v>825</v>
       </c>
       <c r="P42">
-        <v>187530476.83</v>
+        <v>225548042.58</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2680,46 +2950,46 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43">
-        <v>600810</v>
+        <v>1258861</v>
       </c>
       <c r="G43">
-        <v>317742</v>
+        <v>586652</v>
       </c>
       <c r="H43">
-        <v>7020</v>
+        <v>14871</v>
       </c>
       <c r="I43">
-        <v>60</v>
+        <v>2151</v>
       </c>
       <c r="J43">
-        <v>1387</v>
+        <v>1420</v>
       </c>
       <c r="K43">
-        <v>869</v>
+        <v>1330</v>
       </c>
       <c r="L43">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c r="M43">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="N43">
-        <v>12102.8</v>
+        <v>66230.97</v>
       </c>
       <c r="O43">
-        <v>2388</v>
+        <v>1567</v>
       </c>
       <c r="P43">
-        <v>74118362.75</v>
+        <v>329476597.23</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2730,46 +3000,46 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>265960</v>
+        <v>99758</v>
       </c>
       <c r="G44">
-        <v>139660</v>
+        <v>101085</v>
       </c>
       <c r="H44">
-        <v>2032</v>
+        <v>75</v>
       </c>
       <c r="I44">
-        <v>2070</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="K44">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>6301.33</v>
+        <v>63534.91</v>
       </c>
       <c r="O44">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="P44">
-        <v>57538167.12</v>
+        <v>578743402.47</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2780,46 +3050,46 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>1096</v>
+        <v>76</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>6943198</v>
+        <v>451628</v>
       </c>
       <c r="G45">
-        <v>4391450</v>
+        <v>275699</v>
       </c>
       <c r="H45">
-        <v>73938</v>
+        <v>5244</v>
       </c>
       <c r="I45">
-        <v>54192</v>
+        <v>2679</v>
       </c>
       <c r="J45">
-        <v>18140</v>
+        <v>627</v>
       </c>
       <c r="K45">
-        <v>13195</v>
+        <v>416</v>
       </c>
       <c r="L45">
-        <v>881</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>678</v>
+        <v>36</v>
       </c>
       <c r="N45">
-        <v>98085.78</v>
+        <v>10976.7</v>
       </c>
       <c r="O45">
-        <v>29324</v>
+        <v>857</v>
       </c>
       <c r="P45">
-        <v>263186429.11</v>
+        <v>78858032.81</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2830,46 +3100,46 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46">
-        <v>358330</v>
+        <v>117046</v>
       </c>
       <c r="G46">
-        <v>174350</v>
+        <v>53529</v>
       </c>
       <c r="H46">
-        <v>1901</v>
+        <v>2166</v>
       </c>
       <c r="I46">
-        <v>670</v>
+        <v>197</v>
       </c>
       <c r="J46">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="K46">
-        <v>4</v>
+        <v>319</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>7820.39</v>
+        <v>10766.15</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="P46">
-        <v>59961130.67</v>
+        <v>90547140.26000001</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2880,46 +3150,46 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <v>271066</v>
+        <v>615557</v>
       </c>
       <c r="G47">
-        <v>136682</v>
+        <v>307384</v>
       </c>
       <c r="H47">
-        <v>2918</v>
+        <v>9619</v>
       </c>
       <c r="I47">
-        <v>2063</v>
+        <v>6596</v>
       </c>
       <c r="J47">
-        <v>143</v>
+        <v>842</v>
       </c>
       <c r="K47">
+        <v>411</v>
+      </c>
+      <c r="L47">
         <v>19</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>10853.64</v>
+        <v>15691.97</v>
       </c>
       <c r="O47">
-        <v>87</v>
+        <v>2049</v>
       </c>
       <c r="P47">
-        <v>74477154.20999999</v>
+        <v>66307816.42</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2930,46 +3200,46 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <v>56689</v>
+        <v>600810</v>
       </c>
       <c r="G48">
-        <v>20813</v>
+        <v>317742</v>
       </c>
       <c r="H48">
-        <v>270</v>
+        <v>7020</v>
       </c>
       <c r="I48">
-        <v>941</v>
+        <v>60</v>
       </c>
       <c r="J48">
-        <v>32</v>
+        <v>1387</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>869</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N48">
-        <v>1722.39</v>
+        <v>12102.8</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>2388</v>
       </c>
       <c r="P48">
-        <v>7923659.17</v>
+        <v>74118362.75</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2980,46 +3250,46 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F49">
-        <v>27733</v>
+        <v>265960</v>
       </c>
       <c r="G49">
-        <v>22316</v>
+        <v>139660</v>
       </c>
       <c r="H49">
-        <v>735</v>
+        <v>2032</v>
       </c>
       <c r="I49">
-        <v>479</v>
+        <v>2070</v>
       </c>
       <c r="J49">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="K49">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N49">
-        <v>509.38</v>
+        <v>6301.33</v>
       </c>
       <c r="O49">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="P49">
-        <v>2112070.63</v>
+        <v>57538167.12</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3030,46 +3300,46 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>504894</v>
       </c>
       <c r="G50">
-        <v>134</v>
+        <v>407655</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>4064</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>6448</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1501</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="N50">
-        <v>310.99</v>
+        <v>6561.12</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>7049</v>
       </c>
       <c r="P50">
-        <v>12528477.7</v>
+        <v>5238966.29</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3080,46 +3350,4446 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>467978</v>
+      </c>
+      <c r="G51">
+        <v>188800</v>
+      </c>
+      <c r="H51">
+        <v>2583</v>
+      </c>
+      <c r="I51">
+        <v>3498</v>
+      </c>
+      <c r="J51">
+        <v>124</v>
+      </c>
+      <c r="K51">
+        <v>6</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>13094.67</v>
+      </c>
+      <c r="O51">
+        <v>83</v>
+      </c>
+      <c r="P51">
+        <v>101085687.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52">
+        <v>75</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>693890</v>
+      </c>
+      <c r="G52">
+        <v>358224</v>
+      </c>
+      <c r="H52">
+        <v>9940</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>239</v>
+      </c>
+      <c r="K52">
+        <v>198</v>
+      </c>
+      <c r="L52">
+        <v>97</v>
+      </c>
+      <c r="M52">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>28733.98</v>
+      </c>
+      <c r="O52">
+        <v>1045</v>
+      </c>
+      <c r="P52">
+        <v>187530476.83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>1106</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <v>6943198</v>
+      </c>
+      <c r="G53">
+        <v>4391450</v>
+      </c>
+      <c r="H53">
+        <v>73938</v>
+      </c>
+      <c r="I53">
+        <v>54192</v>
+      </c>
+      <c r="J53">
+        <v>18140</v>
+      </c>
+      <c r="K53">
+        <v>13195</v>
+      </c>
+      <c r="L53">
+        <v>881</v>
+      </c>
+      <c r="M53">
+        <v>678</v>
+      </c>
+      <c r="N53">
+        <v>98085.78</v>
+      </c>
+      <c r="O53">
+        <v>29324</v>
+      </c>
+      <c r="P53">
+        <v>263186429.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>77</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>397269</v>
+      </c>
+      <c r="G54">
+        <v>183703</v>
+      </c>
+      <c r="H54">
+        <v>1901</v>
+      </c>
+      <c r="I54">
+        <v>670</v>
+      </c>
+      <c r="J54">
+        <v>101</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>41</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>9006.51</v>
+      </c>
+      <c r="O54">
+        <v>171</v>
+      </c>
+      <c r="P54">
+        <v>60340703.53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>271066</v>
+      </c>
+      <c r="G55">
+        <v>136682</v>
+      </c>
+      <c r="H55">
+        <v>2918</v>
+      </c>
+      <c r="I55">
+        <v>2063</v>
+      </c>
+      <c r="J55">
+        <v>143</v>
+      </c>
+      <c r="K55">
+        <v>19</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>10853.64</v>
+      </c>
+      <c r="O55">
+        <v>87</v>
+      </c>
+      <c r="P55">
+        <v>74477154.20999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>113913</v>
+      </c>
+      <c r="G56">
+        <v>146632</v>
+      </c>
+      <c r="H56">
+        <v>1003</v>
+      </c>
+      <c r="I56">
+        <v>118</v>
+      </c>
+      <c r="J56">
+        <v>37</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>5844.7</v>
+      </c>
+      <c r="O56">
+        <v>1065</v>
+      </c>
+      <c r="P56">
+        <v>46830623.92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58">
+        <v>75</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>69341</v>
+      </c>
+      <c r="G58">
+        <v>26958</v>
+      </c>
+      <c r="H58">
+        <v>825</v>
+      </c>
+      <c r="I58">
+        <v>1317</v>
+      </c>
+      <c r="J58">
+        <v>41</v>
+      </c>
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2087.71</v>
+      </c>
+      <c r="O58">
+        <v>54</v>
+      </c>
+      <c r="P58">
+        <v>8891072.789999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>27733</v>
+      </c>
+      <c r="G59">
+        <v>22316</v>
+      </c>
+      <c r="H59">
+        <v>735</v>
+      </c>
+      <c r="I59">
+        <v>479</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>18</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>509.38</v>
+      </c>
+      <c r="O59">
+        <v>242</v>
+      </c>
+      <c r="P59">
+        <v>2112070.63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>103992</v>
+      </c>
+      <c r="G60">
+        <v>27771</v>
+      </c>
+      <c r="H60">
+        <v>608</v>
+      </c>
+      <c r="I60">
+        <v>974</v>
+      </c>
+      <c r="J60">
+        <v>99</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>4457.4</v>
+      </c>
+      <c r="O60">
+        <v>29</v>
+      </c>
+      <c r="P60">
+        <v>27884539.71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>283</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>734.11</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>19669689.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>165</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>15.72</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>468395.19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63">
+        <v>1452</v>
+      </c>
+      <c r="E63">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>6395918</v>
+      </c>
+      <c r="G63">
+        <v>10331483</v>
+      </c>
+      <c r="H63">
+        <v>99938</v>
+      </c>
+      <c r="I63">
+        <v>128145</v>
+      </c>
+      <c r="J63">
+        <v>10551</v>
+      </c>
+      <c r="K63">
+        <v>14814</v>
+      </c>
+      <c r="L63">
+        <v>567</v>
+      </c>
+      <c r="M63">
+        <v>516</v>
+      </c>
+      <c r="N63">
+        <v>86737.74000000001</v>
+      </c>
+      <c r="O63">
+        <v>84769</v>
+      </c>
+      <c r="P63">
+        <v>138204986.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>1224</v>
+      </c>
+      <c r="E64">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>832704</v>
+      </c>
+      <c r="G64">
+        <v>1742470</v>
+      </c>
+      <c r="H64">
+        <v>10888</v>
+      </c>
+      <c r="I64">
+        <v>85233</v>
+      </c>
+      <c r="J64">
+        <v>5856</v>
+      </c>
+      <c r="K64">
+        <v>13347</v>
+      </c>
+      <c r="L64">
+        <v>500</v>
+      </c>
+      <c r="M64">
+        <v>1453</v>
+      </c>
+      <c r="N64">
+        <v>28440.59</v>
+      </c>
+      <c r="O64">
+        <v>38559</v>
+      </c>
+      <c r="P64">
+        <v>15138676.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65">
+        <v>1978</v>
+      </c>
+      <c r="E65">
+        <v>23</v>
+      </c>
+      <c r="F65">
+        <v>4315725</v>
+      </c>
+      <c r="G65">
+        <v>8491279</v>
+      </c>
+      <c r="H65">
+        <v>100943</v>
+      </c>
+      <c r="I65">
+        <v>107510</v>
+      </c>
+      <c r="J65">
+        <v>24261</v>
+      </c>
+      <c r="K65">
+        <v>20946</v>
+      </c>
+      <c r="L65">
+        <v>2809</v>
+      </c>
+      <c r="M65">
+        <v>3114</v>
+      </c>
+      <c r="N65">
+        <v>109324.64</v>
+      </c>
+      <c r="O65">
+        <v>86653</v>
+      </c>
+      <c r="P65">
+        <v>192127691.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66">
+        <v>1965</v>
+      </c>
+      <c r="E66">
+        <v>23</v>
+      </c>
+      <c r="F66">
+        <v>5558732</v>
+      </c>
+      <c r="G66">
+        <v>6059523</v>
+      </c>
+      <c r="H66">
+        <v>92594</v>
+      </c>
+      <c r="I66">
+        <v>168735</v>
+      </c>
+      <c r="J66">
+        <v>18897</v>
+      </c>
+      <c r="K66">
+        <v>24087</v>
+      </c>
+      <c r="L66">
+        <v>414</v>
+      </c>
+      <c r="M66">
+        <v>912</v>
+      </c>
+      <c r="N66">
+        <v>108215.48</v>
+      </c>
+      <c r="O66">
+        <v>127580</v>
+      </c>
+      <c r="P66">
+        <v>140794110.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="D51">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67">
+        <v>1667</v>
+      </c>
+      <c r="E67">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>8170754</v>
+      </c>
+      <c r="G67">
+        <v>14307398</v>
+      </c>
+      <c r="H67">
+        <v>83199</v>
+      </c>
+      <c r="I67">
+        <v>262077</v>
+      </c>
+      <c r="J67">
+        <v>32878</v>
+      </c>
+      <c r="K67">
+        <v>36578</v>
+      </c>
+      <c r="L67">
+        <v>2075</v>
+      </c>
+      <c r="M67">
+        <v>5432</v>
+      </c>
+      <c r="N67">
+        <v>250816.24</v>
+      </c>
+      <c r="O67">
+        <v>197669</v>
+      </c>
+      <c r="P67">
+        <v>319686280.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>1291</v>
+      </c>
+      <c r="E68">
+        <v>23</v>
+      </c>
+      <c r="F68">
+        <v>7089941</v>
+      </c>
+      <c r="G68">
+        <v>4906473</v>
+      </c>
+      <c r="H68">
+        <v>170135</v>
+      </c>
+      <c r="I68">
+        <v>84271</v>
+      </c>
+      <c r="J68">
+        <v>25774</v>
+      </c>
+      <c r="K68">
+        <v>21393</v>
+      </c>
+      <c r="L68">
+        <v>2100</v>
+      </c>
+      <c r="M68">
+        <v>2168</v>
+      </c>
+      <c r="N68">
+        <v>191754.27</v>
+      </c>
+      <c r="O68">
+        <v>93703</v>
+      </c>
+      <c r="P68">
+        <v>530174628.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69">
+        <v>656</v>
+      </c>
+      <c r="E69">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <v>1248184</v>
+      </c>
+      <c r="G69">
+        <v>739411</v>
+      </c>
+      <c r="H69">
+        <v>6117</v>
+      </c>
+      <c r="I69">
+        <v>14505</v>
+      </c>
+      <c r="J69">
+        <v>1482</v>
+      </c>
+      <c r="K69">
+        <v>3704</v>
+      </c>
+      <c r="L69">
+        <v>83</v>
+      </c>
+      <c r="M69">
+        <v>109</v>
+      </c>
+      <c r="N69">
+        <v>20541.53</v>
+      </c>
+      <c r="O69">
+        <v>37029</v>
+      </c>
+      <c r="P69">
+        <v>154847821.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70">
+        <v>840</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
+      </c>
+      <c r="F70">
+        <v>5000270</v>
+      </c>
+      <c r="G70">
+        <v>6703443</v>
+      </c>
+      <c r="H70">
+        <v>42555</v>
+      </c>
+      <c r="I70">
+        <v>32450</v>
+      </c>
+      <c r="J70">
+        <v>21370</v>
+      </c>
+      <c r="K70">
+        <v>25040</v>
+      </c>
+      <c r="L70">
+        <v>958</v>
+      </c>
+      <c r="M70">
+        <v>720</v>
+      </c>
+      <c r="N70">
+        <v>49338.1</v>
+      </c>
+      <c r="O70">
+        <v>46546</v>
+      </c>
+      <c r="P70">
+        <v>146844881.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71">
+        <v>1201</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>3066742</v>
+      </c>
+      <c r="G71">
+        <v>5061838</v>
+      </c>
+      <c r="H71">
+        <v>80903</v>
+      </c>
+      <c r="I71">
+        <v>53727</v>
+      </c>
+      <c r="J71">
+        <v>23799</v>
+      </c>
+      <c r="K71">
+        <v>17298</v>
+      </c>
+      <c r="L71">
+        <v>1416</v>
+      </c>
+      <c r="M71">
+        <v>1303</v>
+      </c>
+      <c r="N71">
+        <v>78940</v>
+      </c>
+      <c r="O71">
+        <v>74374</v>
+      </c>
+      <c r="P71">
+        <v>95182671.65000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <v>1127</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
+      </c>
+      <c r="F72">
+        <v>1380675</v>
+      </c>
+      <c r="G72">
+        <v>1236323</v>
+      </c>
+      <c r="H72">
+        <v>21221</v>
+      </c>
+      <c r="I72">
+        <v>42294</v>
+      </c>
+      <c r="J72">
+        <v>6630</v>
+      </c>
+      <c r="K72">
+        <v>6511</v>
+      </c>
+      <c r="L72">
+        <v>989</v>
+      </c>
+      <c r="M72">
+        <v>1005</v>
+      </c>
+      <c r="N72">
+        <v>51116.46</v>
+      </c>
+      <c r="O72">
+        <v>60833</v>
+      </c>
+      <c r="P72">
+        <v>18728002.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73">
+        <v>696</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
+      </c>
+      <c r="F73">
+        <v>3807971</v>
+      </c>
+      <c r="G73">
+        <v>3416351</v>
+      </c>
+      <c r="H73">
+        <v>33653</v>
+      </c>
+      <c r="I73">
+        <v>70351</v>
+      </c>
+      <c r="J73">
+        <v>13238</v>
+      </c>
+      <c r="K73">
+        <v>18724</v>
+      </c>
+      <c r="L73">
+        <v>926</v>
+      </c>
+      <c r="M73">
+        <v>1947</v>
+      </c>
+      <c r="N73">
+        <v>74815.39999999999</v>
+      </c>
+      <c r="O73">
+        <v>43663</v>
+      </c>
+      <c r="P73">
+        <v>121906401.07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74">
+        <v>857</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>1768110</v>
+      </c>
+      <c r="G74">
+        <v>738271</v>
+      </c>
+      <c r="H74">
+        <v>3819</v>
+      </c>
+      <c r="I74">
+        <v>34086</v>
+      </c>
+      <c r="J74">
+        <v>5039</v>
+      </c>
+      <c r="K74">
+        <v>5892</v>
+      </c>
+      <c r="L74">
+        <v>450</v>
+      </c>
+      <c r="M74">
+        <v>938</v>
+      </c>
+      <c r="N74">
+        <v>31284.19</v>
+      </c>
+      <c r="O74">
+        <v>20199</v>
+      </c>
+      <c r="P74">
+        <v>86556977.59999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75">
+        <v>443</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>2294875</v>
+      </c>
+      <c r="G75">
+        <v>2023828</v>
+      </c>
+      <c r="H75">
+        <v>28927</v>
+      </c>
+      <c r="I75">
+        <v>48851</v>
+      </c>
+      <c r="J75">
+        <v>6784</v>
+      </c>
+      <c r="K75">
+        <v>9032</v>
+      </c>
+      <c r="L75">
+        <v>458</v>
+      </c>
+      <c r="M75">
+        <v>890</v>
+      </c>
+      <c r="N75">
+        <v>37949.11</v>
+      </c>
+      <c r="O75">
+        <v>26481</v>
+      </c>
+      <c r="P75">
+        <v>102070234.91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76">
+        <v>1747</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76">
+        <v>5448129</v>
+      </c>
+      <c r="G76">
+        <v>7386016</v>
+      </c>
+      <c r="H76">
+        <v>58933</v>
+      </c>
+      <c r="I76">
+        <v>230316</v>
+      </c>
+      <c r="J76">
+        <v>14679</v>
+      </c>
+      <c r="K76">
+        <v>22577</v>
+      </c>
+      <c r="L76">
+        <v>997</v>
+      </c>
+      <c r="M76">
+        <v>1833</v>
+      </c>
+      <c r="N76">
+        <v>95034.91</v>
+      </c>
+      <c r="O76">
+        <v>117538</v>
+      </c>
+      <c r="P76">
+        <v>111537999.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77">
+        <v>1122</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <v>875300</v>
+      </c>
+      <c r="G77">
+        <v>2053783</v>
+      </c>
+      <c r="H77">
+        <v>5392</v>
+      </c>
+      <c r="I77">
+        <v>62095</v>
+      </c>
+      <c r="J77">
+        <v>7040</v>
+      </c>
+      <c r="K77">
+        <v>10569</v>
+      </c>
+      <c r="L77">
+        <v>706</v>
+      </c>
+      <c r="M77">
+        <v>1479</v>
+      </c>
+      <c r="N77">
+        <v>42899.22</v>
+      </c>
+      <c r="O77">
+        <v>35834</v>
+      </c>
+      <c r="P77">
+        <v>19682408.93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78">
+        <v>510</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>2155122</v>
+      </c>
+      <c r="G78">
+        <v>4197194</v>
+      </c>
+      <c r="H78">
+        <v>7412</v>
+      </c>
+      <c r="I78">
+        <v>85916</v>
+      </c>
+      <c r="J78">
+        <v>5583</v>
+      </c>
+      <c r="K78">
+        <v>13240</v>
+      </c>
+      <c r="L78">
+        <v>455</v>
+      </c>
+      <c r="M78">
+        <v>1993</v>
+      </c>
+      <c r="N78">
+        <v>51847.11</v>
+      </c>
+      <c r="O78">
+        <v>51587</v>
+      </c>
+      <c r="P78">
+        <v>60089972.93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="D79">
+        <v>1145</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>2612134</v>
+      </c>
+      <c r="G79">
+        <v>4290004</v>
+      </c>
+      <c r="H79">
+        <v>14714</v>
+      </c>
+      <c r="I79">
+        <v>99371</v>
+      </c>
+      <c r="J79">
+        <v>11235</v>
+      </c>
+      <c r="K79">
+        <v>14723</v>
+      </c>
+      <c r="L79">
+        <v>163</v>
+      </c>
+      <c r="M79">
+        <v>1497</v>
+      </c>
+      <c r="N79">
+        <v>42432.84</v>
+      </c>
+      <c r="O79">
+        <v>80077</v>
+      </c>
+      <c r="P79">
+        <v>59323453.24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80">
+        <v>618</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>1543657</v>
+      </c>
+      <c r="G80">
+        <v>1656751</v>
+      </c>
+      <c r="H80">
+        <v>42875</v>
+      </c>
+      <c r="I80">
+        <v>31718</v>
+      </c>
+      <c r="J80">
+        <v>4982</v>
+      </c>
+      <c r="K80">
+        <v>6102</v>
+      </c>
+      <c r="L80">
+        <v>380</v>
+      </c>
+      <c r="M80">
+        <v>381</v>
+      </c>
+      <c r="N80">
+        <v>50078.58</v>
+      </c>
+      <c r="O80">
+        <v>43293</v>
+      </c>
+      <c r="P80">
+        <v>84420947.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81">
+        <v>797</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>3473934</v>
+      </c>
+      <c r="G81">
+        <v>2997421</v>
+      </c>
+      <c r="H81">
+        <v>50045</v>
+      </c>
+      <c r="I81">
+        <v>33108</v>
+      </c>
+      <c r="J81">
+        <v>14178</v>
+      </c>
+      <c r="K81">
+        <v>12893</v>
+      </c>
+      <c r="L81">
+        <v>1109</v>
+      </c>
+      <c r="M81">
+        <v>1080</v>
+      </c>
+      <c r="N81">
+        <v>74118.28</v>
+      </c>
+      <c r="O81">
+        <v>35368</v>
+      </c>
+      <c r="P81">
+        <v>227089203.66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82">
+        <v>787</v>
+      </c>
+      <c r="E82">
+        <v>19</v>
+      </c>
+      <c r="F82">
+        <v>1386644</v>
+      </c>
+      <c r="G82">
+        <v>1386499</v>
+      </c>
+      <c r="H82">
+        <v>3341</v>
+      </c>
+      <c r="I82">
+        <v>41980</v>
+      </c>
+      <c r="J82">
+        <v>3809</v>
+      </c>
+      <c r="K82">
+        <v>8106</v>
+      </c>
+      <c r="L82">
+        <v>139</v>
+      </c>
+      <c r="M82">
+        <v>913</v>
+      </c>
+      <c r="N82">
+        <v>48543.87</v>
+      </c>
+      <c r="O82">
+        <v>60584</v>
+      </c>
+      <c r="P82">
+        <v>3342321.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D83">
+        <v>376</v>
+      </c>
+      <c r="E83">
+        <v>19</v>
+      </c>
+      <c r="F83">
+        <v>1405600</v>
+      </c>
+      <c r="G83">
+        <v>2100959</v>
+      </c>
+      <c r="H83">
+        <v>5600</v>
+      </c>
+      <c r="I83">
+        <v>24797</v>
+      </c>
+      <c r="J83">
+        <v>6733</v>
+      </c>
+      <c r="K83">
+        <v>8392</v>
+      </c>
+      <c r="L83">
+        <v>149</v>
+      </c>
+      <c r="M83">
+        <v>390</v>
+      </c>
+      <c r="N83">
+        <v>20441.04</v>
+      </c>
+      <c r="O83">
+        <v>35555</v>
+      </c>
+      <c r="P83">
+        <v>49031742.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>384</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>850707</v>
+      </c>
+      <c r="G84">
+        <v>1075751</v>
+      </c>
+      <c r="H84">
+        <v>3638</v>
+      </c>
+      <c r="I84">
+        <v>17624</v>
+      </c>
+      <c r="J84">
+        <v>6025</v>
+      </c>
+      <c r="K84">
+        <v>10704</v>
+      </c>
+      <c r="L84">
+        <v>406</v>
+      </c>
+      <c r="M84">
+        <v>1007</v>
+      </c>
+      <c r="N84">
+        <v>14157.83</v>
+      </c>
+      <c r="O84">
+        <v>30724</v>
+      </c>
+      <c r="P84">
+        <v>13993065.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D85">
+        <v>759</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>940724</v>
+      </c>
+      <c r="G85">
+        <v>1649217</v>
+      </c>
+      <c r="H85">
+        <v>7671</v>
+      </c>
+      <c r="I85">
+        <v>29623</v>
+      </c>
+      <c r="J85">
+        <v>3800</v>
+      </c>
+      <c r="K85">
+        <v>6161</v>
+      </c>
+      <c r="L85">
+        <v>152</v>
+      </c>
+      <c r="M85">
+        <v>568</v>
+      </c>
+      <c r="N85">
+        <v>11757.6</v>
+      </c>
+      <c r="O85">
+        <v>15327</v>
+      </c>
+      <c r="P85">
+        <v>16013960.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>102</v>
+      </c>
+      <c r="D86">
+        <v>1748</v>
+      </c>
+      <c r="E86">
+        <v>17</v>
+      </c>
+      <c r="F86">
+        <v>1103209</v>
+      </c>
+      <c r="G86">
+        <v>1369263</v>
+      </c>
+      <c r="H86">
+        <v>15479</v>
+      </c>
+      <c r="I86">
+        <v>81717</v>
+      </c>
+      <c r="J86">
+        <v>4280</v>
+      </c>
+      <c r="K86">
+        <v>11939</v>
+      </c>
+      <c r="L86">
+        <v>358</v>
+      </c>
+      <c r="M86">
+        <v>1564</v>
+      </c>
+      <c r="N86">
+        <v>57390.15</v>
+      </c>
+      <c r="O86">
+        <v>75075</v>
+      </c>
+      <c r="P86">
+        <v>31772706.48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87">
+        <v>162</v>
+      </c>
+      <c r="E87">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>641103</v>
+      </c>
+      <c r="G87">
+        <v>284082</v>
+      </c>
+      <c r="H87">
+        <v>4102</v>
+      </c>
+      <c r="I87">
+        <v>3058</v>
+      </c>
+      <c r="J87">
+        <v>221</v>
+      </c>
+      <c r="K87">
+        <v>179</v>
+      </c>
+      <c r="L87">
+        <v>28</v>
+      </c>
+      <c r="M87">
+        <v>50</v>
+      </c>
+      <c r="N87">
+        <v>14421.45</v>
+      </c>
+      <c r="O87">
+        <v>2742</v>
+      </c>
+      <c r="P87">
+        <v>76446451.73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88">
+        <v>945</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>1947983</v>
+      </c>
+      <c r="G88">
+        <v>2443041</v>
+      </c>
+      <c r="H88">
+        <v>16121</v>
+      </c>
+      <c r="I88">
+        <v>37963</v>
+      </c>
+      <c r="J88">
+        <v>10029</v>
+      </c>
+      <c r="K88">
+        <v>13925</v>
+      </c>
+      <c r="L88">
+        <v>672</v>
+      </c>
+      <c r="M88">
+        <v>1114</v>
+      </c>
+      <c r="N88">
+        <v>18368.59</v>
+      </c>
+      <c r="O88">
+        <v>34166</v>
+      </c>
+      <c r="P88">
+        <v>30874388.56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89">
+        <v>1481</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>3710533</v>
+      </c>
+      <c r="G89">
+        <v>3809166</v>
+      </c>
+      <c r="H89">
+        <v>42475</v>
+      </c>
+      <c r="I89">
+        <v>120422</v>
+      </c>
+      <c r="J89">
+        <v>9273</v>
+      </c>
+      <c r="K89">
+        <v>14958</v>
+      </c>
+      <c r="L89">
+        <v>653</v>
+      </c>
+      <c r="M89">
+        <v>2457</v>
+      </c>
+      <c r="N89">
+        <v>69794.67</v>
+      </c>
+      <c r="O89">
+        <v>66441</v>
+      </c>
+      <c r="P89">
+        <v>96383495.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90">
+        <v>118</v>
+      </c>
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>119373</v>
+      </c>
+      <c r="G90">
+        <v>83879</v>
+      </c>
+      <c r="H90">
+        <v>805</v>
+      </c>
+      <c r="I90">
+        <v>4307</v>
+      </c>
+      <c r="J90">
+        <v>1287</v>
+      </c>
+      <c r="K90">
+        <v>352</v>
+      </c>
+      <c r="L90">
+        <v>24</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>9673.719999999999</v>
+      </c>
+      <c r="O90">
+        <v>294</v>
+      </c>
+      <c r="P90">
+        <v>29942279.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>330706</v>
+      </c>
+      <c r="G91">
+        <v>210835</v>
+      </c>
+      <c r="H91">
+        <v>6176</v>
+      </c>
+      <c r="I91">
+        <v>1808</v>
+      </c>
+      <c r="J91">
+        <v>85</v>
+      </c>
+      <c r="K91">
+        <v>172</v>
+      </c>
+      <c r="L91">
+        <v>73</v>
+      </c>
+      <c r="M91">
+        <v>40</v>
+      </c>
+      <c r="N91">
+        <v>7120.65</v>
+      </c>
+      <c r="O91">
+        <v>1322</v>
+      </c>
+      <c r="P91">
+        <v>32447799.86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92">
+        <v>54</v>
+      </c>
+      <c r="E92">
+        <v>12</v>
+      </c>
+      <c r="F92">
+        <v>271395</v>
+      </c>
+      <c r="G92">
+        <v>101145</v>
+      </c>
+      <c r="H92">
+        <v>3682</v>
+      </c>
+      <c r="I92">
+        <v>7021</v>
+      </c>
+      <c r="J92">
+        <v>2173</v>
+      </c>
+      <c r="K92">
+        <v>12</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>10741.05</v>
+      </c>
+      <c r="O92">
+        <v>174</v>
+      </c>
+      <c r="P92">
+        <v>46352570.34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93">
+        <v>106</v>
+      </c>
+      <c r="E93">
+        <v>12</v>
+      </c>
+      <c r="F93">
+        <v>329649</v>
+      </c>
+      <c r="G93">
+        <v>110898</v>
+      </c>
+      <c r="H93">
+        <v>4419</v>
+      </c>
+      <c r="I93">
+        <v>8355</v>
+      </c>
+      <c r="J93">
+        <v>1606</v>
+      </c>
+      <c r="K93">
+        <v>431</v>
+      </c>
+      <c r="L93">
+        <v>145</v>
+      </c>
+      <c r="M93">
+        <v>17</v>
+      </c>
+      <c r="N93">
+        <v>14646.5</v>
+      </c>
+      <c r="O93">
+        <v>257</v>
+      </c>
+      <c r="P93">
+        <v>60952718.09</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94">
+        <v>162</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>79675</v>
+      </c>
+      <c r="G94">
+        <v>101057</v>
+      </c>
+      <c r="H94">
+        <v>840</v>
+      </c>
+      <c r="I94">
+        <v>3110</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>65</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>511.03</v>
+      </c>
+      <c r="O94">
+        <v>732</v>
+      </c>
+      <c r="P94">
+        <v>6464113.31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95">
+        <v>92</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>478394</v>
+      </c>
+      <c r="G95">
+        <v>223205</v>
+      </c>
+      <c r="H95">
+        <v>3156</v>
+      </c>
+      <c r="I95">
+        <v>12150</v>
+      </c>
+      <c r="J95">
+        <v>682</v>
+      </c>
+      <c r="K95">
+        <v>283</v>
+      </c>
+      <c r="L95">
+        <v>147</v>
+      </c>
+      <c r="M95">
+        <v>34</v>
+      </c>
+      <c r="N95">
+        <v>10815.4</v>
+      </c>
+      <c r="O95">
+        <v>3980</v>
+      </c>
+      <c r="P95">
+        <v>48688589.76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96">
+        <v>149</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+      <c r="F96">
+        <v>74040</v>
+      </c>
+      <c r="G96">
+        <v>127264</v>
+      </c>
+      <c r="H96">
+        <v>706</v>
+      </c>
+      <c r="I96">
+        <v>1939</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>11</v>
+      </c>
+      <c r="N96">
+        <v>556.36</v>
+      </c>
+      <c r="O96">
+        <v>1020</v>
+      </c>
+      <c r="P96">
+        <v>6086357.66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97">
+        <v>76</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+      <c r="F97">
+        <v>118620</v>
+      </c>
+      <c r="G97">
+        <v>47333</v>
+      </c>
+      <c r="H97">
+        <v>1151</v>
+      </c>
+      <c r="I97">
+        <v>2084</v>
+      </c>
+      <c r="J97">
+        <v>21</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>6673.95</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>87364492.15000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98">
+        <v>76</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>81836</v>
+      </c>
+      <c r="G98">
+        <v>100644</v>
+      </c>
+      <c r="H98">
+        <v>1928</v>
+      </c>
+      <c r="I98">
+        <v>880</v>
+      </c>
+      <c r="J98">
+        <v>132</v>
+      </c>
+      <c r="K98">
+        <v>60</v>
+      </c>
+      <c r="L98">
+        <v>38</v>
+      </c>
+      <c r="M98">
+        <v>10</v>
+      </c>
+      <c r="N98">
+        <v>4942.8</v>
+      </c>
+      <c r="O98">
+        <v>767</v>
+      </c>
+      <c r="P98">
+        <v>22559616.86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99">
+        <v>37</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>46938</v>
+      </c>
+      <c r="G99">
+        <v>16894</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1245</v>
+      </c>
+      <c r="J99">
+        <v>73</v>
+      </c>
+      <c r="K99">
+        <v>26</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>4726.51</v>
+      </c>
+      <c r="O99">
+        <v>395</v>
+      </c>
+      <c r="P99">
+        <v>35694757.35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100">
+        <v>76</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>72193</v>
+      </c>
+      <c r="G100">
+        <v>47274</v>
+      </c>
+      <c r="H100">
+        <v>1697</v>
+      </c>
+      <c r="I100">
+        <v>2469</v>
+      </c>
+      <c r="J100">
+        <v>57</v>
+      </c>
+      <c r="K100">
+        <v>38</v>
+      </c>
+      <c r="L100">
+        <v>14</v>
+      </c>
+      <c r="M100">
+        <v>9</v>
+      </c>
+      <c r="N100">
+        <v>800.28</v>
+      </c>
+      <c r="O100">
+        <v>76</v>
+      </c>
+      <c r="P100">
+        <v>9097428.92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101">
+        <v>72</v>
+      </c>
+      <c r="E101">
         <v>4</v>
       </c>
-      <c r="E51">
+      <c r="F101">
+        <v>4366</v>
+      </c>
+      <c r="G101">
+        <v>10887</v>
+      </c>
+      <c r="H101">
+        <v>294</v>
+      </c>
+      <c r="I101">
+        <v>76</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>3.54</v>
+      </c>
+      <c r="O101">
+        <v>29</v>
+      </c>
+      <c r="P101">
+        <v>72261.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>6266</v>
+      </c>
+      <c r="G102">
+        <v>3372</v>
+      </c>
+      <c r="H102">
+        <v>76</v>
+      </c>
+      <c r="I102">
+        <v>102</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>263.83</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>655748.67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103">
+        <v>59</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>174</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>12</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>156</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>4829755.85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105">
+        <v>1839</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>3096713</v>
+      </c>
+      <c r="G105">
+        <v>3809757</v>
+      </c>
+      <c r="H105">
+        <v>48746</v>
+      </c>
+      <c r="I105">
+        <v>80463</v>
+      </c>
+      <c r="J105">
+        <v>17425</v>
+      </c>
+      <c r="K105">
+        <v>24681</v>
+      </c>
+      <c r="L105">
+        <v>1447</v>
+      </c>
+      <c r="M105">
+        <v>2766</v>
+      </c>
+      <c r="N105">
+        <v>80428.14</v>
+      </c>
+      <c r="O105">
+        <v>107942</v>
+      </c>
+      <c r="P105">
+        <v>76369265.45999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>122</v>
+      </c>
+      <c r="D106">
+        <v>1316</v>
+      </c>
+      <c r="E106">
+        <v>24</v>
+      </c>
+      <c r="F106">
+        <v>2210706</v>
+      </c>
+      <c r="G106">
+        <v>1231589</v>
+      </c>
+      <c r="H106">
+        <v>90507</v>
+      </c>
+      <c r="I106">
+        <v>24918</v>
+      </c>
+      <c r="J106">
+        <v>15548</v>
+      </c>
+      <c r="K106">
+        <v>16105</v>
+      </c>
+      <c r="L106">
+        <v>963</v>
+      </c>
+      <c r="M106">
+        <v>922</v>
+      </c>
+      <c r="N106">
+        <v>80137.12</v>
+      </c>
+      <c r="O106">
+        <v>115140</v>
+      </c>
+      <c r="P106">
+        <v>196556816.11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D107">
+        <v>820</v>
+      </c>
+      <c r="E107">
+        <v>24</v>
+      </c>
+      <c r="F107">
+        <v>1108938</v>
+      </c>
+      <c r="G107">
+        <v>240840</v>
+      </c>
+      <c r="H107">
+        <v>17791</v>
+      </c>
+      <c r="I107">
+        <v>7313</v>
+      </c>
+      <c r="J107">
+        <v>7860</v>
+      </c>
+      <c r="K107">
+        <v>12580</v>
+      </c>
+      <c r="L107">
+        <v>727</v>
+      </c>
+      <c r="M107">
+        <v>1336</v>
+      </c>
+      <c r="N107">
+        <v>36352.38</v>
+      </c>
+      <c r="O107">
+        <v>60544</v>
+      </c>
+      <c r="P107">
+        <v>11328717.96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108">
+        <v>1189</v>
+      </c>
+      <c r="E108">
+        <v>24</v>
+      </c>
+      <c r="F108">
+        <v>2323277</v>
+      </c>
+      <c r="G108">
+        <v>3732221</v>
+      </c>
+      <c r="H108">
+        <v>37166</v>
+      </c>
+      <c r="I108">
+        <v>78866</v>
+      </c>
+      <c r="J108">
+        <v>11209</v>
+      </c>
+      <c r="K108">
+        <v>23145</v>
+      </c>
+      <c r="L108">
+        <v>662</v>
+      </c>
+      <c r="M108">
+        <v>1201</v>
+      </c>
+      <c r="N108">
+        <v>65212.17</v>
+      </c>
+      <c r="O108">
+        <v>75284</v>
+      </c>
+      <c r="P108">
+        <v>64295198.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109">
+        <v>1327</v>
+      </c>
+      <c r="E109">
+        <v>23</v>
+      </c>
+      <c r="F109">
+        <v>3363865</v>
+      </c>
+      <c r="G109">
+        <v>5841120</v>
+      </c>
+      <c r="H109">
+        <v>16929</v>
+      </c>
+      <c r="I109">
+        <v>116463</v>
+      </c>
+      <c r="J109">
+        <v>7964</v>
+      </c>
+      <c r="K109">
+        <v>21989</v>
+      </c>
+      <c r="L109">
+        <v>886</v>
+      </c>
+      <c r="M109">
+        <v>3378</v>
+      </c>
+      <c r="N109">
+        <v>91204.94</v>
+      </c>
+      <c r="O109">
+        <v>105880</v>
+      </c>
+      <c r="P109">
+        <v>78642079.27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D110">
+        <v>1217</v>
+      </c>
+      <c r="E110">
+        <v>21</v>
+      </c>
+      <c r="F110">
+        <v>3418304</v>
+      </c>
+      <c r="G110">
+        <v>3402871</v>
+      </c>
+      <c r="H110">
+        <v>30998</v>
+      </c>
+      <c r="I110">
+        <v>70927</v>
+      </c>
+      <c r="J110">
+        <v>7488</v>
+      </c>
+      <c r="K110">
+        <v>13991</v>
+      </c>
+      <c r="L110">
+        <v>1191</v>
+      </c>
+      <c r="M110">
+        <v>1916</v>
+      </c>
+      <c r="N110">
+        <v>73201.96000000001</v>
+      </c>
+      <c r="O110">
+        <v>35040</v>
+      </c>
+      <c r="P110">
+        <v>97671809.83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111">
+        <v>1641</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
+      </c>
+      <c r="F111">
+        <v>2614416</v>
+      </c>
+      <c r="G111">
+        <v>3113287</v>
+      </c>
+      <c r="H111">
+        <v>44396</v>
+      </c>
+      <c r="I111">
+        <v>107152</v>
+      </c>
+      <c r="J111">
+        <v>12109</v>
+      </c>
+      <c r="K111">
+        <v>17377</v>
+      </c>
+      <c r="L111">
+        <v>1395</v>
+      </c>
+      <c r="M111">
+        <v>1882</v>
+      </c>
+      <c r="N111">
+        <v>85772.5</v>
+      </c>
+      <c r="O111">
+        <v>76612</v>
+      </c>
+      <c r="P111">
+        <v>48513232.06</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
+        <v>128</v>
+      </c>
+      <c r="D112">
+        <v>1211</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
+      </c>
+      <c r="F112">
+        <v>13106681</v>
+      </c>
+      <c r="G112">
+        <v>5920135</v>
+      </c>
+      <c r="H112">
+        <v>84722</v>
+      </c>
+      <c r="I112">
+        <v>44799</v>
+      </c>
+      <c r="J112">
+        <v>28705</v>
+      </c>
+      <c r="K112">
+        <v>19651</v>
+      </c>
+      <c r="L112">
+        <v>1968</v>
+      </c>
+      <c r="M112">
+        <v>1248</v>
+      </c>
+      <c r="N112">
+        <v>110297.71</v>
+      </c>
+      <c r="O112">
+        <v>78559</v>
+      </c>
+      <c r="P112">
+        <v>151357209.81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113">
+        <v>1062</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
+      </c>
+      <c r="F113">
+        <v>1176689</v>
+      </c>
+      <c r="G113">
+        <v>96308</v>
+      </c>
+      <c r="H113">
+        <v>6675</v>
+      </c>
+      <c r="I113">
+        <v>1246</v>
+      </c>
+      <c r="J113">
+        <v>6691</v>
+      </c>
+      <c r="K113">
+        <v>12118</v>
+      </c>
+      <c r="L113">
+        <v>665</v>
+      </c>
+      <c r="M113">
+        <v>1899</v>
+      </c>
+      <c r="N113">
+        <v>34534.16</v>
+      </c>
+      <c r="O113">
+        <v>52545</v>
+      </c>
+      <c r="P113">
+        <v>25774202.92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114">
+        <v>1144</v>
+      </c>
+      <c r="E114">
+        <v>17</v>
+      </c>
+      <c r="F114">
+        <v>13477885</v>
+      </c>
+      <c r="G114">
+        <v>8757741</v>
+      </c>
+      <c r="H114">
+        <v>68322</v>
+      </c>
+      <c r="I114">
+        <v>188179</v>
+      </c>
+      <c r="J114">
+        <v>23842</v>
+      </c>
+      <c r="K114">
+        <v>29537</v>
+      </c>
+      <c r="L114">
+        <v>1837</v>
+      </c>
+      <c r="M114">
+        <v>3525</v>
+      </c>
+      <c r="N114">
+        <v>122399.56</v>
+      </c>
+      <c r="O114">
+        <v>72121</v>
+      </c>
+      <c r="P114">
+        <v>440379079.94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115">
+        <v>1126</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="F115">
+        <v>9950267</v>
+      </c>
+      <c r="G115">
+        <v>5046303</v>
+      </c>
+      <c r="H115">
+        <v>17174</v>
+      </c>
+      <c r="I115">
+        <v>29132</v>
+      </c>
+      <c r="J115">
+        <v>15386</v>
+      </c>
+      <c r="K115">
+        <v>13110</v>
+      </c>
+      <c r="L115">
+        <v>323</v>
+      </c>
+      <c r="M115">
+        <v>816</v>
+      </c>
+      <c r="N115">
+        <v>90168.35000000001</v>
+      </c>
+      <c r="O115">
+        <v>74852</v>
+      </c>
+      <c r="P115">
+        <v>319018224.14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D116">
+        <v>785</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>5548206</v>
+      </c>
+      <c r="G116">
+        <v>2621845</v>
+      </c>
+      <c r="H116">
+        <v>29893</v>
+      </c>
+      <c r="I116">
+        <v>61020</v>
+      </c>
+      <c r="J116">
+        <v>12276</v>
+      </c>
+      <c r="K116">
+        <v>14402</v>
+      </c>
+      <c r="L116">
+        <v>677</v>
+      </c>
+      <c r="M116">
+        <v>1163</v>
+      </c>
+      <c r="N116">
+        <v>40484.77</v>
+      </c>
+      <c r="O116">
+        <v>37680</v>
+      </c>
+      <c r="P116">
+        <v>37894034.84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117">
+        <v>820</v>
+      </c>
+      <c r="E117">
+        <v>16</v>
+      </c>
+      <c r="F117">
+        <v>2129535</v>
+      </c>
+      <c r="G117">
+        <v>1582025</v>
+      </c>
+      <c r="H117">
+        <v>20312</v>
+      </c>
+      <c r="I117">
+        <v>75597</v>
+      </c>
+      <c r="J117">
+        <v>2981</v>
+      </c>
+      <c r="K117">
+        <v>6553</v>
+      </c>
+      <c r="L117">
+        <v>465</v>
+      </c>
+      <c r="M117">
+        <v>1213</v>
+      </c>
+      <c r="N117">
+        <v>26794.07</v>
+      </c>
+      <c r="O117">
+        <v>49589</v>
+      </c>
+      <c r="P117">
+        <v>21171188.74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>134</v>
+      </c>
+      <c r="D118">
+        <v>909</v>
+      </c>
+      <c r="E118">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>2842840</v>
+      </c>
+      <c r="G118">
+        <v>3064644</v>
+      </c>
+      <c r="H118">
+        <v>13577</v>
+      </c>
+      <c r="I118">
+        <v>106096</v>
+      </c>
+      <c r="J118">
+        <v>5214</v>
+      </c>
+      <c r="K118">
+        <v>14530</v>
+      </c>
+      <c r="L118">
+        <v>261</v>
+      </c>
+      <c r="M118">
+        <v>1072</v>
+      </c>
+      <c r="N118">
+        <v>33864.7</v>
+      </c>
+      <c r="O118">
+        <v>51469</v>
+      </c>
+      <c r="P118">
+        <v>55611570.61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119">
+        <v>880</v>
+      </c>
+      <c r="E119">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>2216989</v>
+      </c>
+      <c r="G119">
+        <v>1098050</v>
+      </c>
+      <c r="H119">
+        <v>7290</v>
+      </c>
+      <c r="I119">
+        <v>20186</v>
+      </c>
+      <c r="J119">
+        <v>3116</v>
+      </c>
+      <c r="K119">
+        <v>4333</v>
+      </c>
+      <c r="L119">
+        <v>90</v>
+      </c>
+      <c r="M119">
+        <v>672</v>
+      </c>
+      <c r="N119">
+        <v>8748.780000000001</v>
+      </c>
+      <c r="O119">
+        <v>38979</v>
+      </c>
+      <c r="P119">
+        <v>1157615.43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120">
+        <v>1055</v>
+      </c>
+      <c r="E120">
+        <v>15</v>
+      </c>
+      <c r="F120">
+        <v>1105993</v>
+      </c>
+      <c r="G120">
+        <v>603949</v>
+      </c>
+      <c r="H120">
+        <v>12582</v>
+      </c>
+      <c r="I120">
+        <v>28736</v>
+      </c>
+      <c r="J120">
+        <v>939</v>
+      </c>
+      <c r="K120">
+        <v>2397</v>
+      </c>
+      <c r="L120">
+        <v>245</v>
+      </c>
+      <c r="M120">
+        <v>409</v>
+      </c>
+      <c r="N120">
+        <v>14832.54</v>
+      </c>
+      <c r="O120">
+        <v>8697</v>
+      </c>
+      <c r="P120">
+        <v>25475571.89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121">
+        <v>1011</v>
+      </c>
+      <c r="E121">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>1035852</v>
+      </c>
+      <c r="G121">
+        <v>621471</v>
+      </c>
+      <c r="H121">
+        <v>6106</v>
+      </c>
+      <c r="I121">
+        <v>36000</v>
+      </c>
+      <c r="J121">
+        <v>3660</v>
+      </c>
+      <c r="K121">
+        <v>7944</v>
+      </c>
+      <c r="L121">
+        <v>81</v>
+      </c>
+      <c r="M121">
+        <v>218</v>
+      </c>
+      <c r="N121">
+        <v>10249.23</v>
+      </c>
+      <c r="O121">
+        <v>22406</v>
+      </c>
+      <c r="P121">
+        <v>9044177.609999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122">
+        <v>400</v>
+      </c>
+      <c r="E122">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>708698</v>
+      </c>
+      <c r="G122">
+        <v>310691</v>
+      </c>
+      <c r="H122">
+        <v>907</v>
+      </c>
+      <c r="I122">
+        <v>4138</v>
+      </c>
+      <c r="J122">
+        <v>370</v>
+      </c>
+      <c r="K122">
+        <v>1261</v>
+      </c>
+      <c r="L122">
+        <v>12</v>
+      </c>
+      <c r="M122">
+        <v>105</v>
+      </c>
+      <c r="N122">
+        <v>4806.95</v>
+      </c>
+      <c r="O122">
+        <v>16394</v>
+      </c>
+      <c r="P122">
+        <v>2326078.14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>139</v>
+      </c>
+      <c r="D123">
+        <v>1583</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <v>1075690</v>
+      </c>
+      <c r="G123">
+        <v>1094982</v>
+      </c>
+      <c r="H123">
+        <v>17604</v>
+      </c>
+      <c r="I123">
+        <v>51041</v>
+      </c>
+      <c r="J123">
+        <v>2471</v>
+      </c>
+      <c r="K123">
+        <v>5911</v>
+      </c>
+      <c r="L123">
+        <v>93</v>
+      </c>
+      <c r="M123">
+        <v>246</v>
+      </c>
+      <c r="N123">
+        <v>15136.52</v>
+      </c>
+      <c r="O123">
+        <v>74474</v>
+      </c>
+      <c r="P123">
+        <v>2469121.81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
+      <c r="D124">
+        <v>1253</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>2124810</v>
+      </c>
+      <c r="G124">
+        <v>1319764</v>
+      </c>
+      <c r="H124">
+        <v>8758</v>
+      </c>
+      <c r="I124">
+        <v>87867</v>
+      </c>
+      <c r="J124">
+        <v>4757</v>
+      </c>
+      <c r="K124">
+        <v>8975</v>
+      </c>
+      <c r="L124">
+        <v>243</v>
+      </c>
+      <c r="M124">
+        <v>608</v>
+      </c>
+      <c r="N124">
+        <v>32714.57</v>
+      </c>
+      <c r="O124">
+        <v>34443</v>
+      </c>
+      <c r="P124">
+        <v>30253906.23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>141</v>
+      </c>
+      <c r="D125">
+        <v>137</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>493985</v>
+      </c>
+      <c r="G125">
+        <v>193578</v>
+      </c>
+      <c r="H125">
+        <v>9902</v>
+      </c>
+      <c r="I125">
+        <v>6333</v>
+      </c>
+      <c r="J125">
+        <v>1389</v>
+      </c>
+      <c r="K125">
+        <v>969</v>
+      </c>
+      <c r="L125">
+        <v>75</v>
+      </c>
+      <c r="M125">
+        <v>9</v>
+      </c>
+      <c r="N125">
+        <v>17974.02</v>
+      </c>
+      <c r="O125">
+        <v>637</v>
+      </c>
+      <c r="P125">
+        <v>147174110.43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126">
+        <v>587</v>
+      </c>
+      <c r="E126">
+        <v>11</v>
+      </c>
+      <c r="F126">
+        <v>581906</v>
+      </c>
+      <c r="G126">
+        <v>495896</v>
+      </c>
+      <c r="H126">
+        <v>4358</v>
+      </c>
+      <c r="I126">
+        <v>18737</v>
+      </c>
+      <c r="J126">
+        <v>806</v>
+      </c>
+      <c r="K126">
+        <v>2839</v>
+      </c>
+      <c r="L126">
+        <v>159</v>
+      </c>
+      <c r="M126">
+        <v>417</v>
+      </c>
+      <c r="N126">
+        <v>6317.67</v>
+      </c>
+      <c r="O126">
+        <v>17320</v>
+      </c>
+      <c r="P126">
+        <v>9523242.619999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127">
+        <v>221</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>77795</v>
+      </c>
+      <c r="G127">
+        <v>103482</v>
+      </c>
+      <c r="H127">
+        <v>1221</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>412</v>
+      </c>
+      <c r="K127">
+        <v>118</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>1817.32</v>
+      </c>
+      <c r="O127">
+        <v>447</v>
+      </c>
+      <c r="P127">
+        <v>3608043.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>144</v>
+      </c>
+      <c r="D128">
+        <v>108</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>119483</v>
+      </c>
+      <c r="G128">
+        <v>17436</v>
+      </c>
+      <c r="H128">
+        <v>560</v>
+      </c>
+      <c r="I128">
+        <v>822</v>
+      </c>
+      <c r="J128">
+        <v>235</v>
+      </c>
+      <c r="K128">
+        <v>66</v>
+      </c>
+      <c r="L128">
+        <v>54</v>
+      </c>
+      <c r="M128">
+        <v>18</v>
+      </c>
+      <c r="N128">
+        <v>3273.03</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>4726637.72</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129">
+        <v>217</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>94377</v>
+      </c>
+      <c r="G129">
+        <v>304499</v>
+      </c>
+      <c r="H129">
+        <v>50</v>
+      </c>
+      <c r="I129">
+        <v>445</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1096.75</v>
+      </c>
+      <c r="O129">
+        <v>3885</v>
+      </c>
+      <c r="P129">
+        <v>12217907.87</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>146</v>
+      </c>
+      <c r="D130">
+        <v>76</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>1085</v>
+      </c>
+      <c r="G130">
+        <v>238</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>14</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>351.72</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>6527635.54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>147</v>
+      </c>
+      <c r="D131">
+        <v>407</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>191294</v>
+      </c>
+      <c r="G131">
+        <v>183063</v>
+      </c>
+      <c r="H131">
+        <v>2874</v>
+      </c>
+      <c r="I131">
+        <v>10159</v>
+      </c>
+      <c r="J131">
+        <v>387</v>
+      </c>
+      <c r="K131">
+        <v>355</v>
+      </c>
+      <c r="L131">
+        <v>33</v>
+      </c>
+      <c r="M131">
         <v>3</v>
       </c>
-      <c r="F51">
-        <v>993</v>
-      </c>
-      <c r="G51">
-        <v>740</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>710.4400000000001</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>12924647.09</v>
+      <c r="N131">
+        <v>1643.9</v>
+      </c>
+      <c r="O131">
+        <v>5233</v>
+      </c>
+      <c r="P131">
+        <v>45260462.53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132">
+        <v>62</v>
+      </c>
+      <c r="E132">
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>27473</v>
+      </c>
+      <c r="G132">
+        <v>38263</v>
+      </c>
+      <c r="H132">
+        <v>63</v>
+      </c>
+      <c r="I132">
+        <v>1393</v>
+      </c>
+      <c r="J132">
+        <v>7</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>526.3200000000001</v>
+      </c>
+      <c r="O132">
+        <v>590</v>
+      </c>
+      <c r="P132">
+        <v>7601879.73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" t="s">
+        <v>149</v>
+      </c>
+      <c r="D133">
+        <v>75</v>
+      </c>
+      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="F133">
+        <v>15280</v>
+      </c>
+      <c r="G133">
+        <v>10116</v>
+      </c>
+      <c r="H133">
+        <v>141</v>
+      </c>
+      <c r="I133">
+        <v>696</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>5</v>
+      </c>
+      <c r="N133">
+        <v>217.06</v>
+      </c>
+      <c r="O133">
+        <v>39</v>
+      </c>
+      <c r="P133">
+        <v>18274487.66</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" t="s">
+        <v>150</v>
+      </c>
+      <c r="D134">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+      <c r="F134">
+        <v>33468</v>
+      </c>
+      <c r="G134">
+        <v>14871</v>
+      </c>
+      <c r="H134">
+        <v>442</v>
+      </c>
+      <c r="I134">
+        <v>622</v>
+      </c>
+      <c r="J134">
+        <v>14</v>
+      </c>
+      <c r="K134">
+        <v>7</v>
+      </c>
+      <c r="L134">
+        <v>25</v>
+      </c>
+      <c r="M134">
+        <v>12</v>
+      </c>
+      <c r="N134">
+        <v>8709.469999999999</v>
+      </c>
+      <c r="O134">
+        <v>99</v>
+      </c>
+      <c r="P134">
+        <v>75360939.73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>152</v>
+      </c>
+      <c r="D136">
+        <v>32</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>450</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Sample.xlsx
+++ b/Excel_Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>Alliance</t>
   </si>
@@ -64,184 +64,250 @@
     <t>Carthago</t>
   </si>
   <si>
-    <t>Azrael</t>
+    <t>Krampus</t>
   </si>
   <si>
     <t>Tamasith</t>
   </si>
   <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>EvilPiggyFooFoo</t>
+    <t>Kebaboglu</t>
+  </si>
+  <si>
+    <t>A human</t>
+  </si>
+  <si>
+    <t>Madder Red</t>
+  </si>
+  <si>
+    <t>Tyras Calidan</t>
+  </si>
+  <si>
+    <t>GrandmasterBee</t>
+  </si>
+  <si>
+    <t>Zeannon</t>
+  </si>
+  <si>
+    <t>Miyamoto Musashi</t>
+  </si>
+  <si>
+    <t>Ion Constantinescu</t>
+  </si>
+  <si>
+    <t>Antonio</t>
   </si>
   <si>
     <t>Ragnarok8085</t>
   </si>
   <si>
-    <t>Germania</t>
-  </si>
-  <si>
-    <t>Tyras Calidan</t>
+    <t>Strett</t>
+  </si>
+  <si>
+    <t>Livia the first</t>
+  </si>
+  <si>
+    <t>Asierith</t>
+  </si>
+  <si>
+    <t>Ricon</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Al Fappino</t>
+  </si>
+  <si>
+    <t>KingDracula</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Waldo</t>
   </si>
   <si>
     <t>Haakon</t>
   </si>
   <si>
-    <t>Strett</t>
-  </si>
-  <si>
-    <t>Asierith</t>
+    <t>James Paul McCartney</t>
+  </si>
+  <si>
+    <t>Shamadruu</t>
+  </si>
+  <si>
+    <t>Yuri B Molotov</t>
+  </si>
+  <si>
+    <t>MrPineapple</t>
+  </si>
+  <si>
+    <t>AU David</t>
   </si>
   <si>
     <t>Trouble 3</t>
   </si>
   <si>
-    <t>Velium</t>
-  </si>
-  <si>
-    <t>New Suleiman</t>
-  </si>
-  <si>
-    <t>Miyamoto Musashi</t>
-  </si>
-  <si>
-    <t>Ion Constantinescu</t>
-  </si>
-  <si>
-    <t>Al Fappino</t>
-  </si>
-  <si>
-    <t>Morgrim</t>
-  </si>
-  <si>
-    <t>AU David</t>
-  </si>
-  <si>
-    <t>CaN</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Yuri B Molotov</t>
-  </si>
-  <si>
-    <t>Zeannon</t>
-  </si>
-  <si>
-    <t>Billy</t>
+    <t>Lemon Lord</t>
+  </si>
+  <si>
+    <t>Johann Hess</t>
+  </si>
+  <si>
+    <t>Kyosuke</t>
+  </si>
+  <si>
+    <t>Cthulhu The Devourer</t>
+  </si>
+  <si>
+    <t>BabyYoda</t>
+  </si>
+  <si>
+    <t>Locinii</t>
+  </si>
+  <si>
+    <t>Auto Von Bismarck</t>
+  </si>
+  <si>
+    <t>Kebabini</t>
+  </si>
+  <si>
+    <t>Misha Polikarpov</t>
+  </si>
+  <si>
+    <t>Erold Yerkin</t>
+  </si>
+  <si>
+    <t>Charle_De_Gaulle</t>
+  </si>
+  <si>
+    <t>President Snow</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Solomoriah</t>
+  </si>
+  <si>
+    <t>Lenka</t>
+  </si>
+  <si>
+    <t>John Silva</t>
+  </si>
+  <si>
+    <t>Lils</t>
   </si>
   <si>
     <t>El Chach</t>
   </si>
   <si>
-    <t>Madder Red</t>
-  </si>
-  <si>
-    <t>Waldo</t>
-  </si>
-  <si>
-    <t>KingDracula</t>
-  </si>
-  <si>
-    <t>Solomoriah</t>
-  </si>
-  <si>
-    <t>Urias</t>
-  </si>
-  <si>
     <t>Bmber</t>
   </si>
   <si>
-    <t>Lils</t>
-  </si>
-  <si>
-    <t>Roach</t>
-  </si>
-  <si>
-    <t>NotCool</t>
+    <t>Luke Williams</t>
+  </si>
+  <si>
+    <t>Skupid</t>
+  </si>
+  <si>
+    <t>Burke - Johnson</t>
+  </si>
+  <si>
+    <t>GLAREYERS</t>
+  </si>
+  <si>
+    <t>Wynfryth II</t>
+  </si>
+  <si>
+    <t>Edward1</t>
+  </si>
+  <si>
+    <t>Jackx</t>
+  </si>
+  <si>
+    <t>Bokon Mwanbza</t>
   </si>
   <si>
     <t>the Rising Sun</t>
   </si>
   <si>
-    <t>Tugberk</t>
-  </si>
-  <si>
-    <t>Erold Yerkin</t>
-  </si>
-  <si>
-    <t>Sgaaph</t>
-  </si>
-  <si>
-    <t>John Silva</t>
-  </si>
-  <si>
-    <t>Petko Vidmar</t>
-  </si>
-  <si>
-    <t>Al Sahina</t>
-  </si>
-  <si>
-    <t>Romanov</t>
-  </si>
-  <si>
-    <t>Lothair of Acre</t>
-  </si>
-  <si>
-    <t>GrandmasterBee</t>
-  </si>
-  <si>
-    <t>Harry I</t>
-  </si>
-  <si>
-    <t>Locinii</t>
-  </si>
-  <si>
-    <t>Thibaud Brent</t>
-  </si>
-  <si>
-    <t>Uhsnadev</t>
-  </si>
-  <si>
-    <t>Auto Von Bismarck</t>
-  </si>
-  <si>
-    <t>Aaron Comneno</t>
-  </si>
-  <si>
-    <t>Cthulhu The Devourer</t>
+    <t>Josef Josuta</t>
   </si>
   <si>
     <t>Zegrath the Black</t>
   </si>
   <si>
-    <t>Novorossiya</t>
-  </si>
-  <si>
-    <t>Gust</t>
-  </si>
-  <si>
-    <t>Karl the not Blessed</t>
-  </si>
-  <si>
-    <t>Shamadruu</t>
-  </si>
-  <si>
-    <t>Shawn Washington</t>
-  </si>
-  <si>
-    <t>Misha Polikarpov</t>
-  </si>
-  <si>
-    <t>Filedsome</t>
-  </si>
-  <si>
-    <t>Jobizig</t>
-  </si>
-  <si>
-    <t>Vaishnav</t>
+    <t>Avior Agena</t>
+  </si>
+  <si>
+    <t>Potaro</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Bosik</t>
+  </si>
+  <si>
+    <t>Astolfo The Trap</t>
+  </si>
+  <si>
+    <t>Meridian</t>
+  </si>
+  <si>
+    <t>Blackwater</t>
+  </si>
+  <si>
+    <t>Zarp</t>
+  </si>
+  <si>
+    <t>Alexander Oman</t>
+  </si>
+  <si>
+    <t>Serpen</t>
+  </si>
+  <si>
+    <t>Jondro Hyael</t>
+  </si>
+  <si>
+    <t>Austin Silva</t>
+  </si>
+  <si>
+    <t>Sergi Mavaleia</t>
+  </si>
+  <si>
+    <t>Crinobane stragof</t>
+  </si>
+  <si>
+    <t>Bless</t>
+  </si>
+  <si>
+    <t>Gulafsha</t>
+  </si>
+  <si>
+    <t>ServantOfGod</t>
+  </si>
+  <si>
+    <t>Edward Kingston</t>
+  </si>
+  <si>
+    <t>Gilga</t>
+  </si>
+  <si>
+    <t>Sir Paul Jim the III</t>
+  </si>
+  <si>
+    <t>Rephaeustus</t>
+  </si>
+  <si>
+    <t>Cordaille</t>
+  </si>
+  <si>
+    <t>Titanius</t>
   </si>
 </sst>
 </file>
@@ -599,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,43 +729,43 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>1013</v>
+        <v>1415</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>6447536</v>
+        <v>8819507</v>
       </c>
       <c r="G2">
-        <v>4499890</v>
+        <v>7891681</v>
       </c>
       <c r="H2">
-        <v>155262</v>
+        <v>324899</v>
       </c>
       <c r="I2">
-        <v>59684</v>
+        <v>163531</v>
       </c>
       <c r="J2">
-        <v>28295</v>
+        <v>42141</v>
       </c>
       <c r="K2">
-        <v>20519</v>
+        <v>29291</v>
       </c>
       <c r="L2">
-        <v>2379</v>
+        <v>3610</v>
       </c>
       <c r="M2">
-        <v>1088</v>
+        <v>2180</v>
       </c>
       <c r="N2">
-        <v>180573.84</v>
+        <v>289381.12</v>
       </c>
       <c r="O2">
-        <v>82501</v>
+        <v>218364</v>
       </c>
       <c r="P2">
-        <v>213994064.8</v>
+        <v>277482484.18</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -713,43 +779,43 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>1163</v>
+        <v>1564</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>4475452</v>
+        <v>5802126</v>
       </c>
       <c r="G3">
-        <v>5075820</v>
+        <v>8752643</v>
       </c>
       <c r="H3">
-        <v>62615</v>
+        <v>132469</v>
       </c>
       <c r="I3">
-        <v>42599</v>
+        <v>82202</v>
       </c>
       <c r="J3">
-        <v>12311</v>
+        <v>14919</v>
       </c>
       <c r="K3">
-        <v>8720</v>
+        <v>12028</v>
       </c>
       <c r="L3">
-        <v>817</v>
+        <v>1088</v>
       </c>
       <c r="M3">
-        <v>451</v>
+        <v>560</v>
       </c>
       <c r="N3">
-        <v>108931.37</v>
+        <v>142762.08</v>
       </c>
       <c r="O3">
-        <v>71662</v>
+        <v>134093</v>
       </c>
       <c r="P3">
-        <v>218206773.38</v>
+        <v>232179062.96</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -763,43 +829,43 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>816</v>
+        <v>1582</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>4571283</v>
+        <v>14573727</v>
       </c>
       <c r="G4">
-        <v>9564983</v>
+        <v>11370291</v>
       </c>
       <c r="H4">
-        <v>53846</v>
+        <v>424270</v>
       </c>
       <c r="I4">
-        <v>63235</v>
+        <v>165990</v>
       </c>
       <c r="J4">
-        <v>11284</v>
+        <v>45029</v>
       </c>
       <c r="K4">
-        <v>18484</v>
+        <v>36594</v>
       </c>
       <c r="L4">
-        <v>1550</v>
+        <v>4382</v>
       </c>
       <c r="M4">
-        <v>2306</v>
+        <v>3385</v>
       </c>
       <c r="N4">
-        <v>108534.88</v>
+        <v>244113.32</v>
       </c>
       <c r="O4">
-        <v>131145</v>
+        <v>173852</v>
       </c>
       <c r="P4">
-        <v>657812037.26</v>
+        <v>559961629.47</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -813,43 +879,43 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>1396</v>
+        <v>482</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>11486382</v>
+        <v>6075804</v>
       </c>
       <c r="G5">
-        <v>17631607</v>
+        <v>3898996</v>
       </c>
       <c r="H5">
-        <v>276189</v>
+        <v>241642</v>
       </c>
       <c r="I5">
-        <v>120956</v>
+        <v>100523</v>
       </c>
       <c r="J5">
-        <v>63725</v>
+        <v>18224</v>
       </c>
       <c r="K5">
-        <v>55444</v>
+        <v>3990</v>
       </c>
       <c r="L5">
-        <v>3826</v>
+        <v>1161</v>
       </c>
       <c r="M5">
-        <v>2620</v>
+        <v>620</v>
       </c>
       <c r="N5">
-        <v>510487.79</v>
+        <v>123174.94</v>
       </c>
       <c r="O5">
-        <v>254336</v>
+        <v>60930</v>
       </c>
       <c r="P5">
-        <v>2512688131.58</v>
+        <v>562980999.3099999</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -863,43 +929,43 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>767</v>
+        <v>965</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>2641488</v>
+        <v>6225549</v>
       </c>
       <c r="G6">
-        <v>1624661</v>
+        <v>6137219</v>
       </c>
       <c r="H6">
-        <v>29762</v>
+        <v>193866</v>
       </c>
       <c r="I6">
-        <v>30379</v>
+        <v>100565</v>
       </c>
       <c r="J6">
-        <v>14133</v>
+        <v>19518</v>
       </c>
       <c r="K6">
-        <v>16505</v>
+        <v>14436</v>
       </c>
       <c r="L6">
-        <v>663</v>
+        <v>1648</v>
       </c>
       <c r="M6">
-        <v>448</v>
+        <v>1376</v>
       </c>
       <c r="N6">
-        <v>52668.27</v>
+        <v>108282.92</v>
       </c>
       <c r="O6">
-        <v>77293</v>
+        <v>71848</v>
       </c>
       <c r="P6">
-        <v>160924991.02</v>
+        <v>110463217.69</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -913,43 +979,43 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>933</v>
+        <v>2231</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>1895722</v>
+        <v>3280802</v>
       </c>
       <c r="G7">
-        <v>2039657</v>
+        <v>6839193</v>
       </c>
       <c r="H7">
-        <v>21552</v>
+        <v>165398</v>
       </c>
       <c r="I7">
-        <v>18142</v>
+        <v>122371</v>
       </c>
       <c r="J7">
-        <v>11388</v>
+        <v>15726</v>
       </c>
       <c r="K7">
-        <v>16971</v>
+        <v>22291</v>
       </c>
       <c r="L7">
-        <v>864</v>
+        <v>1028</v>
       </c>
       <c r="M7">
-        <v>914</v>
+        <v>1860</v>
       </c>
       <c r="N7">
-        <v>50807.46</v>
+        <v>56339.34</v>
       </c>
       <c r="O7">
-        <v>88871</v>
+        <v>133984</v>
       </c>
       <c r="P7">
-        <v>29697519.98</v>
+        <v>50033463.75</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -963,43 +1029,43 @@
         <v>22</v>
       </c>
       <c r="D8">
-        <v>1830</v>
+        <v>483</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>1600080</v>
+        <v>11073859</v>
       </c>
       <c r="G8">
-        <v>3668666</v>
+        <v>7430428</v>
       </c>
       <c r="H8">
-        <v>59278</v>
+        <v>362387</v>
       </c>
       <c r="I8">
-        <v>74842</v>
+        <v>188678</v>
       </c>
       <c r="J8">
-        <v>10449</v>
+        <v>22912</v>
       </c>
       <c r="K8">
-        <v>18520</v>
+        <v>5902</v>
       </c>
       <c r="L8">
-        <v>856</v>
+        <v>1420</v>
       </c>
       <c r="M8">
-        <v>1446</v>
+        <v>1100</v>
       </c>
       <c r="N8">
-        <v>32683.2</v>
+        <v>253066.61</v>
       </c>
       <c r="O8">
-        <v>80741</v>
+        <v>99568</v>
       </c>
       <c r="P8">
-        <v>18581869.09</v>
+        <v>1479535607.69</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1013,43 +1079,43 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>451</v>
+        <v>1457</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F9">
-        <v>1852129</v>
+        <v>5370620</v>
       </c>
       <c r="G9">
-        <v>1923766</v>
+        <v>6228066</v>
       </c>
       <c r="H9">
-        <v>22729</v>
+        <v>149910</v>
       </c>
       <c r="I9">
-        <v>53953</v>
+        <v>131294</v>
       </c>
       <c r="J9">
-        <v>5660</v>
+        <v>16351</v>
       </c>
       <c r="K9">
-        <v>7158</v>
+        <v>13535</v>
       </c>
       <c r="L9">
-        <v>419</v>
+        <v>1211</v>
       </c>
       <c r="M9">
-        <v>385</v>
+        <v>1431</v>
       </c>
       <c r="N9">
-        <v>42874.36</v>
+        <v>119326.06</v>
       </c>
       <c r="O9">
-        <v>18702</v>
+        <v>96094</v>
       </c>
       <c r="P9">
-        <v>120862055.38</v>
+        <v>161009170.08</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1063,43 +1129,43 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>778</v>
+        <v>1023</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>6825668</v>
+        <v>5034248</v>
       </c>
       <c r="G10">
-        <v>7566214</v>
+        <v>3617501</v>
       </c>
       <c r="H10">
-        <v>49873</v>
+        <v>120496</v>
       </c>
       <c r="I10">
-        <v>45228</v>
+        <v>105976</v>
       </c>
       <c r="J10">
-        <v>14456</v>
+        <v>9705</v>
       </c>
       <c r="K10">
-        <v>19670</v>
+        <v>10394</v>
       </c>
       <c r="L10">
-        <v>1295</v>
+        <v>1541</v>
       </c>
       <c r="M10">
-        <v>1825</v>
+        <v>1397</v>
       </c>
       <c r="N10">
-        <v>126971.59</v>
+        <v>99109.85000000001</v>
       </c>
       <c r="O10">
-        <v>77199</v>
+        <v>78061</v>
       </c>
       <c r="P10">
-        <v>154015661.1</v>
+        <v>86201693.81</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1113,43 +1179,43 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <v>785</v>
+        <v>1227</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F11">
-        <v>3566508</v>
+        <v>8260765</v>
       </c>
       <c r="G11">
-        <v>5715235</v>
+        <v>6631269</v>
       </c>
       <c r="H11">
-        <v>50184</v>
+        <v>193820</v>
       </c>
       <c r="I11">
-        <v>17394</v>
+        <v>109418</v>
       </c>
       <c r="J11">
-        <v>18708</v>
+        <v>20869</v>
       </c>
       <c r="K11">
-        <v>13774</v>
+        <v>16487</v>
       </c>
       <c r="L11">
-        <v>433</v>
+        <v>671</v>
       </c>
       <c r="M11">
-        <v>479</v>
+        <v>1055</v>
       </c>
       <c r="N11">
-        <v>37857.67</v>
+        <v>88019.19</v>
       </c>
       <c r="O11">
-        <v>66214</v>
+        <v>95178</v>
       </c>
       <c r="P11">
-        <v>146140654.1</v>
+        <v>214232450.22</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1163,43 +1229,43 @@
         <v>26</v>
       </c>
       <c r="D12">
-        <v>978</v>
+        <v>1261</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>7010381</v>
+        <v>4189383</v>
       </c>
       <c r="G12">
-        <v>4909960</v>
+        <v>6061918</v>
       </c>
       <c r="H12">
-        <v>62117</v>
+        <v>150965</v>
       </c>
       <c r="I12">
-        <v>45407</v>
+        <v>120137</v>
       </c>
       <c r="J12">
-        <v>20395</v>
+        <v>12160</v>
       </c>
       <c r="K12">
-        <v>19347</v>
+        <v>13188</v>
       </c>
       <c r="L12">
-        <v>1653</v>
+        <v>1281</v>
       </c>
       <c r="M12">
-        <v>1294</v>
+        <v>1394</v>
       </c>
       <c r="N12">
-        <v>69928.09</v>
+        <v>60453.89</v>
       </c>
       <c r="O12">
-        <v>65653</v>
+        <v>95202</v>
       </c>
       <c r="P12">
-        <v>62394173.95</v>
+        <v>48124790.23</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1213,43 +1279,43 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>981</v>
+        <v>1168</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>3572001</v>
+        <v>4070531</v>
       </c>
       <c r="G13">
-        <v>2369409</v>
+        <v>3443296</v>
       </c>
       <c r="H13">
-        <v>58369</v>
+        <v>79773</v>
       </c>
       <c r="I13">
-        <v>38756</v>
+        <v>62017</v>
       </c>
       <c r="J13">
-        <v>8032</v>
+        <v>15883</v>
       </c>
       <c r="K13">
-        <v>8868</v>
+        <v>18392</v>
       </c>
       <c r="L13">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="M13">
-        <v>1053</v>
+        <v>781</v>
       </c>
       <c r="N13">
-        <v>47296.99</v>
+        <v>106268.88</v>
       </c>
       <c r="O13">
-        <v>37216</v>
+        <v>131955</v>
       </c>
       <c r="P13">
-        <v>161558224.54</v>
+        <v>193785088.52</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1263,43 +1329,43 @@
         <v>28</v>
       </c>
       <c r="D14">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>13044197</v>
+        <v>10512329</v>
       </c>
       <c r="G14">
-        <v>8571987</v>
+        <v>11832309</v>
       </c>
       <c r="H14">
-        <v>310714</v>
+        <v>256702</v>
       </c>
       <c r="I14">
-        <v>105999</v>
+        <v>153387</v>
       </c>
       <c r="J14">
-        <v>38594</v>
+        <v>23269</v>
       </c>
       <c r="K14">
-        <v>32487</v>
+        <v>25058</v>
       </c>
       <c r="L14">
-        <v>3570</v>
+        <v>3159</v>
       </c>
       <c r="M14">
-        <v>2860</v>
+        <v>3229</v>
       </c>
       <c r="N14">
-        <v>207135.79</v>
+        <v>252058.65</v>
       </c>
       <c r="O14">
-        <v>114248</v>
+        <v>158637</v>
       </c>
       <c r="P14">
-        <v>522848267.55</v>
+        <v>264475014.39</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1313,43 +1379,43 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>2534998</v>
+        <v>7695191</v>
       </c>
       <c r="G15">
-        <v>1428596</v>
+        <v>2605873</v>
       </c>
       <c r="H15">
-        <v>10746</v>
+        <v>146787</v>
       </c>
       <c r="I15">
-        <v>25160</v>
+        <v>120108</v>
       </c>
       <c r="J15">
-        <v>4476</v>
+        <v>12237</v>
       </c>
       <c r="K15">
-        <v>5620</v>
+        <v>10768</v>
       </c>
       <c r="L15">
-        <v>410</v>
+        <v>1731</v>
       </c>
       <c r="M15">
-        <v>461</v>
+        <v>728</v>
       </c>
       <c r="N15">
-        <v>32925.71</v>
+        <v>152712.02</v>
       </c>
       <c r="O15">
-        <v>31257</v>
+        <v>64388</v>
       </c>
       <c r="P15">
-        <v>26568854.58</v>
+        <v>422755995.4</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1363,43 +1429,43 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>825</v>
+        <v>1186</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>5903897</v>
+        <v>6959527</v>
       </c>
       <c r="G16">
-        <v>2705238</v>
+        <v>9996806</v>
       </c>
       <c r="H16">
-        <v>47902</v>
+        <v>239486</v>
       </c>
       <c r="I16">
-        <v>44007</v>
+        <v>120852</v>
       </c>
       <c r="J16">
-        <v>13648</v>
+        <v>26452</v>
       </c>
       <c r="K16">
-        <v>11447</v>
+        <v>21002</v>
       </c>
       <c r="L16">
-        <v>316</v>
+        <v>720</v>
       </c>
       <c r="M16">
-        <v>396</v>
+        <v>881</v>
       </c>
       <c r="N16">
-        <v>51217.17</v>
+        <v>65852.03</v>
       </c>
       <c r="O16">
-        <v>36222</v>
+        <v>130482</v>
       </c>
       <c r="P16">
-        <v>142728593.55</v>
+        <v>224442903.44</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1413,43 +1479,43 @@
         <v>31</v>
       </c>
       <c r="D17">
-        <v>977</v>
+        <v>834</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>8016495</v>
+        <v>1933975</v>
       </c>
       <c r="G17">
-        <v>3786193</v>
+        <v>3827415</v>
       </c>
       <c r="H17">
-        <v>38537</v>
+        <v>74930</v>
       </c>
       <c r="I17">
-        <v>39187</v>
+        <v>89000</v>
       </c>
       <c r="J17">
-        <v>10623</v>
+        <v>4973</v>
       </c>
       <c r="K17">
-        <v>14517</v>
+        <v>8428</v>
       </c>
       <c r="L17">
-        <v>659</v>
+        <v>414</v>
       </c>
       <c r="M17">
-        <v>755</v>
+        <v>823</v>
       </c>
       <c r="N17">
-        <v>140386.59</v>
+        <v>25500.54</v>
       </c>
       <c r="O17">
-        <v>71373</v>
+        <v>88249</v>
       </c>
       <c r="P17">
-        <v>245354656.09</v>
+        <v>183535389.8</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1463,43 +1529,43 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>2050</v>
+        <v>1391</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F18">
-        <v>5879772</v>
+        <v>5641247</v>
       </c>
       <c r="G18">
-        <v>6256848</v>
+        <v>5882375</v>
       </c>
       <c r="H18">
-        <v>142618</v>
+        <v>140212</v>
       </c>
       <c r="I18">
-        <v>190634</v>
+        <v>119230</v>
       </c>
       <c r="J18">
-        <v>12384</v>
+        <v>25830</v>
       </c>
       <c r="K18">
-        <v>24101</v>
+        <v>20414</v>
       </c>
       <c r="L18">
-        <v>1298</v>
+        <v>2639</v>
       </c>
       <c r="M18">
-        <v>2137</v>
+        <v>1346</v>
       </c>
       <c r="N18">
-        <v>138081.75</v>
+        <v>92923.92</v>
       </c>
       <c r="O18">
-        <v>111283</v>
+        <v>116612</v>
       </c>
       <c r="P18">
-        <v>33669534.7</v>
+        <v>111490918.92</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1513,43 +1579,43 @@
         <v>33</v>
       </c>
       <c r="D19">
-        <v>591</v>
+        <v>1379</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>11960965</v>
+        <v>11890792</v>
       </c>
       <c r="G19">
-        <v>5196642</v>
+        <v>7004093</v>
       </c>
       <c r="H19">
-        <v>61759</v>
+        <v>178372</v>
       </c>
       <c r="I19">
-        <v>91269</v>
+        <v>138491</v>
       </c>
       <c r="J19">
-        <v>12723</v>
+        <v>18361</v>
       </c>
       <c r="K19">
-        <v>15839</v>
+        <v>18542</v>
       </c>
       <c r="L19">
-        <v>1469</v>
+        <v>1348</v>
       </c>
       <c r="M19">
-        <v>1876</v>
+        <v>1590</v>
       </c>
       <c r="N19">
-        <v>100927.91</v>
+        <v>234704.54</v>
       </c>
       <c r="O19">
-        <v>56998</v>
+        <v>140356</v>
       </c>
       <c r="P19">
-        <v>616071935.01</v>
+        <v>476885480.96</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1563,43 +1629,43 @@
         <v>34</v>
       </c>
       <c r="D20">
-        <v>694</v>
+        <v>1178</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>811144</v>
+        <v>2986667</v>
       </c>
       <c r="G20">
-        <v>1140369</v>
+        <v>4684453</v>
       </c>
       <c r="H20">
-        <v>11087</v>
+        <v>140954</v>
       </c>
       <c r="I20">
-        <v>39767</v>
+        <v>85463</v>
       </c>
       <c r="J20">
-        <v>4417</v>
+        <v>9222</v>
       </c>
       <c r="K20">
-        <v>5158</v>
+        <v>7277</v>
       </c>
       <c r="L20">
-        <v>284</v>
+        <v>1504</v>
       </c>
       <c r="M20">
-        <v>365</v>
+        <v>1431</v>
       </c>
       <c r="N20">
-        <v>29593.99</v>
+        <v>73663.88</v>
       </c>
       <c r="O20">
-        <v>32424</v>
+        <v>99268</v>
       </c>
       <c r="P20">
-        <v>33856324.15</v>
+        <v>60351140.37</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1613,43 +1679,43 @@
         <v>35</v>
       </c>
       <c r="D21">
-        <v>859</v>
+        <v>338</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>1542104</v>
+        <v>7697171</v>
       </c>
       <c r="G21">
-        <v>2757213</v>
+        <v>7381039</v>
       </c>
       <c r="H21">
-        <v>28305</v>
+        <v>302289</v>
       </c>
       <c r="I21">
-        <v>45578</v>
+        <v>271232</v>
       </c>
       <c r="J21">
-        <v>8152</v>
+        <v>25308</v>
       </c>
       <c r="K21">
-        <v>8564</v>
+        <v>13495</v>
       </c>
       <c r="L21">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M21">
-        <v>658</v>
+        <v>543</v>
       </c>
       <c r="N21">
-        <v>14911.21</v>
+        <v>253089.89</v>
       </c>
       <c r="O21">
-        <v>35754</v>
+        <v>96950</v>
       </c>
       <c r="P21">
-        <v>14045351.04</v>
+        <v>1250094827.77</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1663,43 +1729,43 @@
         <v>36</v>
       </c>
       <c r="D22">
-        <v>819</v>
+        <v>1222</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F22">
-        <v>4467046</v>
+        <v>3489586</v>
       </c>
       <c r="G22">
-        <v>5284678</v>
+        <v>4874727</v>
       </c>
       <c r="H22">
-        <v>40360</v>
+        <v>124859</v>
       </c>
       <c r="I22">
-        <v>40118</v>
+        <v>110811</v>
       </c>
       <c r="J22">
-        <v>9727</v>
+        <v>12732</v>
       </c>
       <c r="K22">
-        <v>7418</v>
+        <v>12884</v>
       </c>
       <c r="L22">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="M22">
-        <v>774</v>
+        <v>708</v>
       </c>
       <c r="N22">
-        <v>62095.38</v>
+        <v>39293.04</v>
       </c>
       <c r="O22">
-        <v>40604</v>
+        <v>82311</v>
       </c>
       <c r="P22">
-        <v>85310030</v>
+        <v>69931087.62</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1713,43 +1779,43 @@
         <v>37</v>
       </c>
       <c r="D23">
-        <v>1055</v>
+        <v>853</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>2660502</v>
+        <v>4523001</v>
       </c>
       <c r="G23">
-        <v>2915730</v>
+        <v>5359182</v>
       </c>
       <c r="H23">
-        <v>26153</v>
+        <v>163548</v>
       </c>
       <c r="I23">
-        <v>62597</v>
+        <v>113593</v>
       </c>
       <c r="J23">
-        <v>9854</v>
+        <v>17695</v>
       </c>
       <c r="K23">
-        <v>9325</v>
+        <v>10925</v>
       </c>
       <c r="L23">
-        <v>574</v>
+        <v>1052</v>
       </c>
       <c r="M23">
-        <v>709</v>
+        <v>1163</v>
       </c>
       <c r="N23">
-        <v>51693.24</v>
+        <v>97556.95</v>
       </c>
       <c r="O23">
-        <v>31653</v>
+        <v>79096</v>
       </c>
       <c r="P23">
-        <v>66766209.08</v>
+        <v>229466870.51</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1763,43 +1829,43 @@
         <v>38</v>
       </c>
       <c r="D24">
-        <v>989</v>
+        <v>488</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F24">
-        <v>4277014</v>
+        <v>6819486</v>
       </c>
       <c r="G24">
-        <v>3915176</v>
+        <v>2561034</v>
       </c>
       <c r="H24">
-        <v>71341</v>
+        <v>166833</v>
       </c>
       <c r="I24">
-        <v>68444</v>
+        <v>136830</v>
       </c>
       <c r="J24">
-        <v>18037</v>
+        <v>15213</v>
       </c>
       <c r="K24">
-        <v>16141</v>
+        <v>4853</v>
       </c>
       <c r="L24">
-        <v>1269</v>
+        <v>797</v>
       </c>
       <c r="M24">
-        <v>549</v>
+        <v>773</v>
       </c>
       <c r="N24">
-        <v>62651.99</v>
+        <v>153427.7</v>
       </c>
       <c r="O24">
-        <v>47580</v>
+        <v>50070</v>
       </c>
       <c r="P24">
-        <v>87746280</v>
+        <v>652763036.85</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1813,43 +1879,43 @@
         <v>39</v>
       </c>
       <c r="D25">
-        <v>753</v>
+        <v>410</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>4517534</v>
+        <v>3044578</v>
       </c>
       <c r="G25">
-        <v>2572816</v>
+        <v>3421533</v>
       </c>
       <c r="H25">
-        <v>61139</v>
+        <v>96660</v>
       </c>
       <c r="I25">
-        <v>43152</v>
+        <v>91233</v>
       </c>
       <c r="J25">
-        <v>17376</v>
+        <v>8784</v>
       </c>
       <c r="K25">
-        <v>14256</v>
+        <v>5090</v>
       </c>
       <c r="L25">
-        <v>609</v>
+        <v>763</v>
       </c>
       <c r="M25">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="N25">
-        <v>31417.17</v>
+        <v>106635.41</v>
       </c>
       <c r="O25">
-        <v>58374</v>
+        <v>74250</v>
       </c>
       <c r="P25">
-        <v>61749248.31</v>
+        <v>121949319.6</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1863,43 +1929,43 @@
         <v>40</v>
       </c>
       <c r="D26">
-        <v>564</v>
+        <v>1221</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>2197091</v>
+        <v>6051765</v>
       </c>
       <c r="G26">
-        <v>1930534</v>
+        <v>7701436</v>
       </c>
       <c r="H26">
-        <v>16554</v>
+        <v>131612</v>
       </c>
       <c r="I26">
-        <v>25167</v>
+        <v>103200</v>
       </c>
       <c r="J26">
-        <v>8465</v>
+        <v>12157</v>
       </c>
       <c r="K26">
-        <v>9346</v>
+        <v>10663</v>
       </c>
       <c r="L26">
-        <v>443</v>
+        <v>643</v>
       </c>
       <c r="M26">
-        <v>589</v>
+        <v>1173</v>
       </c>
       <c r="N26">
-        <v>21898.67</v>
+        <v>82936.27</v>
       </c>
       <c r="O26">
-        <v>14879</v>
+        <v>78954</v>
       </c>
       <c r="P26">
-        <v>34563614.23</v>
+        <v>108627251.91</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1913,43 +1979,43 @@
         <v>41</v>
       </c>
       <c r="D27">
-        <v>821</v>
+        <v>485</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27">
-        <v>1722111</v>
+        <v>3906230</v>
       </c>
       <c r="G27">
-        <v>1880070</v>
+        <v>3737893</v>
       </c>
       <c r="H27">
-        <v>14714</v>
+        <v>140396</v>
       </c>
       <c r="I27">
-        <v>28705</v>
+        <v>156604</v>
       </c>
       <c r="J27">
-        <v>6604</v>
+        <v>11785</v>
       </c>
       <c r="K27">
-        <v>7136</v>
+        <v>11043</v>
       </c>
       <c r="L27">
-        <v>214</v>
+        <v>946</v>
       </c>
       <c r="M27">
-        <v>212</v>
+        <v>544</v>
       </c>
       <c r="N27">
-        <v>13838.91</v>
+        <v>83160.23</v>
       </c>
       <c r="O27">
-        <v>25113</v>
+        <v>65083</v>
       </c>
       <c r="P27">
-        <v>36838391.75</v>
+        <v>171185926.67</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1963,43 +2029,43 @@
         <v>42</v>
       </c>
       <c r="D28">
-        <v>776</v>
+        <v>993</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>712139</v>
+        <v>12721592</v>
       </c>
       <c r="G28">
-        <v>851095</v>
+        <v>6923046</v>
       </c>
       <c r="H28">
-        <v>14555</v>
+        <v>112306</v>
       </c>
       <c r="I28">
-        <v>29551</v>
+        <v>136202</v>
       </c>
       <c r="J28">
-        <v>4361</v>
+        <v>13714</v>
       </c>
       <c r="K28">
-        <v>4051</v>
+        <v>18303</v>
       </c>
       <c r="L28">
-        <v>582</v>
+        <v>1579</v>
       </c>
       <c r="M28">
-        <v>504</v>
+        <v>2178</v>
       </c>
       <c r="N28">
-        <v>34530.72</v>
+        <v>119892.63</v>
       </c>
       <c r="O28">
-        <v>40531</v>
+        <v>91467</v>
       </c>
       <c r="P28">
-        <v>22892761.67</v>
+        <v>625767822.6900001</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2013,43 +2079,43 @@
         <v>43</v>
       </c>
       <c r="D29">
-        <v>131</v>
+        <v>1380</v>
       </c>
       <c r="E29">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F29">
-        <v>523328</v>
+        <v>8352229</v>
       </c>
       <c r="G29">
-        <v>307986</v>
+        <v>6836919</v>
       </c>
       <c r="H29">
-        <v>4038</v>
+        <v>121221</v>
       </c>
       <c r="I29">
-        <v>1590</v>
+        <v>93780</v>
       </c>
       <c r="J29">
-        <v>916</v>
+        <v>24931</v>
       </c>
       <c r="K29">
-        <v>544</v>
+        <v>24052</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>2468</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>1998</v>
       </c>
       <c r="N29">
-        <v>9984</v>
+        <v>92827.88</v>
       </c>
       <c r="O29">
-        <v>1519</v>
+        <v>122752</v>
       </c>
       <c r="P29">
-        <v>32007301.32</v>
+        <v>98595015.44</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2063,43 +2129,43 @@
         <v>44</v>
       </c>
       <c r="D30">
-        <v>697</v>
+        <v>372</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>3194762</v>
+        <v>6028788</v>
       </c>
       <c r="G30">
-        <v>2800006</v>
+        <v>2570483</v>
       </c>
       <c r="H30">
-        <v>40021</v>
+        <v>178337</v>
       </c>
       <c r="I30">
-        <v>42857</v>
+        <v>157229</v>
       </c>
       <c r="J30">
-        <v>7224</v>
+        <v>17627</v>
       </c>
       <c r="K30">
-        <v>7010</v>
+        <v>6876</v>
       </c>
       <c r="L30">
-        <v>439</v>
+        <v>1176</v>
       </c>
       <c r="M30">
-        <v>185</v>
+        <v>714</v>
       </c>
       <c r="N30">
-        <v>41388.24</v>
+        <v>120390.74</v>
       </c>
       <c r="O30">
-        <v>32107</v>
+        <v>40150</v>
       </c>
       <c r="P30">
-        <v>42675350.76</v>
+        <v>390831839.89</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2113,43 +2179,43 @@
         <v>45</v>
       </c>
       <c r="D31">
-        <v>883</v>
+        <v>752</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F31">
-        <v>2102691</v>
+        <v>2084111</v>
       </c>
       <c r="G31">
-        <v>1738381</v>
+        <v>1950232</v>
       </c>
       <c r="H31">
-        <v>20637</v>
+        <v>63868</v>
       </c>
       <c r="I31">
-        <v>35182</v>
+        <v>94293</v>
       </c>
       <c r="J31">
-        <v>6703</v>
+        <v>7034</v>
       </c>
       <c r="K31">
-        <v>7055</v>
+        <v>4856</v>
       </c>
       <c r="L31">
-        <v>563</v>
+        <v>454</v>
       </c>
       <c r="M31">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="N31">
-        <v>39017.03</v>
+        <v>42600.98</v>
       </c>
       <c r="O31">
-        <v>38059</v>
+        <v>51385</v>
       </c>
       <c r="P31">
-        <v>40243228.62</v>
+        <v>99893783.27</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2163,43 +2229,43 @@
         <v>46</v>
       </c>
       <c r="D32">
-        <v>315</v>
+        <v>1656</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>4134734</v>
+        <v>8925812</v>
       </c>
       <c r="G32">
-        <v>2140137</v>
+        <v>6021440</v>
       </c>
       <c r="H32">
-        <v>29094</v>
+        <v>154401</v>
       </c>
       <c r="I32">
-        <v>14182</v>
+        <v>154344</v>
       </c>
       <c r="J32">
-        <v>11671</v>
+        <v>24196</v>
       </c>
       <c r="K32">
-        <v>8271</v>
+        <v>24324</v>
       </c>
       <c r="L32">
-        <v>710</v>
+        <v>2426</v>
       </c>
       <c r="M32">
-        <v>488</v>
+        <v>1915</v>
       </c>
       <c r="N32">
-        <v>34989.36</v>
+        <v>93846.41</v>
       </c>
       <c r="O32">
-        <v>25083</v>
+        <v>104982</v>
       </c>
       <c r="P32">
-        <v>120947904.56</v>
+        <v>251691678.69</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2213,43 +2279,43 @@
         <v>47</v>
       </c>
       <c r="D33">
-        <v>171</v>
+        <v>472</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F33">
-        <v>187198</v>
+        <v>1568520</v>
       </c>
       <c r="G33">
-        <v>105439</v>
+        <v>1637806</v>
       </c>
       <c r="H33">
-        <v>599</v>
+        <v>43194</v>
       </c>
       <c r="I33">
-        <v>476</v>
+        <v>45610</v>
       </c>
       <c r="J33">
-        <v>574</v>
+        <v>5768</v>
       </c>
       <c r="K33">
-        <v>244</v>
+        <v>5308</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="N33">
-        <v>5873.85</v>
+        <v>33937.02</v>
       </c>
       <c r="O33">
-        <v>134</v>
+        <v>51432</v>
       </c>
       <c r="P33">
-        <v>53483079.42</v>
+        <v>89782540.36</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2263,43 +2329,43 @@
         <v>48</v>
       </c>
       <c r="D34">
-        <v>216</v>
+        <v>404</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F34">
-        <v>957506</v>
+        <v>4683558</v>
       </c>
       <c r="G34">
-        <v>790093</v>
+        <v>2243512</v>
       </c>
       <c r="H34">
-        <v>2680</v>
+        <v>146757</v>
       </c>
       <c r="I34">
-        <v>3779</v>
+        <v>126666</v>
       </c>
       <c r="J34">
-        <v>2599</v>
+        <v>13508</v>
       </c>
       <c r="K34">
-        <v>2320</v>
+        <v>8780</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>1157</v>
       </c>
       <c r="M34">
-        <v>68</v>
+        <v>718</v>
       </c>
       <c r="N34">
-        <v>20538.34</v>
+        <v>92859.49000000001</v>
       </c>
       <c r="O34">
-        <v>5841</v>
+        <v>27971</v>
       </c>
       <c r="P34">
-        <v>146759047.73</v>
+        <v>219154026.7</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2313,43 +2379,43 @@
         <v>49</v>
       </c>
       <c r="D35">
-        <v>814</v>
+        <v>483</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F35">
-        <v>621441</v>
+        <v>3372410</v>
       </c>
       <c r="G35">
-        <v>1029414</v>
+        <v>3222138</v>
       </c>
       <c r="H35">
-        <v>6317</v>
+        <v>128873</v>
       </c>
       <c r="I35">
-        <v>27402</v>
+        <v>89661</v>
       </c>
       <c r="J35">
-        <v>2468</v>
+        <v>8552</v>
       </c>
       <c r="K35">
-        <v>5681</v>
+        <v>4609</v>
       </c>
       <c r="L35">
-        <v>253</v>
+        <v>577</v>
       </c>
       <c r="M35">
-        <v>748</v>
+        <v>697</v>
       </c>
       <c r="N35">
-        <v>10759.21</v>
+        <v>65602.64</v>
       </c>
       <c r="O35">
-        <v>48345</v>
+        <v>43210</v>
       </c>
       <c r="P35">
-        <v>27948608.46</v>
+        <v>190343555.95</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2363,43 +2429,43 @@
         <v>50</v>
       </c>
       <c r="D36">
-        <v>689</v>
+        <v>483</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F36">
-        <v>2356520</v>
+        <v>2811622</v>
       </c>
       <c r="G36">
-        <v>1332492</v>
+        <v>2729658</v>
       </c>
       <c r="H36">
-        <v>30963</v>
+        <v>113857</v>
       </c>
       <c r="I36">
-        <v>32383</v>
+        <v>85597</v>
       </c>
       <c r="J36">
-        <v>4482</v>
+        <v>5720</v>
       </c>
       <c r="K36">
-        <v>6236</v>
+        <v>4268</v>
       </c>
       <c r="L36">
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="M36">
-        <v>516</v>
+        <v>292</v>
       </c>
       <c r="N36">
-        <v>39601.7</v>
+        <v>69000.78999999999</v>
       </c>
       <c r="O36">
-        <v>23599</v>
+        <v>38643</v>
       </c>
       <c r="P36">
-        <v>130727029.37</v>
+        <v>160895062.67</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2413,43 +2479,43 @@
         <v>51</v>
       </c>
       <c r="D37">
-        <v>886</v>
+        <v>1091</v>
       </c>
       <c r="E37">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>6065802</v>
+        <v>4212014</v>
       </c>
       <c r="G37">
-        <v>4843861</v>
+        <v>2386597</v>
       </c>
       <c r="H37">
-        <v>53152</v>
+        <v>89531</v>
       </c>
       <c r="I37">
-        <v>93647</v>
+        <v>89843</v>
       </c>
       <c r="J37">
-        <v>9778</v>
+        <v>8990</v>
       </c>
       <c r="K37">
-        <v>11899</v>
+        <v>9688</v>
       </c>
       <c r="L37">
-        <v>609</v>
+        <v>704</v>
       </c>
       <c r="M37">
-        <v>364</v>
+        <v>1155</v>
       </c>
       <c r="N37">
-        <v>32609.12</v>
+        <v>70636.53999999999</v>
       </c>
       <c r="O37">
-        <v>52640</v>
+        <v>58782</v>
       </c>
       <c r="P37">
-        <v>199609503.59</v>
+        <v>192477448.43</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2463,43 +2529,43 @@
         <v>52</v>
       </c>
       <c r="D38">
-        <v>747</v>
+        <v>421</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38">
-        <v>1009663</v>
+        <v>1832547</v>
       </c>
       <c r="G38">
-        <v>541472</v>
+        <v>1473531</v>
       </c>
       <c r="H38">
-        <v>21274</v>
+        <v>51402</v>
       </c>
       <c r="I38">
-        <v>20963</v>
+        <v>40475</v>
       </c>
       <c r="J38">
-        <v>2460</v>
+        <v>2695</v>
       </c>
       <c r="K38">
-        <v>2189</v>
+        <v>2671</v>
       </c>
       <c r="L38">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="M38">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="N38">
-        <v>19287.61</v>
+        <v>32227.58</v>
       </c>
       <c r="O38">
-        <v>4532</v>
+        <v>13349</v>
       </c>
       <c r="P38">
-        <v>14816935.93</v>
+        <v>97451910.59</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2513,43 +2579,43 @@
         <v>53</v>
       </c>
       <c r="D39">
-        <v>1046</v>
+        <v>1287</v>
       </c>
       <c r="E39">
         <v>15</v>
       </c>
       <c r="F39">
-        <v>3280550</v>
+        <v>8270880</v>
       </c>
       <c r="G39">
-        <v>2102175</v>
+        <v>7496193</v>
       </c>
       <c r="H39">
-        <v>25417</v>
+        <v>175082</v>
       </c>
       <c r="I39">
-        <v>49951</v>
+        <v>187500</v>
       </c>
       <c r="J39">
-        <v>6305</v>
+        <v>17357</v>
       </c>
       <c r="K39">
-        <v>10256</v>
+        <v>18034</v>
       </c>
       <c r="L39">
-        <v>576</v>
+        <v>1653</v>
       </c>
       <c r="M39">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="N39">
-        <v>30180.51</v>
+        <v>67297.34</v>
       </c>
       <c r="O39">
-        <v>52451</v>
+        <v>86983</v>
       </c>
       <c r="P39">
-        <v>52536064.6</v>
+        <v>263751197.34</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2563,43 +2629,43 @@
         <v>54</v>
       </c>
       <c r="D40">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="E40">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>3248620</v>
+        <v>1542177</v>
       </c>
       <c r="G40">
-        <v>2156502</v>
+        <v>1512954</v>
       </c>
       <c r="H40">
-        <v>29347</v>
+        <v>31723</v>
       </c>
       <c r="I40">
-        <v>73789</v>
+        <v>41158</v>
       </c>
       <c r="J40">
-        <v>8519</v>
+        <v>3203</v>
       </c>
       <c r="K40">
-        <v>8969</v>
+        <v>4301</v>
       </c>
       <c r="L40">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="M40">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="N40">
-        <v>27941.98</v>
+        <v>26005.66</v>
       </c>
       <c r="O40">
-        <v>29979</v>
+        <v>23705</v>
       </c>
       <c r="P40">
-        <v>78533518.02</v>
+        <v>65354703.56</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2613,43 +2679,43 @@
         <v>55</v>
       </c>
       <c r="D41">
-        <v>89</v>
+        <v>460</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41">
-        <v>1327685</v>
+        <v>3563714</v>
       </c>
       <c r="G41">
-        <v>598770</v>
+        <v>2746887</v>
       </c>
       <c r="H41">
-        <v>15369</v>
+        <v>106708</v>
       </c>
       <c r="I41">
-        <v>2151</v>
+        <v>56917</v>
       </c>
       <c r="J41">
-        <v>1475</v>
+        <v>6375</v>
       </c>
       <c r="K41">
-        <v>1347</v>
+        <v>7005</v>
       </c>
       <c r="L41">
-        <v>183</v>
+        <v>1273</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>1603</v>
       </c>
       <c r="N41">
-        <v>67952.57000000001</v>
+        <v>79794.74000000001</v>
       </c>
       <c r="O41">
-        <v>1740</v>
+        <v>42047</v>
       </c>
       <c r="P41">
-        <v>329994256.5</v>
+        <v>148655867.39</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2663,43 +2729,43 @@
         <v>56</v>
       </c>
       <c r="D42">
-        <v>132</v>
+        <v>1157</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>99758</v>
+        <v>12737234</v>
       </c>
       <c r="G42">
-        <v>101085</v>
+        <v>4294924</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>171263</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>101750</v>
       </c>
       <c r="J42">
-        <v>18</v>
+        <v>31631</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>14381</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>1750</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>762</v>
       </c>
       <c r="N42">
-        <v>63534.91</v>
+        <v>146331.26</v>
       </c>
       <c r="O42">
-        <v>391</v>
+        <v>61827</v>
       </c>
       <c r="P42">
-        <v>578743402.47</v>
+        <v>595700260.72</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2713,43 +2779,43 @@
         <v>57</v>
       </c>
       <c r="D43">
-        <v>350</v>
+        <v>533</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F43">
-        <v>605380</v>
+        <v>1456067</v>
       </c>
       <c r="G43">
-        <v>501756</v>
+        <v>2143903</v>
       </c>
       <c r="H43">
-        <v>6560</v>
+        <v>54027</v>
       </c>
       <c r="I43">
-        <v>20757</v>
+        <v>59798</v>
       </c>
       <c r="J43">
-        <v>1486</v>
+        <v>2680</v>
       </c>
       <c r="K43">
-        <v>693</v>
+        <v>4211</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>337</v>
       </c>
       <c r="M43">
-        <v>83</v>
+        <v>584</v>
       </c>
       <c r="N43">
-        <v>16204.35</v>
+        <v>27239.21</v>
       </c>
       <c r="O43">
-        <v>11596</v>
+        <v>52635</v>
       </c>
       <c r="P43">
-        <v>65891576.52</v>
+        <v>41854423.28</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2763,43 +2829,43 @@
         <v>58</v>
       </c>
       <c r="D44">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="E44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>969194</v>
+        <v>1549973</v>
       </c>
       <c r="G44">
-        <v>573870</v>
+        <v>1354547</v>
       </c>
       <c r="H44">
-        <v>14557</v>
+        <v>50744</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>49982</v>
       </c>
       <c r="J44">
-        <v>682</v>
+        <v>5236</v>
       </c>
       <c r="K44">
-        <v>380</v>
+        <v>3810</v>
       </c>
       <c r="L44">
-        <v>82</v>
+        <v>527</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="N44">
-        <v>61821.47</v>
+        <v>33898.38</v>
       </c>
       <c r="O44">
-        <v>825</v>
+        <v>10555</v>
       </c>
       <c r="P44">
-        <v>250389728.48</v>
+        <v>171241431.76</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2813,43 +2879,43 @@
         <v>59</v>
       </c>
       <c r="D45">
-        <v>291</v>
+        <v>1448</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F45">
-        <v>571419</v>
+        <v>4207724</v>
       </c>
       <c r="G45">
-        <v>407655</v>
+        <v>2958544</v>
       </c>
       <c r="H45">
-        <v>4938</v>
+        <v>50214</v>
       </c>
       <c r="I45">
-        <v>6448</v>
+        <v>85027</v>
       </c>
       <c r="J45">
-        <v>980</v>
+        <v>9397</v>
       </c>
       <c r="K45">
-        <v>1507</v>
+        <v>12636</v>
       </c>
       <c r="L45">
-        <v>174</v>
+        <v>873</v>
       </c>
       <c r="M45">
-        <v>214</v>
+        <v>1205</v>
       </c>
       <c r="N45">
-        <v>7442.21</v>
+        <v>39198.94</v>
       </c>
       <c r="O45">
-        <v>7049</v>
+        <v>87636</v>
       </c>
       <c r="P45">
-        <v>11339111.29</v>
+        <v>59360282.16</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2863,43 +2929,43 @@
         <v>60</v>
       </c>
       <c r="D46">
-        <v>81</v>
+        <v>717</v>
       </c>
       <c r="E46">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>515764</v>
+        <v>4862037</v>
       </c>
       <c r="G46">
-        <v>326772</v>
+        <v>2629155</v>
       </c>
       <c r="H46">
-        <v>6066</v>
+        <v>44394</v>
       </c>
       <c r="I46">
-        <v>2679</v>
+        <v>34644</v>
       </c>
       <c r="J46">
-        <v>774</v>
+        <v>14592</v>
       </c>
       <c r="K46">
-        <v>480</v>
+        <v>11190</v>
       </c>
       <c r="L46">
-        <v>57</v>
+        <v>874</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>619</v>
       </c>
       <c r="N46">
-        <v>11540.18</v>
+        <v>43967.48</v>
       </c>
       <c r="O46">
-        <v>1317</v>
+        <v>50826</v>
       </c>
       <c r="P46">
-        <v>79564234.72</v>
+        <v>134581330.45</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2913,43 +2979,43 @@
         <v>61</v>
       </c>
       <c r="D47">
-        <v>80</v>
+        <v>1155</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47">
-        <v>693890</v>
+        <v>4589159</v>
       </c>
       <c r="G47">
-        <v>358224</v>
+        <v>2572816</v>
       </c>
       <c r="H47">
-        <v>9940</v>
+        <v>63691</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>61990</v>
       </c>
       <c r="J47">
-        <v>239</v>
+        <v>17376</v>
       </c>
       <c r="K47">
-        <v>198</v>
+        <v>15771</v>
       </c>
       <c r="L47">
-        <v>97</v>
+        <v>609</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="N47">
-        <v>28733.98</v>
+        <v>31417.17</v>
       </c>
       <c r="O47">
-        <v>1045</v>
+        <v>101621</v>
       </c>
       <c r="P47">
-        <v>187530476.83</v>
+        <v>61749248.31</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2963,43 +3029,43 @@
         <v>62</v>
       </c>
       <c r="D48">
-        <v>144</v>
+        <v>1285</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F48">
-        <v>615557</v>
+        <v>3312034</v>
       </c>
       <c r="G48">
-        <v>307384</v>
+        <v>3636790</v>
       </c>
       <c r="H48">
-        <v>9619</v>
+        <v>50768</v>
       </c>
       <c r="I48">
-        <v>6596</v>
+        <v>74580</v>
       </c>
       <c r="J48">
-        <v>842</v>
+        <v>9415</v>
       </c>
       <c r="K48">
-        <v>411</v>
+        <v>9882</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>692</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>856</v>
       </c>
       <c r="N48">
-        <v>15691.97</v>
+        <v>46813.04</v>
       </c>
       <c r="O48">
-        <v>2049</v>
+        <v>77027</v>
       </c>
       <c r="P48">
-        <v>66307816.42</v>
+        <v>44544012.15</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3013,43 +3079,43 @@
         <v>63</v>
       </c>
       <c r="D49">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F49">
-        <v>117046</v>
+        <v>2927299</v>
       </c>
       <c r="G49">
-        <v>53529</v>
+        <v>1438917</v>
       </c>
       <c r="H49">
-        <v>2166</v>
+        <v>53519</v>
       </c>
       <c r="I49">
-        <v>197</v>
+        <v>79630</v>
       </c>
       <c r="J49">
-        <v>385</v>
+        <v>6788</v>
       </c>
       <c r="K49">
-        <v>319</v>
+        <v>4153</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="N49">
-        <v>10766.15</v>
+        <v>81054.50999999999</v>
       </c>
       <c r="O49">
-        <v>115</v>
+        <v>26027</v>
       </c>
       <c r="P49">
-        <v>90547140.26000001</v>
+        <v>207270852.25</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3063,43 +3129,43 @@
         <v>64</v>
       </c>
       <c r="D50">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>265960</v>
+        <v>2773923</v>
       </c>
       <c r="G50">
-        <v>139660</v>
+        <v>1619569</v>
       </c>
       <c r="H50">
-        <v>2032</v>
+        <v>87978</v>
       </c>
       <c r="I50">
-        <v>2070</v>
+        <v>30931</v>
       </c>
       <c r="J50">
-        <v>127</v>
+        <v>5811</v>
       </c>
       <c r="K50">
-        <v>36</v>
+        <v>2756</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="N50">
-        <v>6301.33</v>
+        <v>79729.05</v>
       </c>
       <c r="O50">
-        <v>168</v>
+        <v>8382</v>
       </c>
       <c r="P50">
-        <v>57538167.12</v>
+        <v>303553553.34</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3113,43 +3179,43 @@
         <v>65</v>
       </c>
       <c r="D51">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>600930</v>
+        <v>4584322</v>
       </c>
       <c r="G51">
-        <v>317742</v>
+        <v>1523375</v>
       </c>
       <c r="H51">
-        <v>7020</v>
+        <v>107735</v>
       </c>
       <c r="I51">
-        <v>60</v>
+        <v>75610</v>
       </c>
       <c r="J51">
-        <v>1670</v>
+        <v>13998</v>
       </c>
       <c r="K51">
-        <v>947</v>
+        <v>3661</v>
       </c>
       <c r="L51">
-        <v>332</v>
+        <v>1311</v>
       </c>
       <c r="M51">
-        <v>96</v>
+        <v>479</v>
       </c>
       <c r="N51">
-        <v>12171.58</v>
+        <v>130388.79</v>
       </c>
       <c r="O51">
-        <v>2417</v>
+        <v>7618</v>
       </c>
       <c r="P51">
-        <v>74118362.75</v>
+        <v>459401430.03</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3163,43 +3229,43 @@
         <v>66</v>
       </c>
       <c r="D52">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="E52">
         <v>12</v>
       </c>
       <c r="F52">
-        <v>409460</v>
+        <v>1725551</v>
       </c>
       <c r="G52">
-        <v>186514</v>
+        <v>1576845</v>
       </c>
       <c r="H52">
-        <v>1901</v>
+        <v>43736</v>
       </c>
       <c r="I52">
-        <v>670</v>
+        <v>43254</v>
       </c>
       <c r="J52">
-        <v>101</v>
+        <v>2480</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>4130</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>540</v>
       </c>
       <c r="N52">
-        <v>9048.43</v>
+        <v>24798.43</v>
       </c>
       <c r="O52">
-        <v>171</v>
+        <v>20327</v>
       </c>
       <c r="P52">
-        <v>61536111.99</v>
+        <v>99270088.72</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3213,43 +3279,43 @@
         <v>67</v>
       </c>
       <c r="D53">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>467978</v>
+        <v>92177</v>
       </c>
       <c r="G53">
-        <v>188800</v>
+        <v>129328</v>
       </c>
       <c r="H53">
-        <v>2583</v>
+        <v>2832</v>
       </c>
       <c r="I53">
-        <v>3498</v>
+        <v>2524</v>
       </c>
       <c r="J53">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="K53">
-        <v>6</v>
+        <v>224</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>13094.67</v>
+        <v>4335.82</v>
       </c>
       <c r="O53">
-        <v>83</v>
+        <v>2586</v>
       </c>
       <c r="P53">
-        <v>101085687.05</v>
+        <v>35025886.86</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3263,43 +3329,43 @@
         <v>68</v>
       </c>
       <c r="D54">
-        <v>1111</v>
+        <v>370</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54">
-        <v>6943198</v>
+        <v>4363283</v>
       </c>
       <c r="G54">
-        <v>4391450</v>
+        <v>2863649</v>
       </c>
       <c r="H54">
-        <v>73938</v>
+        <v>98488</v>
       </c>
       <c r="I54">
-        <v>54192</v>
+        <v>100781</v>
       </c>
       <c r="J54">
-        <v>18140</v>
+        <v>12234</v>
       </c>
       <c r="K54">
-        <v>13195</v>
+        <v>8479</v>
       </c>
       <c r="L54">
-        <v>881</v>
+        <v>1229</v>
       </c>
       <c r="M54">
-        <v>678</v>
+        <v>1086</v>
       </c>
       <c r="N54">
-        <v>98085.78</v>
+        <v>107943.63</v>
       </c>
       <c r="O54">
-        <v>29324</v>
+        <v>33288</v>
       </c>
       <c r="P54">
-        <v>263186429.11</v>
+        <v>483080099.37</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3313,43 +3379,43 @@
         <v>69</v>
       </c>
       <c r="D55">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>271066</v>
+        <v>351400</v>
       </c>
       <c r="G55">
-        <v>136682</v>
+        <v>299841</v>
       </c>
       <c r="H55">
-        <v>2918</v>
+        <v>5027</v>
       </c>
       <c r="I55">
-        <v>2063</v>
+        <v>3047</v>
       </c>
       <c r="J55">
-        <v>143</v>
+        <v>471</v>
       </c>
       <c r="K55">
+        <v>724</v>
+      </c>
+      <c r="L55">
         <v>19</v>
       </c>
-      <c r="L55">
-        <v>15</v>
-      </c>
       <c r="M55">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="N55">
-        <v>10853.64</v>
+        <v>23496.13</v>
       </c>
       <c r="O55">
-        <v>87</v>
+        <v>3531</v>
       </c>
       <c r="P55">
-        <v>74477154.20999999</v>
+        <v>102613746.09</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3363,43 +3429,43 @@
         <v>70</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="E56">
         <v>10</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>895697</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>318425</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>18548</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>16807</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>918</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>16603.54</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>16481</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>44614923.85</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3413,43 +3479,43 @@
         <v>71</v>
       </c>
       <c r="D57">
-        <v>81</v>
+        <v>1216</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F57">
-        <v>113913</v>
+        <v>1099651</v>
       </c>
       <c r="G57">
-        <v>146632</v>
+        <v>1667414</v>
       </c>
       <c r="H57">
-        <v>1003</v>
+        <v>16055</v>
       </c>
       <c r="I57">
-        <v>118</v>
+        <v>61127</v>
       </c>
       <c r="J57">
-        <v>37</v>
+        <v>4548</v>
       </c>
       <c r="K57">
-        <v>55</v>
+        <v>8578</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>965</v>
       </c>
       <c r="N57">
-        <v>5844.7</v>
+        <v>20825.95</v>
       </c>
       <c r="O57">
-        <v>1065</v>
+        <v>98194</v>
       </c>
       <c r="P57">
-        <v>46830623.92</v>
+        <v>37574791.36</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3463,43 +3529,43 @@
         <v>72</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>131640</v>
+        <v>239656</v>
       </c>
       <c r="G58">
-        <v>44443</v>
+        <v>370991</v>
       </c>
       <c r="H58">
-        <v>641</v>
+        <v>9445</v>
       </c>
       <c r="I58">
-        <v>1941</v>
+        <v>8420</v>
       </c>
       <c r="J58">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>705</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N58">
-        <v>7646.38</v>
+        <v>11490.73</v>
       </c>
       <c r="O58">
-        <v>29</v>
+        <v>6652</v>
       </c>
       <c r="P58">
-        <v>38459771.87</v>
+        <v>94594629.70999999</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3513,43 +3579,43 @@
         <v>73</v>
       </c>
       <c r="D59">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>69341</v>
+        <v>1416258</v>
       </c>
       <c r="G59">
-        <v>26958</v>
+        <v>1696328</v>
       </c>
       <c r="H59">
-        <v>825</v>
+        <v>36900</v>
       </c>
       <c r="I59">
-        <v>1317</v>
+        <v>51644</v>
       </c>
       <c r="J59">
-        <v>41</v>
+        <v>2568</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>3279</v>
       </c>
       <c r="L59">
-        <v>10</v>
+        <v>391</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="N59">
-        <v>2087.71</v>
+        <v>18670.1</v>
       </c>
       <c r="O59">
-        <v>54</v>
+        <v>28095</v>
       </c>
       <c r="P59">
-        <v>8891072.789999999</v>
+        <v>92659534.22</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3563,43 +3629,43 @@
         <v>74</v>
       </c>
       <c r="D60">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>27733</v>
+        <v>1394538</v>
       </c>
       <c r="G60">
-        <v>22316</v>
+        <v>511786</v>
       </c>
       <c r="H60">
-        <v>735</v>
+        <v>44778</v>
       </c>
       <c r="I60">
-        <v>479</v>
+        <v>24213</v>
       </c>
       <c r="J60">
-        <v>8</v>
+        <v>3505</v>
       </c>
       <c r="K60">
-        <v>18</v>
+        <v>1168</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N60">
-        <v>509.38</v>
+        <v>44993.33</v>
       </c>
       <c r="O60">
-        <v>242</v>
+        <v>1865</v>
       </c>
       <c r="P60">
-        <v>2112070.63</v>
+        <v>341343022.7</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3613,43 +3679,1143 @@
         <v>75</v>
       </c>
       <c r="D61">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="E61">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>1081367</v>
+      </c>
+      <c r="G61">
+        <v>561454</v>
+      </c>
+      <c r="H61">
+        <v>34064</v>
+      </c>
+      <c r="I61">
+        <v>36224</v>
+      </c>
+      <c r="J61">
+        <v>3183</v>
+      </c>
+      <c r="K61">
+        <v>1864</v>
+      </c>
+      <c r="L61">
+        <v>432</v>
+      </c>
+      <c r="M61">
+        <v>295</v>
+      </c>
+      <c r="N61">
+        <v>43131.36</v>
+      </c>
+      <c r="O61">
+        <v>5747</v>
+      </c>
+      <c r="P61">
+        <v>153234892.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62">
+        <v>35</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>682846</v>
+      </c>
+      <c r="G62">
+        <v>412195</v>
+      </c>
+      <c r="H62">
+        <v>12944</v>
+      </c>
+      <c r="I62">
+        <v>18640</v>
+      </c>
+      <c r="J62">
+        <v>803</v>
+      </c>
+      <c r="K62">
+        <v>652</v>
+      </c>
+      <c r="L62">
+        <v>116</v>
+      </c>
+      <c r="M62">
+        <v>115</v>
+      </c>
+      <c r="N62">
+        <v>22155.33</v>
+      </c>
+      <c r="O62">
+        <v>4559</v>
+      </c>
+      <c r="P62">
+        <v>88844488.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63">
+        <v>251</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>446002</v>
+      </c>
+      <c r="G63">
+        <v>375312</v>
+      </c>
+      <c r="H63">
+        <v>12584</v>
+      </c>
+      <c r="I63">
+        <v>11646</v>
+      </c>
+      <c r="J63">
+        <v>1496</v>
+      </c>
+      <c r="K63">
+        <v>1975</v>
+      </c>
+      <c r="L63">
+        <v>51</v>
+      </c>
+      <c r="M63">
+        <v>86</v>
+      </c>
+      <c r="N63">
+        <v>11534.5</v>
+      </c>
+      <c r="O63">
+        <v>10097</v>
+      </c>
+      <c r="P63">
+        <v>46101336.81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64">
+        <v>53</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>1031453</v>
+      </c>
+      <c r="G64">
+        <v>431570</v>
+      </c>
+      <c r="H64">
+        <v>19536</v>
+      </c>
+      <c r="I64">
+        <v>18884</v>
+      </c>
+      <c r="J64">
+        <v>1619</v>
+      </c>
+      <c r="K64">
+        <v>915</v>
+      </c>
+      <c r="L64">
+        <v>171</v>
+      </c>
+      <c r="M64">
+        <v>64</v>
+      </c>
+      <c r="N64">
+        <v>55453.65</v>
+      </c>
+      <c r="O64">
+        <v>6026</v>
+      </c>
+      <c r="P64">
+        <v>138939548.23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>247</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>556237</v>
+      </c>
+      <c r="G65">
+        <v>558547</v>
+      </c>
+      <c r="H65">
+        <v>6922</v>
+      </c>
+      <c r="I65">
+        <v>17144</v>
+      </c>
+      <c r="J65">
+        <v>623</v>
+      </c>
+      <c r="K65">
+        <v>1547</v>
+      </c>
+      <c r="L65">
+        <v>8</v>
+      </c>
+      <c r="M65">
+        <v>43</v>
+      </c>
+      <c r="N65">
+        <v>18354.46</v>
+      </c>
+      <c r="O65">
+        <v>26083</v>
+      </c>
+      <c r="P65">
+        <v>15926602.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>158</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>234048</v>
+      </c>
+      <c r="G66">
+        <v>95701</v>
+      </c>
+      <c r="H66">
+        <v>1179</v>
+      </c>
+      <c r="I66">
+        <v>1562</v>
+      </c>
+      <c r="J66">
+        <v>142</v>
+      </c>
+      <c r="K66">
+        <v>63</v>
+      </c>
+      <c r="L66">
+        <v>23</v>
+      </c>
+      <c r="M66">
+        <v>16</v>
+      </c>
+      <c r="N66">
+        <v>12223.58</v>
+      </c>
+      <c r="O66">
+        <v>127</v>
+      </c>
+      <c r="P66">
+        <v>86888173.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D67">
+        <v>39</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>1459720</v>
+      </c>
+      <c r="G67">
+        <v>428677</v>
+      </c>
+      <c r="H67">
+        <v>38076</v>
+      </c>
+      <c r="I67">
+        <v>17316</v>
+      </c>
+      <c r="J67">
+        <v>2060</v>
+      </c>
+      <c r="K67">
+        <v>485</v>
+      </c>
+      <c r="L67">
+        <v>265</v>
+      </c>
+      <c r="M67">
+        <v>121</v>
+      </c>
+      <c r="N67">
+        <v>26154.14</v>
+      </c>
+      <c r="O67">
+        <v>1947</v>
+      </c>
+      <c r="P67">
+        <v>196441554.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68">
+        <v>150</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>596595</v>
+      </c>
+      <c r="G68">
+        <v>187161</v>
+      </c>
+      <c r="H68">
+        <v>15284</v>
+      </c>
+      <c r="I68">
+        <v>6367</v>
+      </c>
+      <c r="J68">
+        <v>2406</v>
+      </c>
+      <c r="K68">
+        <v>845</v>
+      </c>
+      <c r="L68">
+        <v>702</v>
+      </c>
+      <c r="M68">
+        <v>99</v>
+      </c>
+      <c r="N68">
+        <v>19017.94</v>
+      </c>
+      <c r="O68">
+        <v>1606</v>
+      </c>
+      <c r="P68">
+        <v>91480260.61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69">
+        <v>84</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>90568</v>
+      </c>
+      <c r="G69">
+        <v>30268</v>
+      </c>
+      <c r="H69">
+        <v>1434</v>
+      </c>
+      <c r="I69">
+        <v>5886</v>
+      </c>
+      <c r="J69">
+        <v>19</v>
+      </c>
+      <c r="K69">
+        <v>110</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>7673.12</v>
+      </c>
+      <c r="O69">
+        <v>5705</v>
+      </c>
+      <c r="P69">
+        <v>68054474.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70">
+        <v>81</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>767293</v>
+      </c>
+      <c r="G70">
+        <v>590675</v>
+      </c>
+      <c r="H70">
+        <v>12147</v>
+      </c>
+      <c r="I70">
+        <v>7626</v>
+      </c>
+      <c r="J70">
+        <v>465</v>
+      </c>
+      <c r="K70">
+        <v>876</v>
+      </c>
+      <c r="L70">
+        <v>164</v>
+      </c>
+      <c r="M70">
+        <v>215</v>
+      </c>
+      <c r="N70">
+        <v>20937</v>
+      </c>
+      <c r="O70">
+        <v>4460</v>
+      </c>
+      <c r="P70">
+        <v>92332809.78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>179981</v>
+      </c>
+      <c r="G71">
+        <v>112717</v>
+      </c>
+      <c r="H71">
+        <v>783</v>
+      </c>
+      <c r="I71">
+        <v>617</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>11</v>
+      </c>
+      <c r="N71">
+        <v>9414.559999999999</v>
+      </c>
+      <c r="O71">
+        <v>226</v>
+      </c>
+      <c r="P71">
+        <v>60071075.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72">
+        <v>60</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>52691</v>
+      </c>
+      <c r="G72">
+        <v>61113</v>
+      </c>
+      <c r="H72">
+        <v>1461</v>
+      </c>
+      <c r="I72">
+        <v>591</v>
+      </c>
+      <c r="J72">
+        <v>106</v>
+      </c>
+      <c r="K72">
+        <v>104</v>
+      </c>
+      <c r="L72">
+        <v>32</v>
+      </c>
+      <c r="M72">
+        <v>25</v>
+      </c>
+      <c r="N72">
+        <v>6133.48</v>
+      </c>
+      <c r="O72">
+        <v>1076</v>
+      </c>
+      <c r="P72">
+        <v>38548003.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>77639</v>
+      </c>
+      <c r="G73">
+        <v>70920</v>
+      </c>
+      <c r="H73">
+        <v>1502</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3671.88</v>
+      </c>
+      <c r="O73">
+        <v>539</v>
+      </c>
+      <c r="P73">
+        <v>46209394.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>129368</v>
+      </c>
+      <c r="G74">
+        <v>166565</v>
+      </c>
+      <c r="H74">
+        <v>3314</v>
+      </c>
+      <c r="I74">
+        <v>200</v>
+      </c>
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <v>204</v>
+      </c>
+      <c r="L74">
+        <v>19</v>
+      </c>
+      <c r="M74">
+        <v>35</v>
+      </c>
+      <c r="N74">
+        <v>9448.08</v>
+      </c>
+      <c r="O74">
+        <v>1017</v>
+      </c>
+      <c r="P74">
+        <v>59552178.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75">
+        <v>23</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>203815</v>
+      </c>
+      <c r="G75">
+        <v>70980</v>
+      </c>
+      <c r="H75">
+        <v>1418</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>5700.86</v>
+      </c>
+      <c r="O75">
+        <v>1139</v>
+      </c>
+      <c r="P75">
+        <v>40332100.69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>44</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>82470</v>
+      </c>
+      <c r="G76">
+        <v>59328</v>
+      </c>
+      <c r="H76">
+        <v>154</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
         <v>7</v>
       </c>
-      <c r="F61">
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>17</v>
+      </c>
+      <c r="N76">
+        <v>3751.95</v>
+      </c>
+      <c r="O76">
+        <v>1182</v>
+      </c>
+      <c r="P76">
+        <v>32108633.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>92230</v>
+      </c>
+      <c r="G77">
+        <v>43506</v>
+      </c>
+      <c r="H77">
+        <v>1923</v>
+      </c>
+      <c r="I77">
+        <v>2288</v>
+      </c>
+      <c r="J77">
+        <v>17</v>
+      </c>
+      <c r="K77">
+        <v>13</v>
+      </c>
+      <c r="L77">
         <v>0</v>
       </c>
-      <c r="G61">
-        <v>1416</v>
-      </c>
-      <c r="H61">
+      <c r="M77">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="N77">
+        <v>4632.7</v>
+      </c>
+      <c r="O77">
+        <v>175</v>
+      </c>
+      <c r="P77">
+        <v>44648003.96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>74280</v>
+      </c>
+      <c r="G78">
+        <v>39361</v>
+      </c>
+      <c r="H78">
+        <v>2225</v>
+      </c>
+      <c r="I78">
+        <v>24</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>3473.8</v>
+      </c>
+      <c r="O78">
+        <v>269</v>
+      </c>
+      <c r="P78">
+        <v>48681151.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>141429</v>
+      </c>
+      <c r="G79">
+        <v>94262</v>
+      </c>
+      <c r="H79">
+        <v>1915</v>
+      </c>
+      <c r="I79">
+        <v>3685</v>
+      </c>
+      <c r="J79">
+        <v>72</v>
+      </c>
+      <c r="K79">
+        <v>102</v>
+      </c>
+      <c r="L79">
+        <v>16</v>
+      </c>
+      <c r="M79">
+        <v>10</v>
+      </c>
+      <c r="N79">
+        <v>7728.17</v>
+      </c>
+      <c r="O79">
+        <v>921</v>
+      </c>
+      <c r="P79">
+        <v>76731947.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80">
+        <v>52</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>328627</v>
+      </c>
+      <c r="G80">
+        <v>307663</v>
+      </c>
+      <c r="H80">
+        <v>5086</v>
+      </c>
+      <c r="I80">
+        <v>81</v>
+      </c>
+      <c r="J80">
+        <v>280</v>
+      </c>
+      <c r="K80">
+        <v>661</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>21</v>
+      </c>
+      <c r="N80">
+        <v>10382.87</v>
+      </c>
+      <c r="O80">
+        <v>1759</v>
+      </c>
+      <c r="P80">
+        <v>68845038.62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81">
+        <v>98</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>95601</v>
+      </c>
+      <c r="G81">
+        <v>140012</v>
+      </c>
+      <c r="H81">
+        <v>3759</v>
+      </c>
+      <c r="I81">
+        <v>3787</v>
+      </c>
+      <c r="J81">
+        <v>81</v>
+      </c>
+      <c r="K81">
+        <v>177</v>
+      </c>
+      <c r="L81">
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>3270.01</v>
+      </c>
+      <c r="O81">
+        <v>5238</v>
+      </c>
+      <c r="P81">
+        <v>24478497.89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82">
+        <v>19</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>7804</v>
+      </c>
+      <c r="G82">
+        <v>26594</v>
+      </c>
+      <c r="H82">
+        <v>63</v>
+      </c>
+      <c r="I82">
+        <v>267</v>
+      </c>
+      <c r="J82">
         <v>0</v>
       </c>
-      <c r="J61">
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
         <v>0</v>
       </c>
-      <c r="K61">
+      <c r="M82">
+        <v>7</v>
+      </c>
+      <c r="N82">
         <v>0</v>
       </c>
-      <c r="L61">
+      <c r="O82">
+        <v>450</v>
+      </c>
+      <c r="P82">
         <v>0</v>
       </c>
-      <c r="M61">
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
         <v>0</v>
       </c>
-      <c r="N61">
-        <v>1399.29</v>
-      </c>
-      <c r="O61">
+      <c r="G83">
+        <v>461</v>
+      </c>
+      <c r="H83">
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>10133752.76</v>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>394.13</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>8527456.369999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Sample.xlsx
+++ b/Excel_Sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="167">
   <si>
     <t>Alliance</t>
   </si>
@@ -61,9 +61,222 @@
     <t>Money Looted</t>
   </si>
   <si>
+    <t>Camelot</t>
+  </si>
+  <si>
     <t>Carthago</t>
   </si>
   <si>
+    <t>Forethought</t>
+  </si>
+  <si>
+    <t>Whiskerz</t>
+  </si>
+  <si>
+    <t>The USA</t>
+  </si>
+  <si>
+    <t>Michael Allen</t>
+  </si>
+  <si>
+    <t>Manas</t>
+  </si>
+  <si>
+    <t>Siegfred the Free</t>
+  </si>
+  <si>
+    <t>Epimetheus</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Randomdud</t>
+  </si>
+  <si>
+    <t>Nedu Valuthi</t>
+  </si>
+  <si>
+    <t>Jerrit Garmaz</t>
+  </si>
+  <si>
+    <t>Democratic Pakistan</t>
+  </si>
+  <si>
+    <t>Alquantic</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t>Yang_Cheng</t>
+  </si>
+  <si>
+    <t>Shmurda</t>
+  </si>
+  <si>
+    <t>Enver Goatcha</t>
+  </si>
+  <si>
+    <t>lance armstrong</t>
+  </si>
+  <si>
+    <t>Doge Boi</t>
+  </si>
+  <si>
+    <t>Jack Harkness</t>
+  </si>
+  <si>
+    <t>Hades Moonfall</t>
+  </si>
+  <si>
+    <t>Elsword I</t>
+  </si>
+  <si>
+    <t>Lukas Langeheuvel</t>
+  </si>
+  <si>
+    <t>Wilhelm Hollerhozen</t>
+  </si>
+  <si>
+    <t>Kraftus</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Robert Griffin</t>
+  </si>
+  <si>
+    <t>Aleksejs</t>
+  </si>
+  <si>
+    <t>Evlar</t>
+  </si>
+  <si>
+    <t>Krameleon</t>
+  </si>
+  <si>
+    <t>Bobby0110</t>
+  </si>
+  <si>
+    <t>Georgius</t>
+  </si>
+  <si>
+    <t>Nokku</t>
+  </si>
+  <si>
+    <t>Aosora</t>
+  </si>
+  <si>
+    <t>Erebus Pericles</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Fredrick-Cake I</t>
+  </si>
+  <si>
+    <t>Ciciilica</t>
+  </si>
+  <si>
+    <t>LisaTerence</t>
+  </si>
+  <si>
+    <t>Dababi</t>
+  </si>
+  <si>
+    <t>Felipe II</t>
+  </si>
+  <si>
+    <t>15th Dalai Lama</t>
+  </si>
+  <si>
+    <t>Covus Alfius VII</t>
+  </si>
+  <si>
+    <t>James Reinhold</t>
+  </si>
+  <si>
+    <t>Felagund</t>
+  </si>
+  <si>
+    <t>Vain defecit</t>
+  </si>
+  <si>
+    <t>Konstantiin</t>
+  </si>
+  <si>
+    <t>Sheldon J Plankton</t>
+  </si>
+  <si>
+    <t>Jimathan</t>
+  </si>
+  <si>
+    <t>Soter</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>LEGENDZ</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>William Jameson</t>
+  </si>
+  <si>
+    <t>Ssix</t>
+  </si>
+  <si>
+    <t>Koza</t>
+  </si>
+  <si>
+    <t>Guillermo Juarez</t>
+  </si>
+  <si>
+    <t>Salzgurke</t>
+  </si>
+  <si>
+    <t>Arsto</t>
+  </si>
+  <si>
+    <t>Appointed Candidates</t>
+  </si>
+  <si>
+    <t>Tsaritsa</t>
+  </si>
+  <si>
+    <t>Scroodge McDuck</t>
+  </si>
+  <si>
+    <t>Constantinian</t>
+  </si>
+  <si>
+    <t>Boyar-DeezNuts</t>
+  </si>
+  <si>
+    <t>Dannny</t>
+  </si>
+  <si>
+    <t>Gristle</t>
+  </si>
+  <si>
+    <t>Yahya II</t>
+  </si>
+  <si>
+    <t>Somali Leone</t>
+  </si>
+  <si>
+    <t>Titus Aldercapt</t>
+  </si>
+  <si>
+    <t>Vecto</t>
+  </si>
+  <si>
     <t>Krampus</t>
   </si>
   <si>
@@ -73,48 +286,48 @@
     <t>Kebaboglu</t>
   </si>
   <si>
+    <t>Madder Red</t>
+  </si>
+  <si>
+    <t>Miyamoto Musashi</t>
+  </si>
+  <si>
+    <t>Tyras Calidan</t>
+  </si>
+  <si>
+    <t>Zeannon</t>
+  </si>
+  <si>
+    <t>Ion Constantinescu</t>
+  </si>
+  <si>
+    <t>GrandmasterBee</t>
+  </si>
+  <si>
+    <t>Ragnarok8085</t>
+  </si>
+  <si>
+    <t>Strett</t>
+  </si>
+  <si>
+    <t>Livia the first</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Ricon</t>
+  </si>
+  <si>
     <t>A human</t>
   </si>
   <si>
-    <t>Madder Red</t>
-  </si>
-  <si>
-    <t>Tyras Calidan</t>
-  </si>
-  <si>
-    <t>GrandmasterBee</t>
-  </si>
-  <si>
-    <t>Zeannon</t>
-  </si>
-  <si>
-    <t>Miyamoto Musashi</t>
-  </si>
-  <si>
-    <t>Ion Constantinescu</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Ragnarok8085</t>
-  </si>
-  <si>
-    <t>Strett</t>
-  </si>
-  <si>
-    <t>Livia the first</t>
+    <t>Billy</t>
   </si>
   <si>
     <t>Asierith</t>
   </si>
   <si>
-    <t>Ricon</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
     <t>Al Fappino</t>
   </si>
   <si>
@@ -127,45 +340,45 @@
     <t>Waldo</t>
   </si>
   <si>
+    <t>Yuri B Molotov</t>
+  </si>
+  <si>
+    <t>James Paul McCartney</t>
+  </si>
+  <si>
     <t>Haakon</t>
   </si>
   <si>
-    <t>James Paul McCartney</t>
-  </si>
-  <si>
     <t>Shamadruu</t>
   </si>
   <si>
-    <t>Yuri B Molotov</t>
+    <t>AU David</t>
+  </si>
+  <si>
+    <t>Trouble 3</t>
   </si>
   <si>
     <t>MrPineapple</t>
   </si>
   <si>
-    <t>AU David</t>
-  </si>
-  <si>
-    <t>Trouble 3</t>
-  </si>
-  <si>
     <t>Lemon Lord</t>
   </si>
   <si>
+    <t>Kyosuke</t>
+  </si>
+  <si>
+    <t>Cthulhu The Devourer</t>
+  </si>
+  <si>
     <t>Johann Hess</t>
   </si>
   <si>
-    <t>Kyosuke</t>
-  </si>
-  <si>
-    <t>Cthulhu The Devourer</t>
+    <t>Locinii</t>
   </si>
   <si>
     <t>BabyYoda</t>
   </si>
   <si>
-    <t>Locinii</t>
-  </si>
-  <si>
     <t>Auto Von Bismarck</t>
   </si>
   <si>
@@ -181,12 +394,12 @@
     <t>Charle_De_Gaulle</t>
   </si>
   <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
     <t>President Snow</t>
   </si>
   <si>
-    <t>Mohammad</t>
-  </si>
-  <si>
     <t>Solomoriah</t>
   </si>
   <si>
@@ -211,15 +424,12 @@
     <t>Skupid</t>
   </si>
   <si>
+    <t>GLAREYERS</t>
+  </si>
+  <si>
     <t>Burke - Johnson</t>
   </si>
   <si>
-    <t>GLAREYERS</t>
-  </si>
-  <si>
-    <t>Wynfryth II</t>
-  </si>
-  <si>
     <t>Edward1</t>
   </si>
   <si>
@@ -235,15 +445,15 @@
     <t>Josef Josuta</t>
   </si>
   <si>
+    <t>Avior Agena</t>
+  </si>
+  <si>
+    <t>Potaro</t>
+  </si>
+  <si>
     <t>Zegrath the Black</t>
   </si>
   <si>
-    <t>Avior Agena</t>
-  </si>
-  <si>
-    <t>Potaro</t>
-  </si>
-  <si>
     <t>Akbar</t>
   </si>
   <si>
@@ -277,18 +487,15 @@
     <t>Austin Silva</t>
   </si>
   <si>
+    <t>Crinobane stragof</t>
+  </si>
+  <si>
     <t>Sergi Mavaleia</t>
   </si>
   <si>
-    <t>Crinobane stragof</t>
-  </si>
-  <si>
     <t>Bless</t>
   </si>
   <si>
-    <t>Gulafsha</t>
-  </si>
-  <si>
     <t>ServantOfGod</t>
   </si>
   <si>
@@ -304,10 +511,10 @@
     <t>Rephaeustus</t>
   </si>
   <si>
+    <t>Titanius</t>
+  </si>
+  <si>
     <t>Cordaille</t>
-  </si>
-  <si>
-    <t>Titanius</t>
   </si>
 </sst>
 </file>
@@ -665,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,46 +933,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>1415</v>
+        <v>1471</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>8819507</v>
+        <v>5794610</v>
       </c>
       <c r="G2">
-        <v>7891681</v>
+        <v>4528501</v>
       </c>
       <c r="H2">
-        <v>324899</v>
+        <v>188923</v>
       </c>
       <c r="I2">
-        <v>163531</v>
+        <v>191592</v>
       </c>
       <c r="J2">
-        <v>42141</v>
+        <v>28904</v>
       </c>
       <c r="K2">
-        <v>29291</v>
+        <v>34607</v>
       </c>
       <c r="L2">
-        <v>3610</v>
+        <v>1564</v>
       </c>
       <c r="M2">
-        <v>2180</v>
+        <v>1791</v>
       </c>
       <c r="N2">
-        <v>289381.12</v>
+        <v>166729.83</v>
       </c>
       <c r="O2">
-        <v>218364</v>
+        <v>187987</v>
       </c>
       <c r="P2">
-        <v>277482484.18</v>
+        <v>197968540.51</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -776,46 +983,46 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1564</v>
+        <v>2020</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>5802126</v>
+        <v>12537077</v>
       </c>
       <c r="G3">
-        <v>8752643</v>
+        <v>10267810</v>
       </c>
       <c r="H3">
-        <v>132469</v>
+        <v>294576</v>
       </c>
       <c r="I3">
-        <v>82202</v>
+        <v>377779</v>
       </c>
       <c r="J3">
-        <v>14919</v>
+        <v>32303</v>
       </c>
       <c r="K3">
-        <v>12028</v>
+        <v>46358</v>
       </c>
       <c r="L3">
-        <v>1088</v>
+        <v>3224</v>
       </c>
       <c r="M3">
-        <v>560</v>
+        <v>3469</v>
       </c>
       <c r="N3">
-        <v>142762.08</v>
+        <v>248316.44</v>
       </c>
       <c r="O3">
-        <v>134093</v>
+        <v>149436</v>
       </c>
       <c r="P3">
-        <v>232179062.96</v>
+        <v>256318058.55</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -826,46 +1033,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>1582</v>
+        <v>932</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>14573727</v>
+        <v>30749579</v>
       </c>
       <c r="G4">
-        <v>11370291</v>
+        <v>12653531</v>
       </c>
       <c r="H4">
-        <v>424270</v>
+        <v>329274</v>
       </c>
       <c r="I4">
-        <v>165990</v>
+        <v>392187</v>
       </c>
       <c r="J4">
-        <v>45029</v>
+        <v>60082</v>
       </c>
       <c r="K4">
-        <v>36594</v>
+        <v>38521</v>
       </c>
       <c r="L4">
-        <v>4382</v>
+        <v>4456</v>
       </c>
       <c r="M4">
-        <v>3385</v>
+        <v>2051</v>
       </c>
       <c r="N4">
-        <v>244113.32</v>
+        <v>399717.13</v>
       </c>
       <c r="O4">
-        <v>173852</v>
+        <v>152710</v>
       </c>
       <c r="P4">
-        <v>559961629.47</v>
+        <v>1093304380.85</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -876,46 +1083,46 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>482</v>
+        <v>1732</v>
       </c>
       <c r="E5">
         <v>27</v>
       </c>
       <c r="F5">
-        <v>6075804</v>
+        <v>5439258</v>
       </c>
       <c r="G5">
-        <v>3898996</v>
+        <v>4254216</v>
       </c>
       <c r="H5">
-        <v>241642</v>
+        <v>350481</v>
       </c>
       <c r="I5">
-        <v>100523</v>
+        <v>150312</v>
       </c>
       <c r="J5">
-        <v>18224</v>
+        <v>44500</v>
       </c>
       <c r="K5">
-        <v>3990</v>
+        <v>31941</v>
       </c>
       <c r="L5">
-        <v>1161</v>
+        <v>3403</v>
       </c>
       <c r="M5">
-        <v>620</v>
+        <v>1603</v>
       </c>
       <c r="N5">
-        <v>123174.94</v>
+        <v>152853.21</v>
       </c>
       <c r="O5">
-        <v>60930</v>
+        <v>194103</v>
       </c>
       <c r="P5">
-        <v>562980999.3099999</v>
+        <v>100633569.95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -926,46 +1133,46 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>965</v>
+        <v>2275</v>
       </c>
       <c r="E6">
         <v>27</v>
       </c>
       <c r="F6">
-        <v>6225549</v>
+        <v>5170805</v>
       </c>
       <c r="G6">
-        <v>6137219</v>
+        <v>5425216</v>
       </c>
       <c r="H6">
-        <v>193866</v>
+        <v>154766</v>
       </c>
       <c r="I6">
-        <v>100565</v>
+        <v>133046</v>
       </c>
       <c r="J6">
-        <v>19518</v>
+        <v>28698</v>
       </c>
       <c r="K6">
-        <v>14436</v>
+        <v>39230</v>
       </c>
       <c r="L6">
-        <v>1648</v>
+        <v>2281</v>
       </c>
       <c r="M6">
-        <v>1376</v>
+        <v>1315</v>
       </c>
       <c r="N6">
-        <v>108282.92</v>
+        <v>145877.58</v>
       </c>
       <c r="O6">
-        <v>71848</v>
+        <v>217127</v>
       </c>
       <c r="P6">
-        <v>110463217.69</v>
+        <v>57561092.49</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -976,46 +1183,46 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>2231</v>
+        <v>1257</v>
       </c>
       <c r="E7">
         <v>27</v>
       </c>
       <c r="F7">
-        <v>3280802</v>
+        <v>21955709</v>
       </c>
       <c r="G7">
-        <v>6839193</v>
+        <v>10673139</v>
       </c>
       <c r="H7">
-        <v>165398</v>
+        <v>393844</v>
       </c>
       <c r="I7">
-        <v>122371</v>
+        <v>262148</v>
       </c>
       <c r="J7">
-        <v>15726</v>
+        <v>59758</v>
       </c>
       <c r="K7">
-        <v>22291</v>
+        <v>39266</v>
       </c>
       <c r="L7">
-        <v>1028</v>
+        <v>4253</v>
       </c>
       <c r="M7">
-        <v>1860</v>
+        <v>2239</v>
       </c>
       <c r="N7">
-        <v>56339.34</v>
+        <v>289604.39</v>
       </c>
       <c r="O7">
-        <v>133984</v>
+        <v>168244</v>
       </c>
       <c r="P7">
-        <v>50033463.75</v>
+        <v>684933311.48</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1026,46 +1233,46 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>483</v>
+        <v>1675</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>11073859</v>
+        <v>13033102</v>
       </c>
       <c r="G8">
-        <v>7430428</v>
+        <v>12434870</v>
       </c>
       <c r="H8">
-        <v>362387</v>
+        <v>667836</v>
       </c>
       <c r="I8">
-        <v>188678</v>
+        <v>371827</v>
       </c>
       <c r="J8">
-        <v>22912</v>
+        <v>152806</v>
       </c>
       <c r="K8">
-        <v>5902</v>
+        <v>91468</v>
       </c>
       <c r="L8">
-        <v>1420</v>
+        <v>7417</v>
       </c>
       <c r="M8">
-        <v>1100</v>
+        <v>4562</v>
       </c>
       <c r="N8">
-        <v>253066.61</v>
+        <v>486773.62</v>
       </c>
       <c r="O8">
-        <v>99568</v>
+        <v>431816</v>
       </c>
       <c r="P8">
-        <v>1479535607.69</v>
+        <v>682598860.45</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1076,46 +1283,46 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>1457</v>
+        <v>2453</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>5370620</v>
+        <v>8116946</v>
       </c>
       <c r="G9">
-        <v>6228066</v>
+        <v>6851941</v>
       </c>
       <c r="H9">
-        <v>149910</v>
+        <v>123052</v>
       </c>
       <c r="I9">
-        <v>131294</v>
+        <v>181300</v>
       </c>
       <c r="J9">
-        <v>16351</v>
+        <v>28430</v>
       </c>
       <c r="K9">
-        <v>13535</v>
+        <v>32428</v>
       </c>
       <c r="L9">
-        <v>1211</v>
+        <v>1218</v>
       </c>
       <c r="M9">
-        <v>1431</v>
+        <v>1078</v>
       </c>
       <c r="N9">
-        <v>119326.06</v>
+        <v>69972.55</v>
       </c>
       <c r="O9">
-        <v>96094</v>
+        <v>154094</v>
       </c>
       <c r="P9">
-        <v>161009170.08</v>
+        <v>18519670.57</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1126,46 +1333,46 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>1023</v>
+        <v>891</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>5034248</v>
+        <v>12678448</v>
       </c>
       <c r="G10">
-        <v>3617501</v>
+        <v>7692542</v>
       </c>
       <c r="H10">
-        <v>120496</v>
+        <v>209573</v>
       </c>
       <c r="I10">
-        <v>105976</v>
+        <v>228271</v>
       </c>
       <c r="J10">
-        <v>9705</v>
+        <v>43445</v>
       </c>
       <c r="K10">
-        <v>10394</v>
+        <v>27719</v>
       </c>
       <c r="L10">
-        <v>1541</v>
+        <v>3129</v>
       </c>
       <c r="M10">
-        <v>1397</v>
+        <v>2170</v>
       </c>
       <c r="N10">
-        <v>99109.85000000001</v>
+        <v>188774.06</v>
       </c>
       <c r="O10">
-        <v>78061</v>
+        <v>77369</v>
       </c>
       <c r="P10">
-        <v>86201693.81</v>
+        <v>944757687.55</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1176,46 +1383,46 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>1227</v>
+        <v>415</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>8260765</v>
+        <v>4850963</v>
       </c>
       <c r="G11">
-        <v>6631269</v>
+        <v>3287126</v>
       </c>
       <c r="H11">
-        <v>193820</v>
+        <v>216830</v>
       </c>
       <c r="I11">
-        <v>109418</v>
+        <v>187204</v>
       </c>
       <c r="J11">
-        <v>20869</v>
+        <v>14955</v>
       </c>
       <c r="K11">
-        <v>16487</v>
+        <v>11108</v>
       </c>
       <c r="L11">
-        <v>671</v>
+        <v>998</v>
       </c>
       <c r="M11">
-        <v>1055</v>
+        <v>353</v>
       </c>
       <c r="N11">
-        <v>88019.19</v>
+        <v>50577.64</v>
       </c>
       <c r="O11">
-        <v>95178</v>
+        <v>42314</v>
       </c>
       <c r="P11">
-        <v>214232450.22</v>
+        <v>177343187.66</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1226,46 +1433,46 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>1261</v>
+        <v>484</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>4189383</v>
+        <v>3515644</v>
       </c>
       <c r="G12">
-        <v>6061918</v>
+        <v>2793823</v>
       </c>
       <c r="H12">
-        <v>150965</v>
+        <v>118607</v>
       </c>
       <c r="I12">
-        <v>120137</v>
+        <v>184605</v>
       </c>
       <c r="J12">
-        <v>12160</v>
+        <v>9463</v>
       </c>
       <c r="K12">
-        <v>13188</v>
+        <v>12667</v>
       </c>
       <c r="L12">
-        <v>1281</v>
+        <v>759</v>
       </c>
       <c r="M12">
-        <v>1394</v>
+        <v>745</v>
       </c>
       <c r="N12">
-        <v>60453.89</v>
+        <v>59954.37</v>
       </c>
       <c r="O12">
-        <v>95202</v>
+        <v>48874</v>
       </c>
       <c r="P12">
-        <v>48124790.23</v>
+        <v>186525074.48</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1276,46 +1483,46 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>1168</v>
+        <v>1795</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
-        <v>4070531</v>
+        <v>14880915</v>
       </c>
       <c r="G13">
-        <v>3443296</v>
+        <v>8147974</v>
       </c>
       <c r="H13">
-        <v>79773</v>
+        <v>368820</v>
       </c>
       <c r="I13">
-        <v>62017</v>
+        <v>328150</v>
       </c>
       <c r="J13">
-        <v>15883</v>
+        <v>68895</v>
       </c>
       <c r="K13">
-        <v>18392</v>
+        <v>42892</v>
       </c>
       <c r="L13">
-        <v>921</v>
+        <v>5911</v>
       </c>
       <c r="M13">
-        <v>781</v>
+        <v>2625</v>
       </c>
       <c r="N13">
-        <v>106268.88</v>
+        <v>402183.86</v>
       </c>
       <c r="O13">
-        <v>131955</v>
+        <v>199596</v>
       </c>
       <c r="P13">
-        <v>193785088.52</v>
+        <v>645886283.29</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1326,46 +1533,46 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>1180</v>
+        <v>567</v>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>10512329</v>
+        <v>4268626</v>
       </c>
       <c r="G14">
-        <v>11832309</v>
+        <v>3342025</v>
       </c>
       <c r="H14">
-        <v>256702</v>
+        <v>139640</v>
       </c>
       <c r="I14">
-        <v>153387</v>
+        <v>165023</v>
       </c>
       <c r="J14">
-        <v>23269</v>
+        <v>14918</v>
       </c>
       <c r="K14">
-        <v>25058</v>
+        <v>14614</v>
       </c>
       <c r="L14">
-        <v>3159</v>
+        <v>1165</v>
       </c>
       <c r="M14">
-        <v>3229</v>
+        <v>691</v>
       </c>
       <c r="N14">
-        <v>252058.65</v>
+        <v>114099.75</v>
       </c>
       <c r="O14">
-        <v>158637</v>
+        <v>42023</v>
       </c>
       <c r="P14">
-        <v>264475014.39</v>
+        <v>341053485.21</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1376,46 +1583,46 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>613</v>
+        <v>829</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>7695191</v>
+        <v>2005329</v>
       </c>
       <c r="G15">
-        <v>2605873</v>
+        <v>2521635</v>
       </c>
       <c r="H15">
-        <v>146787</v>
+        <v>71968</v>
       </c>
       <c r="I15">
-        <v>120108</v>
+        <v>149938</v>
       </c>
       <c r="J15">
-        <v>12237</v>
+        <v>5896</v>
       </c>
       <c r="K15">
-        <v>10768</v>
+        <v>12606</v>
       </c>
       <c r="L15">
-        <v>1731</v>
+        <v>763</v>
       </c>
       <c r="M15">
-        <v>728</v>
+        <v>1497</v>
       </c>
       <c r="N15">
-        <v>152712.02</v>
+        <v>76065.02</v>
       </c>
       <c r="O15">
-        <v>64388</v>
+        <v>107374</v>
       </c>
       <c r="P15">
-        <v>422755995.4</v>
+        <v>74575377.45999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1426,46 +1633,46 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>1186</v>
+        <v>1512</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>6959527</v>
+        <v>9869232</v>
       </c>
       <c r="G16">
-        <v>9996806</v>
+        <v>10204044</v>
       </c>
       <c r="H16">
-        <v>239486</v>
+        <v>313163</v>
       </c>
       <c r="I16">
-        <v>120852</v>
+        <v>155506</v>
       </c>
       <c r="J16">
-        <v>26452</v>
+        <v>65594</v>
       </c>
       <c r="K16">
-        <v>21002</v>
+        <v>41051</v>
       </c>
       <c r="L16">
-        <v>720</v>
+        <v>5113</v>
       </c>
       <c r="M16">
-        <v>881</v>
+        <v>2491</v>
       </c>
       <c r="N16">
-        <v>65852.03</v>
+        <v>180581.6</v>
       </c>
       <c r="O16">
-        <v>130482</v>
+        <v>158922</v>
       </c>
       <c r="P16">
-        <v>224442903.44</v>
+        <v>211017243.42</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1476,46 +1683,46 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>834</v>
+        <v>1487</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>1933975</v>
+        <v>7001801</v>
       </c>
       <c r="G17">
-        <v>3827415</v>
+        <v>6828835</v>
       </c>
       <c r="H17">
-        <v>74930</v>
+        <v>229887</v>
       </c>
       <c r="I17">
-        <v>89000</v>
+        <v>137084</v>
       </c>
       <c r="J17">
-        <v>4973</v>
+        <v>48998</v>
       </c>
       <c r="K17">
-        <v>8428</v>
+        <v>29743</v>
       </c>
       <c r="L17">
-        <v>414</v>
+        <v>3225</v>
       </c>
       <c r="M17">
-        <v>823</v>
+        <v>2346</v>
       </c>
       <c r="N17">
-        <v>25500.54</v>
+        <v>215845.43</v>
       </c>
       <c r="O17">
-        <v>88249</v>
+        <v>145007</v>
       </c>
       <c r="P17">
-        <v>183535389.8</v>
+        <v>71368983.67</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1526,46 +1733,46 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>1391</v>
+        <v>724</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>5641247</v>
+        <v>4711298</v>
       </c>
       <c r="G18">
-        <v>5882375</v>
+        <v>2507620</v>
       </c>
       <c r="H18">
-        <v>140212</v>
+        <v>123105</v>
       </c>
       <c r="I18">
-        <v>119230</v>
+        <v>130896</v>
       </c>
       <c r="J18">
-        <v>25830</v>
+        <v>9710</v>
       </c>
       <c r="K18">
-        <v>20414</v>
+        <v>9769</v>
       </c>
       <c r="L18">
-        <v>2639</v>
+        <v>725</v>
       </c>
       <c r="M18">
-        <v>1346</v>
+        <v>607</v>
       </c>
       <c r="N18">
-        <v>92923.92</v>
+        <v>76059.64</v>
       </c>
       <c r="O18">
-        <v>116612</v>
+        <v>64569</v>
       </c>
       <c r="P18">
-        <v>111490918.92</v>
+        <v>228354239.35</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1576,46 +1783,46 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>1379</v>
+        <v>1277</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>11890792</v>
+        <v>9558404</v>
       </c>
       <c r="G19">
-        <v>7004093</v>
+        <v>5140210</v>
       </c>
       <c r="H19">
-        <v>178372</v>
+        <v>159654</v>
       </c>
       <c r="I19">
-        <v>138491</v>
+        <v>157254</v>
       </c>
       <c r="J19">
-        <v>18361</v>
+        <v>20713</v>
       </c>
       <c r="K19">
-        <v>18542</v>
+        <v>20979</v>
       </c>
       <c r="L19">
-        <v>1348</v>
+        <v>1972</v>
       </c>
       <c r="M19">
-        <v>1590</v>
+        <v>1504</v>
       </c>
       <c r="N19">
-        <v>234704.54</v>
+        <v>135516.79</v>
       </c>
       <c r="O19">
-        <v>140356</v>
+        <v>147447</v>
       </c>
       <c r="P19">
-        <v>476885480.96</v>
+        <v>124033119.36</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1626,46 +1833,46 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>1178</v>
+        <v>483</v>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>2986667</v>
+        <v>3965328</v>
       </c>
       <c r="G20">
-        <v>4684453</v>
+        <v>2059323</v>
       </c>
       <c r="H20">
-        <v>140954</v>
+        <v>133741</v>
       </c>
       <c r="I20">
-        <v>85463</v>
+        <v>124299</v>
       </c>
       <c r="J20">
-        <v>9222</v>
+        <v>10171</v>
       </c>
       <c r="K20">
-        <v>7277</v>
+        <v>10907</v>
       </c>
       <c r="L20">
-        <v>1504</v>
+        <v>428</v>
       </c>
       <c r="M20">
-        <v>1431</v>
+        <v>393</v>
       </c>
       <c r="N20">
-        <v>73663.88</v>
+        <v>36577.21</v>
       </c>
       <c r="O20">
-        <v>99268</v>
+        <v>52846</v>
       </c>
       <c r="P20">
-        <v>60351140.37</v>
+        <v>74230988.84</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1676,46 +1883,46 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>338</v>
+        <v>1401</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>7697171</v>
+        <v>3391507</v>
       </c>
       <c r="G21">
-        <v>7381039</v>
+        <v>2728339</v>
       </c>
       <c r="H21">
-        <v>302289</v>
+        <v>81964</v>
       </c>
       <c r="I21">
-        <v>271232</v>
+        <v>129519</v>
       </c>
       <c r="J21">
-        <v>25308</v>
+        <v>8968</v>
       </c>
       <c r="K21">
-        <v>13495</v>
+        <v>15596</v>
       </c>
       <c r="L21">
-        <v>423</v>
+        <v>701</v>
       </c>
       <c r="M21">
-        <v>543</v>
+        <v>823</v>
       </c>
       <c r="N21">
-        <v>253089.89</v>
+        <v>120397.77</v>
       </c>
       <c r="O21">
-        <v>96950</v>
+        <v>98956</v>
       </c>
       <c r="P21">
-        <v>1250094827.77</v>
+        <v>73073338.14</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1726,46 +1933,46 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>1222</v>
+        <v>481</v>
       </c>
       <c r="E22">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F22">
-        <v>3489586</v>
+        <v>1597230</v>
       </c>
       <c r="G22">
-        <v>4874727</v>
+        <v>1561673</v>
       </c>
       <c r="H22">
-        <v>124859</v>
+        <v>49283</v>
       </c>
       <c r="I22">
-        <v>110811</v>
+        <v>71200</v>
       </c>
       <c r="J22">
-        <v>12732</v>
+        <v>8285</v>
       </c>
       <c r="K22">
-        <v>12884</v>
+        <v>9710</v>
       </c>
       <c r="L22">
-        <v>487</v>
+        <v>656</v>
       </c>
       <c r="M22">
-        <v>708</v>
+        <v>486</v>
       </c>
       <c r="N22">
-        <v>39293.04</v>
+        <v>22258.7</v>
       </c>
       <c r="O22">
-        <v>82311</v>
+        <v>39061</v>
       </c>
       <c r="P22">
-        <v>69931087.62</v>
+        <v>24971679.52</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1776,46 +1983,46 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>853</v>
+        <v>579</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>4523001</v>
+        <v>1578802</v>
       </c>
       <c r="G23">
-        <v>5359182</v>
+        <v>1671208</v>
       </c>
       <c r="H23">
-        <v>163548</v>
+        <v>75179</v>
       </c>
       <c r="I23">
-        <v>113593</v>
+        <v>94614</v>
       </c>
       <c r="J23">
-        <v>17695</v>
+        <v>15416</v>
       </c>
       <c r="K23">
-        <v>10925</v>
+        <v>9149</v>
       </c>
       <c r="L23">
-        <v>1052</v>
+        <v>1231</v>
       </c>
       <c r="M23">
-        <v>1163</v>
+        <v>771</v>
       </c>
       <c r="N23">
-        <v>97556.95</v>
+        <v>47964.37</v>
       </c>
       <c r="O23">
-        <v>79096</v>
+        <v>50525</v>
       </c>
       <c r="P23">
-        <v>229466870.51</v>
+        <v>34524620.38</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1826,46 +2033,46 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>488</v>
+        <v>941</v>
       </c>
       <c r="E24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>6819486</v>
+        <v>5322526</v>
       </c>
       <c r="G24">
-        <v>2561034</v>
+        <v>4285112</v>
       </c>
       <c r="H24">
-        <v>166833</v>
+        <v>144048</v>
       </c>
       <c r="I24">
-        <v>136830</v>
+        <v>134386</v>
       </c>
       <c r="J24">
-        <v>15213</v>
+        <v>27481</v>
       </c>
       <c r="K24">
-        <v>4853</v>
+        <v>17106</v>
       </c>
       <c r="L24">
-        <v>797</v>
+        <v>1043</v>
       </c>
       <c r="M24">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="N24">
-        <v>153427.7</v>
+        <v>107902.05</v>
       </c>
       <c r="O24">
-        <v>50070</v>
+        <v>76821</v>
       </c>
       <c r="P24">
-        <v>652763036.85</v>
+        <v>271292782.61</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1876,46 +2083,46 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>3044578</v>
+        <v>5042733</v>
       </c>
       <c r="G25">
-        <v>3421533</v>
+        <v>3157446</v>
       </c>
       <c r="H25">
-        <v>96660</v>
+        <v>155974</v>
       </c>
       <c r="I25">
-        <v>91233</v>
+        <v>206739</v>
       </c>
       <c r="J25">
-        <v>8784</v>
+        <v>15629</v>
       </c>
       <c r="K25">
-        <v>5090</v>
+        <v>11104</v>
       </c>
       <c r="L25">
-        <v>763</v>
+        <v>1487</v>
       </c>
       <c r="M25">
-        <v>423</v>
+        <v>934</v>
       </c>
       <c r="N25">
-        <v>106635.41</v>
+        <v>64607.68</v>
       </c>
       <c r="O25">
-        <v>74250</v>
+        <v>36890</v>
       </c>
       <c r="P25">
-        <v>121949319.6</v>
+        <v>175632099.42</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1926,46 +2133,46 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>1221</v>
+        <v>2409</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>6051765</v>
+        <v>5822868</v>
       </c>
       <c r="G26">
-        <v>7701436</v>
+        <v>7992231</v>
       </c>
       <c r="H26">
-        <v>131612</v>
+        <v>109699</v>
       </c>
       <c r="I26">
-        <v>103200</v>
+        <v>275268</v>
       </c>
       <c r="J26">
-        <v>12157</v>
+        <v>14641</v>
       </c>
       <c r="K26">
-        <v>10663</v>
+        <v>28790</v>
       </c>
       <c r="L26">
-        <v>643</v>
+        <v>1375</v>
       </c>
       <c r="M26">
-        <v>1173</v>
+        <v>2543</v>
       </c>
       <c r="N26">
-        <v>82936.27</v>
+        <v>110262.24</v>
       </c>
       <c r="O26">
-        <v>78954</v>
+        <v>150415</v>
       </c>
       <c r="P26">
-        <v>108627251.91</v>
+        <v>91367594.84999999</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1976,46 +2183,46 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>485</v>
+        <v>867</v>
       </c>
       <c r="E27">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>3906230</v>
+        <v>1939629</v>
       </c>
       <c r="G27">
-        <v>3737893</v>
+        <v>1917418</v>
       </c>
       <c r="H27">
-        <v>140396</v>
+        <v>61063</v>
       </c>
       <c r="I27">
-        <v>156604</v>
+        <v>140753</v>
       </c>
       <c r="J27">
-        <v>11785</v>
+        <v>2838</v>
       </c>
       <c r="K27">
-        <v>11043</v>
+        <v>8853</v>
       </c>
       <c r="L27">
-        <v>946</v>
+        <v>611</v>
       </c>
       <c r="M27">
-        <v>544</v>
+        <v>1225</v>
       </c>
       <c r="N27">
-        <v>83160.23</v>
+        <v>67400.45</v>
       </c>
       <c r="O27">
-        <v>65083</v>
+        <v>126667</v>
       </c>
       <c r="P27">
-        <v>171185926.67</v>
+        <v>78136872.09999999</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2026,46 +2233,46 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>993</v>
+        <v>917</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>12721592</v>
+        <v>11431347</v>
       </c>
       <c r="G28">
-        <v>6923046</v>
+        <v>6531714</v>
       </c>
       <c r="H28">
-        <v>112306</v>
+        <v>295350</v>
       </c>
       <c r="I28">
-        <v>136202</v>
+        <v>232521</v>
       </c>
       <c r="J28">
-        <v>13714</v>
+        <v>26816</v>
       </c>
       <c r="K28">
-        <v>18303</v>
+        <v>20529</v>
       </c>
       <c r="L28">
-        <v>1579</v>
+        <v>1507</v>
       </c>
       <c r="M28">
-        <v>2178</v>
+        <v>999</v>
       </c>
       <c r="N28">
-        <v>119892.63</v>
+        <v>138562.42</v>
       </c>
       <c r="O28">
-        <v>91467</v>
+        <v>120448</v>
       </c>
       <c r="P28">
-        <v>625767822.6900001</v>
+        <v>672188147.08</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2076,46 +2283,46 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>1380</v>
+        <v>632</v>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>8352229</v>
+        <v>3628838</v>
       </c>
       <c r="G29">
-        <v>6836919</v>
+        <v>1919662</v>
       </c>
       <c r="H29">
-        <v>121221</v>
+        <v>43454</v>
       </c>
       <c r="I29">
-        <v>93780</v>
+        <v>131316</v>
       </c>
       <c r="J29">
-        <v>24931</v>
+        <v>3031</v>
       </c>
       <c r="K29">
-        <v>24052</v>
+        <v>7818</v>
       </c>
       <c r="L29">
-        <v>2468</v>
+        <v>253</v>
       </c>
       <c r="M29">
-        <v>1998</v>
+        <v>538</v>
       </c>
       <c r="N29">
-        <v>92827.88</v>
+        <v>39542.43</v>
       </c>
       <c r="O29">
-        <v>122752</v>
+        <v>102119</v>
       </c>
       <c r="P29">
-        <v>98595015.44</v>
+        <v>53588623.87</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2126,46 +2333,46 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>372</v>
+        <v>1421</v>
       </c>
       <c r="E30">
         <v>21</v>
       </c>
       <c r="F30">
-        <v>6028788</v>
+        <v>6231757</v>
       </c>
       <c r="G30">
-        <v>2570483</v>
+        <v>6627691</v>
       </c>
       <c r="H30">
-        <v>178337</v>
+        <v>136246</v>
       </c>
       <c r="I30">
-        <v>157229</v>
+        <v>203152</v>
       </c>
       <c r="J30">
-        <v>17627</v>
+        <v>32848</v>
       </c>
       <c r="K30">
-        <v>6876</v>
+        <v>31482</v>
       </c>
       <c r="L30">
-        <v>1176</v>
+        <v>2461</v>
       </c>
       <c r="M30">
-        <v>714</v>
+        <v>1287</v>
       </c>
       <c r="N30">
-        <v>120390.74</v>
+        <v>113910.62</v>
       </c>
       <c r="O30">
-        <v>40150</v>
+        <v>127619</v>
       </c>
       <c r="P30">
-        <v>390831839.89</v>
+        <v>78001651.33</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2176,46 +2383,46 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>752</v>
+        <v>468</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>2084111</v>
+        <v>3626656</v>
       </c>
       <c r="G31">
-        <v>1950232</v>
+        <v>2140975</v>
       </c>
       <c r="H31">
-        <v>63868</v>
+        <v>167769</v>
       </c>
       <c r="I31">
-        <v>94293</v>
+        <v>153664</v>
       </c>
       <c r="J31">
-        <v>7034</v>
+        <v>17560</v>
       </c>
       <c r="K31">
-        <v>4856</v>
+        <v>10438</v>
       </c>
       <c r="L31">
-        <v>454</v>
+        <v>223</v>
       </c>
       <c r="M31">
-        <v>595</v>
+        <v>366</v>
       </c>
       <c r="N31">
-        <v>42600.98</v>
+        <v>50790.06</v>
       </c>
       <c r="O31">
-        <v>51385</v>
+        <v>51200</v>
       </c>
       <c r="P31">
-        <v>99893783.27</v>
+        <v>253554403.72</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2226,46 +2433,46 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>1656</v>
+        <v>1702</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32">
-        <v>8925812</v>
+        <v>3811761</v>
       </c>
       <c r="G32">
-        <v>6021440</v>
+        <v>2212415</v>
       </c>
       <c r="H32">
-        <v>154401</v>
+        <v>26615</v>
       </c>
       <c r="I32">
-        <v>154344</v>
+        <v>52645</v>
       </c>
       <c r="J32">
-        <v>24196</v>
+        <v>9800</v>
       </c>
       <c r="K32">
-        <v>24324</v>
+        <v>17076</v>
       </c>
       <c r="L32">
-        <v>2426</v>
+        <v>525</v>
       </c>
       <c r="M32">
-        <v>1915</v>
+        <v>623</v>
       </c>
       <c r="N32">
-        <v>93846.41</v>
+        <v>27463.42</v>
       </c>
       <c r="O32">
-        <v>104982</v>
+        <v>134665</v>
       </c>
       <c r="P32">
-        <v>251691678.69</v>
+        <v>16270233.41</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2276,46 +2483,46 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D33">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33">
-        <v>1568520</v>
+        <v>1783051</v>
       </c>
       <c r="G33">
-        <v>1637806</v>
+        <v>1505221</v>
       </c>
       <c r="H33">
-        <v>43194</v>
+        <v>46616</v>
       </c>
       <c r="I33">
-        <v>45610</v>
+        <v>75734</v>
       </c>
       <c r="J33">
-        <v>5768</v>
+        <v>4524</v>
       </c>
       <c r="K33">
-        <v>5308</v>
+        <v>5932</v>
       </c>
       <c r="L33">
-        <v>862</v>
+        <v>132</v>
       </c>
       <c r="M33">
-        <v>664</v>
+        <v>339</v>
       </c>
       <c r="N33">
-        <v>33937.02</v>
+        <v>36938.74</v>
       </c>
       <c r="O33">
-        <v>51432</v>
+        <v>52937</v>
       </c>
       <c r="P33">
-        <v>89782540.36</v>
+        <v>67891713.27</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2326,46 +2533,46 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>404</v>
+        <v>213</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>4683558</v>
+        <v>1018951</v>
       </c>
       <c r="G34">
-        <v>2243512</v>
+        <v>538287</v>
       </c>
       <c r="H34">
-        <v>146757</v>
+        <v>34839</v>
       </c>
       <c r="I34">
-        <v>126666</v>
+        <v>73430</v>
       </c>
       <c r="J34">
-        <v>13508</v>
+        <v>5149</v>
       </c>
       <c r="K34">
-        <v>8780</v>
+        <v>8450</v>
       </c>
       <c r="L34">
-        <v>1157</v>
+        <v>320</v>
       </c>
       <c r="M34">
-        <v>718</v>
+        <v>181</v>
       </c>
       <c r="N34">
-        <v>92859.49000000001</v>
+        <v>11316.82</v>
       </c>
       <c r="O34">
-        <v>27971</v>
+        <v>36630</v>
       </c>
       <c r="P34">
-        <v>219154026.7</v>
+        <v>45553735.99</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2376,46 +2583,46 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>3372410</v>
+        <v>782829</v>
       </c>
       <c r="G35">
-        <v>3222138</v>
+        <v>752462</v>
       </c>
       <c r="H35">
-        <v>128873</v>
+        <v>37943</v>
       </c>
       <c r="I35">
-        <v>89661</v>
+        <v>50619</v>
       </c>
       <c r="J35">
-        <v>8552</v>
+        <v>3325</v>
       </c>
       <c r="K35">
-        <v>4609</v>
+        <v>5061</v>
       </c>
       <c r="L35">
-        <v>577</v>
+        <v>454</v>
       </c>
       <c r="M35">
-        <v>697</v>
+        <v>601</v>
       </c>
       <c r="N35">
-        <v>65602.64</v>
+        <v>14015.09</v>
       </c>
       <c r="O35">
-        <v>43210</v>
+        <v>25969</v>
       </c>
       <c r="P35">
-        <v>190343555.95</v>
+        <v>10278899.33</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2426,46 +2633,46 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36">
-        <v>483</v>
+        <v>293</v>
       </c>
       <c r="E36">
         <v>17</v>
       </c>
       <c r="F36">
-        <v>2811622</v>
+        <v>4265812</v>
       </c>
       <c r="G36">
-        <v>2729658</v>
+        <v>2818701</v>
       </c>
       <c r="H36">
-        <v>113857</v>
+        <v>165829</v>
       </c>
       <c r="I36">
-        <v>85597</v>
+        <v>197661</v>
       </c>
       <c r="J36">
-        <v>5720</v>
+        <v>13438</v>
       </c>
       <c r="K36">
-        <v>4268</v>
+        <v>12352</v>
       </c>
       <c r="L36">
-        <v>365</v>
+        <v>1420</v>
       </c>
       <c r="M36">
-        <v>292</v>
+        <v>930</v>
       </c>
       <c r="N36">
-        <v>69000.78999999999</v>
+        <v>88639</v>
       </c>
       <c r="O36">
-        <v>38643</v>
+        <v>51738</v>
       </c>
       <c r="P36">
-        <v>160895062.67</v>
+        <v>241071904.21</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2476,46 +2683,46 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37">
-        <v>1091</v>
+        <v>424</v>
       </c>
       <c r="E37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37">
-        <v>4212014</v>
+        <v>2027882</v>
       </c>
       <c r="G37">
-        <v>2386597</v>
+        <v>765314</v>
       </c>
       <c r="H37">
-        <v>89531</v>
+        <v>44781</v>
       </c>
       <c r="I37">
-        <v>89843</v>
+        <v>81650</v>
       </c>
       <c r="J37">
-        <v>8990</v>
+        <v>4811</v>
       </c>
       <c r="K37">
-        <v>9688</v>
+        <v>4562</v>
       </c>
       <c r="L37">
-        <v>704</v>
+        <v>129</v>
       </c>
       <c r="M37">
-        <v>1155</v>
+        <v>178</v>
       </c>
       <c r="N37">
-        <v>70636.53999999999</v>
+        <v>18365.48</v>
       </c>
       <c r="O37">
-        <v>58782</v>
+        <v>26072</v>
       </c>
       <c r="P37">
-        <v>192477448.43</v>
+        <v>82942772.54000001</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2526,46 +2733,46 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>421</v>
+        <v>1241</v>
       </c>
       <c r="E38">
         <v>16</v>
       </c>
       <c r="F38">
-        <v>1832547</v>
+        <v>5511179</v>
       </c>
       <c r="G38">
-        <v>1473531</v>
+        <v>5079211</v>
       </c>
       <c r="H38">
-        <v>51402</v>
+        <v>130284</v>
       </c>
       <c r="I38">
-        <v>40475</v>
+        <v>168671</v>
       </c>
       <c r="J38">
-        <v>2695</v>
+        <v>9320</v>
       </c>
       <c r="K38">
-        <v>2671</v>
+        <v>10403</v>
       </c>
       <c r="L38">
-        <v>331</v>
+        <v>695</v>
       </c>
       <c r="M38">
-        <v>358</v>
+        <v>880</v>
       </c>
       <c r="N38">
-        <v>32227.58</v>
+        <v>61361.15</v>
       </c>
       <c r="O38">
-        <v>13349</v>
+        <v>59432</v>
       </c>
       <c r="P38">
-        <v>97451910.59</v>
+        <v>260155993.84</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2576,46 +2783,46 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>1287</v>
+        <v>438</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F39">
-        <v>8270880</v>
+        <v>2533902</v>
       </c>
       <c r="G39">
-        <v>7496193</v>
+        <v>1337049</v>
       </c>
       <c r="H39">
-        <v>175082</v>
+        <v>68957</v>
       </c>
       <c r="I39">
-        <v>187500</v>
+        <v>101625</v>
       </c>
       <c r="J39">
-        <v>17357</v>
+        <v>5045</v>
       </c>
       <c r="K39">
-        <v>18034</v>
+        <v>5878</v>
       </c>
       <c r="L39">
-        <v>1653</v>
+        <v>165</v>
       </c>
       <c r="M39">
-        <v>941</v>
+        <v>684</v>
       </c>
       <c r="N39">
-        <v>67297.34</v>
+        <v>21238.51</v>
       </c>
       <c r="O39">
-        <v>86983</v>
+        <v>51677</v>
       </c>
       <c r="P39">
-        <v>263751197.34</v>
+        <v>141427554.55</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2626,46 +2833,46 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>634</v>
+        <v>150</v>
       </c>
       <c r="E40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F40">
-        <v>1542177</v>
+        <v>1389141</v>
       </c>
       <c r="G40">
-        <v>1512954</v>
+        <v>1226336</v>
       </c>
       <c r="H40">
-        <v>31723</v>
+        <v>52831</v>
       </c>
       <c r="I40">
-        <v>41158</v>
+        <v>73266</v>
       </c>
       <c r="J40">
-        <v>3203</v>
+        <v>2331</v>
       </c>
       <c r="K40">
-        <v>4301</v>
+        <v>5013</v>
       </c>
       <c r="L40">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="M40">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="N40">
-        <v>26005.66</v>
+        <v>11427.91</v>
       </c>
       <c r="O40">
-        <v>23705</v>
+        <v>30761</v>
       </c>
       <c r="P40">
-        <v>65354703.56</v>
+        <v>118691793.47</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2676,46 +2883,46 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>460</v>
+        <v>124</v>
       </c>
       <c r="E41">
         <v>15</v>
       </c>
       <c r="F41">
-        <v>3563714</v>
+        <v>4580458</v>
       </c>
       <c r="G41">
-        <v>2746887</v>
+        <v>3019904</v>
       </c>
       <c r="H41">
-        <v>106708</v>
+        <v>166797</v>
       </c>
       <c r="I41">
-        <v>56917</v>
+        <v>176343</v>
       </c>
       <c r="J41">
-        <v>6375</v>
+        <v>11368</v>
       </c>
       <c r="K41">
-        <v>7005</v>
+        <v>11113</v>
       </c>
       <c r="L41">
-        <v>1273</v>
+        <v>1931</v>
       </c>
       <c r="M41">
-        <v>1603</v>
+        <v>1174</v>
       </c>
       <c r="N41">
-        <v>79794.74000000001</v>
+        <v>96472.69</v>
       </c>
       <c r="O41">
-        <v>42047</v>
+        <v>47246</v>
       </c>
       <c r="P41">
-        <v>148655867.39</v>
+        <v>217963625.44</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2726,46 +2933,46 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>1157</v>
+        <v>341</v>
       </c>
       <c r="E42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>12737234</v>
+        <v>785912</v>
       </c>
       <c r="G42">
-        <v>4294924</v>
+        <v>517220</v>
       </c>
       <c r="H42">
-        <v>171263</v>
+        <v>39707</v>
       </c>
       <c r="I42">
-        <v>101750</v>
+        <v>45710</v>
       </c>
       <c r="J42">
-        <v>31631</v>
+        <v>4524</v>
       </c>
       <c r="K42">
-        <v>14381</v>
+        <v>4426</v>
       </c>
       <c r="L42">
-        <v>1750</v>
+        <v>317</v>
       </c>
       <c r="M42">
-        <v>762</v>
+        <v>435</v>
       </c>
       <c r="N42">
-        <v>146331.26</v>
+        <v>14928.85</v>
       </c>
       <c r="O42">
-        <v>61827</v>
+        <v>21072</v>
       </c>
       <c r="P42">
-        <v>595700260.72</v>
+        <v>99594641.59999999</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2776,46 +2983,46 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F43">
-        <v>1456067</v>
+        <v>1373927</v>
       </c>
       <c r="G43">
-        <v>2143903</v>
+        <v>1033164</v>
       </c>
       <c r="H43">
-        <v>54027</v>
+        <v>43110</v>
       </c>
       <c r="I43">
-        <v>59798</v>
+        <v>65119</v>
       </c>
       <c r="J43">
-        <v>2680</v>
+        <v>6054</v>
       </c>
       <c r="K43">
-        <v>4211</v>
+        <v>4124</v>
       </c>
       <c r="L43">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="M43">
-        <v>584</v>
+        <v>43</v>
       </c>
       <c r="N43">
-        <v>27239.21</v>
+        <v>19619.11</v>
       </c>
       <c r="O43">
-        <v>52635</v>
+        <v>27802</v>
       </c>
       <c r="P43">
-        <v>41854423.28</v>
+        <v>78820891.31999999</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2826,46 +3033,46 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F44">
-        <v>1549973</v>
+        <v>978863</v>
       </c>
       <c r="G44">
-        <v>1354547</v>
+        <v>1004716</v>
       </c>
       <c r="H44">
-        <v>50744</v>
+        <v>57038</v>
       </c>
       <c r="I44">
-        <v>49982</v>
+        <v>87029</v>
       </c>
       <c r="J44">
-        <v>5236</v>
+        <v>8356</v>
       </c>
       <c r="K44">
-        <v>3810</v>
+        <v>8378</v>
       </c>
       <c r="L44">
-        <v>527</v>
+        <v>421</v>
       </c>
       <c r="M44">
-        <v>432</v>
+        <v>308</v>
       </c>
       <c r="N44">
-        <v>33898.38</v>
+        <v>12392.06</v>
       </c>
       <c r="O44">
-        <v>10555</v>
+        <v>39132</v>
       </c>
       <c r="P44">
-        <v>171241431.76</v>
+        <v>4699117.15</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2876,46 +3083,46 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>1448</v>
+        <v>194</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>4207724</v>
+        <v>1311566</v>
       </c>
       <c r="G45">
-        <v>2958544</v>
+        <v>945504</v>
       </c>
       <c r="H45">
-        <v>50214</v>
+        <v>64121</v>
       </c>
       <c r="I45">
-        <v>85027</v>
+        <v>58750</v>
       </c>
       <c r="J45">
-        <v>9397</v>
+        <v>6402</v>
       </c>
       <c r="K45">
-        <v>12636</v>
+        <v>4472</v>
       </c>
       <c r="L45">
-        <v>873</v>
+        <v>992</v>
       </c>
       <c r="M45">
-        <v>1205</v>
+        <v>844</v>
       </c>
       <c r="N45">
-        <v>39198.94</v>
+        <v>25918.31</v>
       </c>
       <c r="O45">
-        <v>87636</v>
+        <v>25180</v>
       </c>
       <c r="P45">
-        <v>59360282.16</v>
+        <v>59321311.17</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2926,46 +3133,46 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>717</v>
+        <v>185</v>
       </c>
       <c r="E46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>4862037</v>
+        <v>647186</v>
       </c>
       <c r="G46">
-        <v>2629155</v>
+        <v>809775</v>
       </c>
       <c r="H46">
-        <v>44394</v>
+        <v>36822</v>
       </c>
       <c r="I46">
-        <v>34644</v>
+        <v>48218</v>
       </c>
       <c r="J46">
-        <v>14592</v>
+        <v>3614</v>
       </c>
       <c r="K46">
-        <v>11190</v>
+        <v>4645</v>
       </c>
       <c r="L46">
-        <v>874</v>
+        <v>321</v>
       </c>
       <c r="M46">
-        <v>619</v>
+        <v>436</v>
       </c>
       <c r="N46">
-        <v>43967.48</v>
+        <v>7529.35</v>
       </c>
       <c r="O46">
-        <v>50826</v>
+        <v>24967</v>
       </c>
       <c r="P46">
-        <v>134581330.45</v>
+        <v>10391213.63</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2976,46 +3183,46 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
-        <v>1155</v>
+        <v>109</v>
       </c>
       <c r="E47">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>4589159</v>
+        <v>474872</v>
       </c>
       <c r="G47">
-        <v>2572816</v>
+        <v>685095</v>
       </c>
       <c r="H47">
-        <v>63691</v>
+        <v>26361</v>
       </c>
       <c r="I47">
-        <v>61990</v>
+        <v>40913</v>
       </c>
       <c r="J47">
-        <v>17376</v>
+        <v>1037</v>
       </c>
       <c r="K47">
-        <v>15771</v>
+        <v>2401</v>
       </c>
       <c r="L47">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="M47">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="N47">
-        <v>31417.17</v>
+        <v>13783.12</v>
       </c>
       <c r="O47">
-        <v>101621</v>
+        <v>17148</v>
       </c>
       <c r="P47">
-        <v>61749248.31</v>
+        <v>92794597.05</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3026,46 +3233,46 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D48">
-        <v>1285</v>
+        <v>128</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>3312034</v>
+        <v>753223</v>
       </c>
       <c r="G48">
-        <v>3636790</v>
+        <v>734329</v>
       </c>
       <c r="H48">
-        <v>50768</v>
+        <v>41653</v>
       </c>
       <c r="I48">
-        <v>74580</v>
+        <v>56628</v>
       </c>
       <c r="J48">
-        <v>9415</v>
+        <v>2460</v>
       </c>
       <c r="K48">
-        <v>9882</v>
+        <v>3089</v>
       </c>
       <c r="L48">
-        <v>692</v>
+        <v>381</v>
       </c>
       <c r="M48">
-        <v>856</v>
+        <v>289</v>
       </c>
       <c r="N48">
-        <v>46813.04</v>
+        <v>17218.76</v>
       </c>
       <c r="O48">
-        <v>77027</v>
+        <v>21041</v>
       </c>
       <c r="P48">
-        <v>44544012.15</v>
+        <v>21878718.82</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3076,46 +3283,46 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>2927299</v>
+        <v>436568</v>
       </c>
       <c r="G49">
-        <v>1438917</v>
+        <v>185095</v>
       </c>
       <c r="H49">
-        <v>53519</v>
+        <v>13411</v>
       </c>
       <c r="I49">
-        <v>79630</v>
+        <v>20066</v>
       </c>
       <c r="J49">
-        <v>6788</v>
+        <v>1885</v>
       </c>
       <c r="K49">
-        <v>4153</v>
+        <v>2071</v>
       </c>
       <c r="L49">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="M49">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="N49">
-        <v>81054.50999999999</v>
+        <v>6590.34</v>
       </c>
       <c r="O49">
-        <v>26027</v>
+        <v>14628</v>
       </c>
       <c r="P49">
-        <v>207270852.25</v>
+        <v>4169472.15</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3126,46 +3333,46 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50">
-        <v>154</v>
+        <v>676</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50">
-        <v>2773923</v>
+        <v>229500</v>
       </c>
       <c r="G50">
-        <v>1619569</v>
+        <v>148262</v>
       </c>
       <c r="H50">
-        <v>87978</v>
+        <v>866</v>
       </c>
       <c r="I50">
-        <v>30931</v>
+        <v>9269</v>
       </c>
       <c r="J50">
-        <v>5811</v>
+        <v>598</v>
       </c>
       <c r="K50">
-        <v>2756</v>
+        <v>784</v>
       </c>
       <c r="L50">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="M50">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>79729.05</v>
+        <v>2908.88</v>
       </c>
       <c r="O50">
-        <v>8382</v>
+        <v>28596</v>
       </c>
       <c r="P50">
-        <v>303553553.34</v>
+        <v>1267127.88</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3176,46 +3383,46 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51">
-        <v>175</v>
+        <v>1720</v>
       </c>
       <c r="E51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>4584322</v>
+        <v>2354078</v>
       </c>
       <c r="G51">
-        <v>1523375</v>
+        <v>2507071</v>
       </c>
       <c r="H51">
-        <v>107735</v>
+        <v>43151</v>
       </c>
       <c r="I51">
-        <v>75610</v>
+        <v>55264</v>
       </c>
       <c r="J51">
-        <v>13998</v>
+        <v>4869</v>
       </c>
       <c r="K51">
-        <v>3661</v>
+        <v>8444</v>
       </c>
       <c r="L51">
-        <v>1311</v>
+        <v>808</v>
       </c>
       <c r="M51">
-        <v>479</v>
+        <v>958</v>
       </c>
       <c r="N51">
-        <v>130388.79</v>
+        <v>45285.49</v>
       </c>
       <c r="O51">
-        <v>7618</v>
+        <v>55560</v>
       </c>
       <c r="P51">
-        <v>459401430.03</v>
+        <v>29042855.32</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3226,46 +3433,46 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="E52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52">
-        <v>1725551</v>
+        <v>275074</v>
       </c>
       <c r="G52">
-        <v>1576845</v>
+        <v>533338</v>
       </c>
       <c r="H52">
-        <v>43736</v>
+        <v>12780</v>
       </c>
       <c r="I52">
-        <v>43254</v>
+        <v>32735</v>
       </c>
       <c r="J52">
-        <v>2480</v>
+        <v>688</v>
       </c>
       <c r="K52">
-        <v>4130</v>
+        <v>2179</v>
       </c>
       <c r="L52">
-        <v>324</v>
+        <v>170</v>
       </c>
       <c r="M52">
-        <v>540</v>
+        <v>151</v>
       </c>
       <c r="N52">
-        <v>24798.43</v>
+        <v>10109.04</v>
       </c>
       <c r="O52">
-        <v>20327</v>
+        <v>13139</v>
       </c>
       <c r="P52">
-        <v>99270088.72</v>
+        <v>4770023.87</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3276,46 +3483,46 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53">
-        <v>409</v>
+        <v>95</v>
       </c>
       <c r="E53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
-        <v>92177</v>
+        <v>105080</v>
       </c>
       <c r="G53">
-        <v>129328</v>
+        <v>85281</v>
       </c>
       <c r="H53">
-        <v>2832</v>
+        <v>5107</v>
       </c>
       <c r="I53">
-        <v>2524</v>
+        <v>7046</v>
       </c>
       <c r="J53">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="K53">
-        <v>224</v>
+        <v>776</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>4335.82</v>
+        <v>5055.58</v>
       </c>
       <c r="O53">
-        <v>2586</v>
+        <v>9658</v>
       </c>
       <c r="P53">
-        <v>35025886.86</v>
+        <v>76097679.52</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3326,46 +3533,46 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54">
-        <v>370</v>
+        <v>568</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F54">
-        <v>4363283</v>
+        <v>1229605</v>
       </c>
       <c r="G54">
-        <v>2863649</v>
+        <v>1317550</v>
       </c>
       <c r="H54">
-        <v>98488</v>
+        <v>38459</v>
       </c>
       <c r="I54">
-        <v>100781</v>
+        <v>40178</v>
       </c>
       <c r="J54">
-        <v>12234</v>
+        <v>3237</v>
       </c>
       <c r="K54">
-        <v>8479</v>
+        <v>4305</v>
       </c>
       <c r="L54">
-        <v>1229</v>
+        <v>73</v>
       </c>
       <c r="M54">
-        <v>1086</v>
+        <v>156</v>
       </c>
       <c r="N54">
-        <v>107943.63</v>
+        <v>16187.05</v>
       </c>
       <c r="O54">
-        <v>33288</v>
+        <v>30698</v>
       </c>
       <c r="P54">
-        <v>483080099.37</v>
+        <v>64085192.31</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3376,46 +3583,46 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>351400</v>
+        <v>479375</v>
       </c>
       <c r="G55">
-        <v>299841</v>
+        <v>498987</v>
       </c>
       <c r="H55">
-        <v>5027</v>
+        <v>19134</v>
       </c>
       <c r="I55">
-        <v>3047</v>
+        <v>28992</v>
       </c>
       <c r="J55">
-        <v>471</v>
+        <v>1731</v>
       </c>
       <c r="K55">
-        <v>724</v>
+        <v>2509</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>313</v>
       </c>
       <c r="M55">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="N55">
-        <v>23496.13</v>
+        <v>10567.96</v>
       </c>
       <c r="O55">
-        <v>3531</v>
+        <v>14147</v>
       </c>
       <c r="P55">
-        <v>102613746.09</v>
+        <v>47637584.94</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3426,46 +3633,46 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>377</v>
+        <v>870</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>895697</v>
+        <v>1544633</v>
       </c>
       <c r="G56">
-        <v>318425</v>
+        <v>2241059</v>
       </c>
       <c r="H56">
-        <v>18548</v>
+        <v>48790</v>
       </c>
       <c r="I56">
-        <v>16807</v>
+        <v>68694</v>
       </c>
       <c r="J56">
-        <v>1620</v>
+        <v>3892</v>
       </c>
       <c r="K56">
-        <v>918</v>
+        <v>5199</v>
       </c>
       <c r="L56">
-        <v>241</v>
+        <v>555</v>
       </c>
       <c r="M56">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="N56">
-        <v>16603.54</v>
+        <v>22163.17</v>
       </c>
       <c r="O56">
-        <v>16481</v>
+        <v>44297</v>
       </c>
       <c r="P56">
-        <v>44614923.85</v>
+        <v>19763545.93</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3476,46 +3683,46 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D57">
-        <v>1216</v>
+        <v>139</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>1099651</v>
+        <v>141190</v>
       </c>
       <c r="G57">
-        <v>1667414</v>
+        <v>204940</v>
       </c>
       <c r="H57">
-        <v>16055</v>
+        <v>8009</v>
       </c>
       <c r="I57">
-        <v>61127</v>
+        <v>18217</v>
       </c>
       <c r="J57">
-        <v>4548</v>
+        <v>1133</v>
       </c>
       <c r="K57">
-        <v>8578</v>
+        <v>1631</v>
       </c>
       <c r="L57">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="M57">
-        <v>965</v>
+        <v>133</v>
       </c>
       <c r="N57">
-        <v>20825.95</v>
+        <v>553.77</v>
       </c>
       <c r="O57">
-        <v>98194</v>
+        <v>16944</v>
       </c>
       <c r="P57">
-        <v>37574791.36</v>
+        <v>2303217.3</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3526,46 +3733,46 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D58">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="E58">
         <v>12</v>
       </c>
       <c r="F58">
-        <v>239656</v>
+        <v>84131</v>
       </c>
       <c r="G58">
-        <v>370991</v>
+        <v>220365</v>
       </c>
       <c r="H58">
-        <v>9445</v>
+        <v>9885</v>
       </c>
       <c r="I58">
-        <v>8420</v>
+        <v>17345</v>
       </c>
       <c r="J58">
-        <v>244</v>
+        <v>822</v>
       </c>
       <c r="K58">
-        <v>705</v>
+        <v>1855</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="M58">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="N58">
-        <v>11490.73</v>
+        <v>5952.49</v>
       </c>
       <c r="O58">
-        <v>6652</v>
+        <v>20917</v>
       </c>
       <c r="P58">
-        <v>94594629.70999999</v>
+        <v>50673549.87</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3576,46 +3783,46 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="E59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59">
-        <v>1416258</v>
+        <v>972256</v>
       </c>
       <c r="G59">
-        <v>1696328</v>
+        <v>891253</v>
       </c>
       <c r="H59">
-        <v>36900</v>
+        <v>37196</v>
       </c>
       <c r="I59">
-        <v>51644</v>
+        <v>49618</v>
       </c>
       <c r="J59">
-        <v>2568</v>
+        <v>3437</v>
       </c>
       <c r="K59">
-        <v>3279</v>
+        <v>3913</v>
       </c>
       <c r="L59">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="M59">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="N59">
-        <v>18670.1</v>
+        <v>14902.45</v>
       </c>
       <c r="O59">
-        <v>28095</v>
+        <v>26248</v>
       </c>
       <c r="P59">
-        <v>92659534.22</v>
+        <v>105459162.75</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3626,46 +3833,46 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>1394538</v>
+        <v>355397</v>
       </c>
       <c r="G60">
-        <v>511786</v>
+        <v>352302</v>
       </c>
       <c r="H60">
-        <v>44778</v>
+        <v>9066</v>
       </c>
       <c r="I60">
-        <v>24213</v>
+        <v>19342</v>
       </c>
       <c r="J60">
-        <v>3505</v>
+        <v>935</v>
       </c>
       <c r="K60">
-        <v>1168</v>
+        <v>1827</v>
       </c>
       <c r="L60">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="M60">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N60">
-        <v>44993.33</v>
+        <v>6168.03</v>
       </c>
       <c r="O60">
-        <v>1865</v>
+        <v>7280</v>
       </c>
       <c r="P60">
-        <v>341343022.7</v>
+        <v>83682394.09</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3676,46 +3883,46 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D61">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>11</v>
       </c>
       <c r="F61">
-        <v>1081367</v>
+        <v>1986064</v>
       </c>
       <c r="G61">
-        <v>561454</v>
+        <v>1057953</v>
       </c>
       <c r="H61">
-        <v>34064</v>
+        <v>59410</v>
       </c>
       <c r="I61">
-        <v>36224</v>
+        <v>32777</v>
       </c>
       <c r="J61">
-        <v>3183</v>
+        <v>6635</v>
       </c>
       <c r="K61">
-        <v>1864</v>
+        <v>3338</v>
       </c>
       <c r="L61">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="M61">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="N61">
-        <v>43131.36</v>
+        <v>25472.51</v>
       </c>
       <c r="O61">
-        <v>5747</v>
+        <v>22831</v>
       </c>
       <c r="P61">
-        <v>153234892.8</v>
+        <v>196718311.21</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3726,46 +3933,46 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="E62">
         <v>10</v>
       </c>
       <c r="F62">
-        <v>682846</v>
+        <v>121699</v>
       </c>
       <c r="G62">
-        <v>412195</v>
+        <v>160596</v>
       </c>
       <c r="H62">
-        <v>12944</v>
+        <v>5277</v>
       </c>
       <c r="I62">
-        <v>18640</v>
+        <v>16854</v>
       </c>
       <c r="J62">
-        <v>803</v>
+        <v>416</v>
       </c>
       <c r="K62">
-        <v>652</v>
+        <v>1043</v>
       </c>
       <c r="L62">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="M62">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="N62">
-        <v>22155.33</v>
+        <v>665.45</v>
       </c>
       <c r="O62">
-        <v>4559</v>
+        <v>12080</v>
       </c>
       <c r="P62">
-        <v>88844488.25</v>
+        <v>1008573.36</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3776,46 +3983,46 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="E63">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>446002</v>
+        <v>537433</v>
       </c>
       <c r="G63">
-        <v>375312</v>
+        <v>810207</v>
       </c>
       <c r="H63">
-        <v>12584</v>
+        <v>11674</v>
       </c>
       <c r="I63">
-        <v>11646</v>
+        <v>12386</v>
       </c>
       <c r="J63">
-        <v>1496</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>1975</v>
+        <v>927</v>
       </c>
       <c r="L63">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N63">
-        <v>11534.5</v>
+        <v>5414.36</v>
       </c>
       <c r="O63">
-        <v>10097</v>
+        <v>10705</v>
       </c>
       <c r="P63">
-        <v>46101336.81</v>
+        <v>3121936.6</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3826,46 +4033,46 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>1031453</v>
+        <v>498488</v>
       </c>
       <c r="G64">
-        <v>431570</v>
+        <v>196350</v>
       </c>
       <c r="H64">
-        <v>19536</v>
+        <v>15068</v>
       </c>
       <c r="I64">
-        <v>18884</v>
+        <v>9953</v>
       </c>
       <c r="J64">
-        <v>1619</v>
+        <v>870</v>
       </c>
       <c r="K64">
-        <v>915</v>
+        <v>175</v>
       </c>
       <c r="L64">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N64">
-        <v>55453.65</v>
+        <v>8341.370000000001</v>
       </c>
       <c r="O64">
-        <v>6026</v>
+        <v>458</v>
       </c>
       <c r="P64">
-        <v>138939548.23</v>
+        <v>86079290.59</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3876,46 +4083,46 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F65">
-        <v>556237</v>
+        <v>316382</v>
       </c>
       <c r="G65">
-        <v>558547</v>
+        <v>207672</v>
       </c>
       <c r="H65">
-        <v>6922</v>
+        <v>12649</v>
       </c>
       <c r="I65">
-        <v>17144</v>
+        <v>7497</v>
       </c>
       <c r="J65">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="K65">
-        <v>1547</v>
+        <v>660</v>
       </c>
       <c r="L65">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="M65">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N65">
-        <v>18354.46</v>
+        <v>5154.67</v>
       </c>
       <c r="O65">
-        <v>26083</v>
+        <v>2568</v>
       </c>
       <c r="P65">
-        <v>15926602.15</v>
+        <v>19886012.72</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3926,46 +4133,46 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>234048</v>
+        <v>75799</v>
       </c>
       <c r="G66">
-        <v>95701</v>
+        <v>46002</v>
       </c>
       <c r="H66">
-        <v>1179</v>
+        <v>1041</v>
       </c>
       <c r="I66">
-        <v>1562</v>
+        <v>1274</v>
       </c>
       <c r="J66">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="K66">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>12223.58</v>
+        <v>1757.36</v>
       </c>
       <c r="O66">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="P66">
-        <v>86888173.97</v>
+        <v>19929637.41</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3976,46 +4183,46 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>1459720</v>
+        <v>32732</v>
       </c>
       <c r="G67">
-        <v>428677</v>
+        <v>66569</v>
       </c>
       <c r="H67">
-        <v>38076</v>
+        <v>1186</v>
       </c>
       <c r="I67">
-        <v>17316</v>
+        <v>1988</v>
       </c>
       <c r="J67">
-        <v>2060</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="L67">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="M67">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="N67">
-        <v>26154.14</v>
+        <v>1461.79</v>
       </c>
       <c r="O67">
-        <v>1947</v>
+        <v>738</v>
       </c>
       <c r="P67">
-        <v>196441554.2</v>
+        <v>10918039.93</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4026,46 +4233,46 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D68">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="E68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>596595</v>
+        <v>19748</v>
       </c>
       <c r="G68">
-        <v>187161</v>
+        <v>22182</v>
       </c>
       <c r="H68">
-        <v>15284</v>
+        <v>777</v>
       </c>
       <c r="I68">
-        <v>6367</v>
+        <v>823</v>
       </c>
       <c r="J68">
-        <v>2406</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>845</v>
+        <v>37</v>
       </c>
       <c r="L68">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>19017.94</v>
+        <v>990.78</v>
       </c>
       <c r="O68">
-        <v>1606</v>
+        <v>274</v>
       </c>
       <c r="P68">
-        <v>91480260.61</v>
+        <v>11139253.51</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4076,46 +4283,46 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D69">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F69">
-        <v>90568</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>30268</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>5886</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>7673.12</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>5705</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>68054474.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4126,46 +4333,46 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D70">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>767293</v>
+        <v>136639</v>
       </c>
       <c r="G70">
-        <v>590675</v>
+        <v>74798</v>
       </c>
       <c r="H70">
-        <v>12147</v>
+        <v>1399</v>
       </c>
       <c r="I70">
-        <v>7626</v>
+        <v>1276</v>
       </c>
       <c r="J70">
-        <v>465</v>
+        <v>30</v>
       </c>
       <c r="K70">
-        <v>876</v>
+        <v>100</v>
       </c>
       <c r="L70">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="N70">
-        <v>20937</v>
+        <v>3438.44</v>
       </c>
       <c r="O70">
-        <v>4460</v>
+        <v>931</v>
       </c>
       <c r="P70">
-        <v>92332809.78</v>
+        <v>61870035.6</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4176,46 +4383,46 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D71">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>179981</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>112717</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>783</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>9414.559999999999</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>60071075.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4223,49 +4430,49 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>1416</v>
       </c>
       <c r="E72">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F72">
-        <v>52691</v>
+        <v>8819507</v>
       </c>
       <c r="G72">
-        <v>61113</v>
+        <v>7891681</v>
       </c>
       <c r="H72">
-        <v>1461</v>
+        <v>324899</v>
       </c>
       <c r="I72">
-        <v>591</v>
+        <v>163531</v>
       </c>
       <c r="J72">
-        <v>106</v>
+        <v>42141</v>
       </c>
       <c r="K72">
-        <v>104</v>
+        <v>29291</v>
       </c>
       <c r="L72">
-        <v>32</v>
+        <v>3610</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>2180</v>
       </c>
       <c r="N72">
-        <v>6133.48</v>
+        <v>289381.12</v>
       </c>
       <c r="O72">
-        <v>1076</v>
+        <v>218364</v>
       </c>
       <c r="P72">
-        <v>38548003.26</v>
+        <v>277482484.18</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4273,49 +4480,49 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D73">
-        <v>41</v>
+        <v>1565</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F73">
-        <v>77639</v>
+        <v>5802126</v>
       </c>
       <c r="G73">
-        <v>70920</v>
+        <v>8752643</v>
       </c>
       <c r="H73">
-        <v>1502</v>
+        <v>132469</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>82202</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>14919</v>
       </c>
       <c r="K73">
-        <v>15</v>
+        <v>12028</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="N73">
-        <v>3671.88</v>
+        <v>142762.08</v>
       </c>
       <c r="O73">
-        <v>539</v>
+        <v>134093</v>
       </c>
       <c r="P73">
-        <v>46209394.57</v>
+        <v>232179062.96</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4323,49 +4530,49 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>1583</v>
       </c>
       <c r="E74">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F74">
-        <v>129368</v>
+        <v>14573727</v>
       </c>
       <c r="G74">
-        <v>166565</v>
+        <v>11370291</v>
       </c>
       <c r="H74">
-        <v>3314</v>
+        <v>424270</v>
       </c>
       <c r="I74">
-        <v>200</v>
+        <v>165990</v>
       </c>
       <c r="J74">
-        <v>15</v>
+        <v>45142</v>
       </c>
       <c r="K74">
-        <v>204</v>
+        <v>36633</v>
       </c>
       <c r="L74">
-        <v>19</v>
+        <v>4495</v>
       </c>
       <c r="M74">
-        <v>35</v>
+        <v>3439</v>
       </c>
       <c r="N74">
-        <v>9448.08</v>
+        <v>244416.07</v>
       </c>
       <c r="O74">
-        <v>1017</v>
+        <v>173962</v>
       </c>
       <c r="P74">
-        <v>59552178.06</v>
+        <v>559961629.47</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4373,49 +4580,49 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>966</v>
       </c>
       <c r="E75">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F75">
-        <v>203815</v>
+        <v>6341882</v>
       </c>
       <c r="G75">
-        <v>70980</v>
+        <v>6168919</v>
       </c>
       <c r="H75">
-        <v>1418</v>
+        <v>196332</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>102097</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>20836</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>14953</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>1648</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>1376</v>
       </c>
       <c r="N75">
-        <v>5700.86</v>
+        <v>110304.95</v>
       </c>
       <c r="O75">
-        <v>1139</v>
+        <v>73627</v>
       </c>
       <c r="P75">
-        <v>40332100.69</v>
+        <v>113100208.32</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4423,49 +4630,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76">
-        <v>44</v>
+        <v>1025</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F76">
-        <v>82470</v>
+        <v>5095673</v>
       </c>
       <c r="G76">
-        <v>59328</v>
+        <v>3617501</v>
       </c>
       <c r="H76">
-        <v>154</v>
+        <v>120496</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>105976</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>9705</v>
       </c>
       <c r="K76">
-        <v>7</v>
+        <v>10394</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>1541</v>
       </c>
       <c r="M76">
-        <v>17</v>
+        <v>1397</v>
       </c>
       <c r="N76">
-        <v>3751.95</v>
+        <v>99633.44</v>
       </c>
       <c r="O76">
-        <v>1182</v>
+        <v>78918</v>
       </c>
       <c r="P76">
-        <v>32108633.9</v>
+        <v>86201693.81</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4473,49 +4680,49 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>2232</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F77">
-        <v>92230</v>
+        <v>3280802</v>
       </c>
       <c r="G77">
-        <v>43506</v>
+        <v>6839193</v>
       </c>
       <c r="H77">
-        <v>1923</v>
+        <v>165398</v>
       </c>
       <c r="I77">
-        <v>2288</v>
+        <v>122371</v>
       </c>
       <c r="J77">
-        <v>17</v>
+        <v>17191</v>
       </c>
       <c r="K77">
-        <v>13</v>
+        <v>23169</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1869</v>
       </c>
       <c r="N77">
-        <v>4632.7</v>
+        <v>57610.56</v>
       </c>
       <c r="O77">
-        <v>175</v>
+        <v>137484</v>
       </c>
       <c r="P77">
-        <v>44648003.96</v>
+        <v>50033463.75</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4523,49 +4730,49 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>1458</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F78">
-        <v>74280</v>
+        <v>5407653</v>
       </c>
       <c r="G78">
-        <v>39361</v>
+        <v>6250774</v>
       </c>
       <c r="H78">
-        <v>2225</v>
+        <v>152398</v>
       </c>
       <c r="I78">
-        <v>24</v>
+        <v>132656</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>17074</v>
       </c>
       <c r="K78">
-        <v>12</v>
+        <v>13885</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>1384</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>1555</v>
       </c>
       <c r="N78">
-        <v>3473.8</v>
+        <v>121643.58</v>
       </c>
       <c r="O78">
-        <v>269</v>
+        <v>97844</v>
       </c>
       <c r="P78">
-        <v>48681151.41</v>
+        <v>161009170.08</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4573,49 +4780,49 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>1228</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F79">
-        <v>141429</v>
+        <v>8260765</v>
       </c>
       <c r="G79">
-        <v>94262</v>
+        <v>6631269</v>
       </c>
       <c r="H79">
-        <v>1915</v>
+        <v>193820</v>
       </c>
       <c r="I79">
-        <v>3685</v>
+        <v>109418</v>
       </c>
       <c r="J79">
-        <v>72</v>
+        <v>20869</v>
       </c>
       <c r="K79">
-        <v>102</v>
+        <v>16487</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>671</v>
       </c>
       <c r="M79">
-        <v>10</v>
+        <v>1055</v>
       </c>
       <c r="N79">
-        <v>7728.17</v>
+        <v>88019.19</v>
       </c>
       <c r="O79">
-        <v>921</v>
+        <v>95178</v>
       </c>
       <c r="P79">
-        <v>76731947.42</v>
+        <v>214232450.22</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4623,49 +4830,49 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D80">
-        <v>52</v>
+        <v>484</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F80">
-        <v>328627</v>
+        <v>11631674</v>
       </c>
       <c r="G80">
-        <v>307663</v>
+        <v>7781839</v>
       </c>
       <c r="H80">
-        <v>5086</v>
+        <v>393312</v>
       </c>
       <c r="I80">
-        <v>81</v>
+        <v>210121</v>
       </c>
       <c r="J80">
-        <v>280</v>
+        <v>24442</v>
       </c>
       <c r="K80">
-        <v>661</v>
+        <v>6283</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>1420</v>
       </c>
       <c r="M80">
-        <v>21</v>
+        <v>1100</v>
       </c>
       <c r="N80">
-        <v>10382.87</v>
+        <v>257541.56</v>
       </c>
       <c r="O80">
-        <v>1759</v>
+        <v>99734</v>
       </c>
       <c r="P80">
-        <v>68845038.62</v>
+        <v>1509867971.99</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4673,49 +4880,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81">
-        <v>98</v>
+        <v>1169</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>95601</v>
+        <v>4070531</v>
       </c>
       <c r="G81">
-        <v>140012</v>
+        <v>3443296</v>
       </c>
       <c r="H81">
-        <v>3759</v>
+        <v>81634</v>
       </c>
       <c r="I81">
-        <v>3787</v>
+        <v>62017</v>
       </c>
       <c r="J81">
-        <v>81</v>
+        <v>17239</v>
       </c>
       <c r="K81">
-        <v>177</v>
+        <v>18974</v>
       </c>
       <c r="L81">
-        <v>13</v>
+        <v>921</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="N81">
-        <v>3270.01</v>
+        <v>107673.97</v>
       </c>
       <c r="O81">
-        <v>5238</v>
+        <v>135651</v>
       </c>
       <c r="P81">
-        <v>24478497.89</v>
+        <v>193785088.52</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4723,49 +4930,49 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D82">
-        <v>19</v>
+        <v>1181</v>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F82">
-        <v>7804</v>
+        <v>10512329</v>
       </c>
       <c r="G82">
-        <v>26594</v>
+        <v>11832309</v>
       </c>
       <c r="H82">
-        <v>63</v>
+        <v>256702</v>
       </c>
       <c r="I82">
-        <v>267</v>
+        <v>153387</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>23269</v>
       </c>
       <c r="K82">
-        <v>9</v>
+        <v>25058</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>3159</v>
       </c>
       <c r="M82">
-        <v>7</v>
+        <v>3229</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>252058.65</v>
       </c>
       <c r="O82">
-        <v>450</v>
+        <v>158637</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>264475014.39</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4773,49 +4980,3449 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83">
+        <v>614</v>
+      </c>
+      <c r="E83">
+        <v>27</v>
+      </c>
+      <c r="F83">
+        <v>7695191</v>
+      </c>
+      <c r="G83">
+        <v>2605873</v>
+      </c>
+      <c r="H83">
+        <v>146787</v>
+      </c>
+      <c r="I83">
+        <v>120108</v>
+      </c>
+      <c r="J83">
+        <v>12237</v>
+      </c>
+      <c r="K83">
+        <v>10768</v>
+      </c>
+      <c r="L83">
+        <v>1731</v>
+      </c>
+      <c r="M83">
+        <v>728</v>
+      </c>
+      <c r="N83">
+        <v>152712.02</v>
+      </c>
+      <c r="O83">
+        <v>64388</v>
+      </c>
+      <c r="P83">
+        <v>422755995.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84">
+        <v>1262</v>
+      </c>
+      <c r="E84">
+        <v>26</v>
+      </c>
+      <c r="F84">
+        <v>4189383</v>
+      </c>
+      <c r="G84">
+        <v>6061918</v>
+      </c>
+      <c r="H84">
+        <v>150965</v>
+      </c>
+      <c r="I84">
+        <v>120137</v>
+      </c>
+      <c r="J84">
+        <v>12160</v>
+      </c>
+      <c r="K84">
+        <v>13188</v>
+      </c>
+      <c r="L84">
+        <v>1281</v>
+      </c>
+      <c r="M84">
+        <v>1394</v>
+      </c>
+      <c r="N84">
+        <v>61461.43</v>
+      </c>
+      <c r="O84">
+        <v>96909</v>
+      </c>
+      <c r="P84">
+        <v>48124790.23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>835</v>
+      </c>
+      <c r="E85">
+        <v>24</v>
+      </c>
+      <c r="F85">
+        <v>2022227</v>
+      </c>
+      <c r="G85">
+        <v>3893657</v>
+      </c>
+      <c r="H85">
+        <v>83976</v>
+      </c>
+      <c r="I85">
+        <v>93263</v>
+      </c>
+      <c r="J85">
+        <v>5429</v>
+      </c>
+      <c r="K85">
+        <v>8650</v>
+      </c>
+      <c r="L85">
+        <v>414</v>
+      </c>
+      <c r="M85">
+        <v>823</v>
+      </c>
+      <c r="N85">
+        <v>25878.38</v>
+      </c>
+      <c r="O85">
+        <v>88327</v>
+      </c>
+      <c r="P85">
+        <v>183535389.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D86">
+        <v>483</v>
+      </c>
+      <c r="E86">
+        <v>27</v>
+      </c>
+      <c r="F86">
+        <v>6289831</v>
+      </c>
+      <c r="G86">
+        <v>4150444</v>
+      </c>
+      <c r="H86">
+        <v>255828</v>
+      </c>
+      <c r="I86">
+        <v>117361</v>
+      </c>
+      <c r="J86">
+        <v>20421</v>
+      </c>
+      <c r="K86">
+        <v>5155</v>
+      </c>
+      <c r="L86">
+        <v>1234</v>
+      </c>
+      <c r="M86">
+        <v>745</v>
+      </c>
+      <c r="N86">
+        <v>124314.6</v>
+      </c>
+      <c r="O86">
+        <v>64240</v>
+      </c>
+      <c r="P86">
+        <v>565296270.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87">
+        <v>1392</v>
+      </c>
+      <c r="E87">
+        <v>26</v>
+      </c>
+      <c r="F87">
+        <v>5780984</v>
+      </c>
+      <c r="G87">
+        <v>5949499</v>
+      </c>
+      <c r="H87">
+        <v>149792</v>
+      </c>
+      <c r="I87">
+        <v>123526</v>
+      </c>
+      <c r="J87">
+        <v>26924</v>
+      </c>
+      <c r="K87">
+        <v>20887</v>
+      </c>
+      <c r="L87">
+        <v>2663</v>
+      </c>
+      <c r="M87">
+        <v>1346</v>
+      </c>
+      <c r="N87">
+        <v>94712.89</v>
+      </c>
+      <c r="O87">
+        <v>119862</v>
+      </c>
+      <c r="P87">
+        <v>113052501.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D88">
+        <v>1187</v>
+      </c>
+      <c r="E88">
+        <v>26</v>
+      </c>
+      <c r="F88">
+        <v>7144120</v>
+      </c>
+      <c r="G88">
+        <v>10185875</v>
+      </c>
+      <c r="H88">
+        <v>253178</v>
+      </c>
+      <c r="I88">
+        <v>133467</v>
+      </c>
+      <c r="J88">
+        <v>28675</v>
+      </c>
+      <c r="K88">
+        <v>22032</v>
+      </c>
+      <c r="L88">
+        <v>821</v>
+      </c>
+      <c r="M88">
+        <v>985</v>
+      </c>
+      <c r="N88">
+        <v>66668.7</v>
+      </c>
+      <c r="O88">
+        <v>132485</v>
+      </c>
+      <c r="P88">
+        <v>224442903.44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89">
+        <v>1380</v>
+      </c>
+      <c r="E89">
+        <v>26</v>
+      </c>
+      <c r="F89">
+        <v>11890792</v>
+      </c>
+      <c r="G89">
+        <v>7004093</v>
+      </c>
+      <c r="H89">
+        <v>178372</v>
+      </c>
+      <c r="I89">
+        <v>138491</v>
+      </c>
+      <c r="J89">
+        <v>18361</v>
+      </c>
+      <c r="K89">
+        <v>18542</v>
+      </c>
+      <c r="L89">
+        <v>1348</v>
+      </c>
+      <c r="M89">
+        <v>1590</v>
+      </c>
+      <c r="N89">
+        <v>234704.54</v>
+      </c>
+      <c r="O89">
+        <v>140356</v>
+      </c>
+      <c r="P89">
+        <v>476885480.96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90">
+        <v>1179</v>
+      </c>
+      <c r="E90">
+        <v>24</v>
+      </c>
+      <c r="F90">
+        <v>3019593</v>
+      </c>
+      <c r="G90">
+        <v>4722622</v>
+      </c>
+      <c r="H90">
+        <v>143060</v>
+      </c>
+      <c r="I90">
+        <v>88084</v>
+      </c>
+      <c r="J90">
+        <v>9567</v>
+      </c>
+      <c r="K90">
+        <v>7404</v>
+      </c>
+      <c r="L90">
+        <v>1504</v>
+      </c>
+      <c r="M90">
+        <v>1431</v>
+      </c>
+      <c r="N90">
+        <v>73809.23</v>
+      </c>
+      <c r="O90">
+        <v>99795</v>
+      </c>
+      <c r="P90">
+        <v>60351140.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91">
+        <v>339</v>
+      </c>
+      <c r="E91">
+        <v>23</v>
+      </c>
+      <c r="F91">
+        <v>7697171</v>
+      </c>
+      <c r="G91">
+        <v>7381039</v>
+      </c>
+      <c r="H91">
+        <v>302289</v>
+      </c>
+      <c r="I91">
+        <v>271232</v>
+      </c>
+      <c r="J91">
+        <v>25308</v>
+      </c>
+      <c r="K91">
+        <v>13495</v>
+      </c>
+      <c r="L91">
+        <v>423</v>
+      </c>
+      <c r="M91">
+        <v>543</v>
+      </c>
+      <c r="N91">
+        <v>253089.89</v>
+      </c>
+      <c r="O91">
+        <v>96950</v>
+      </c>
+      <c r="P91">
+        <v>1250094827.77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>107</v>
+      </c>
+      <c r="D92">
+        <v>1223</v>
+      </c>
+      <c r="E92">
+        <v>26</v>
+      </c>
+      <c r="F92">
+        <v>3489586</v>
+      </c>
+      <c r="G92">
+        <v>4874727</v>
+      </c>
+      <c r="H92">
+        <v>124859</v>
+      </c>
+      <c r="I92">
+        <v>110811</v>
+      </c>
+      <c r="J92">
+        <v>12732</v>
+      </c>
+      <c r="K92">
+        <v>12884</v>
+      </c>
+      <c r="L92">
+        <v>487</v>
+      </c>
+      <c r="M92">
+        <v>708</v>
+      </c>
+      <c r="N92">
+        <v>39293.04</v>
+      </c>
+      <c r="O92">
+        <v>82311</v>
+      </c>
+      <c r="P92">
+        <v>69931087.62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93">
+        <v>1222</v>
+      </c>
+      <c r="E93">
+        <v>25</v>
+      </c>
+      <c r="F93">
+        <v>6051765</v>
+      </c>
+      <c r="G93">
+        <v>7701436</v>
+      </c>
+      <c r="H93">
+        <v>131612</v>
+      </c>
+      <c r="I93">
+        <v>103200</v>
+      </c>
+      <c r="J93">
+        <v>12157</v>
+      </c>
+      <c r="K93">
+        <v>10663</v>
+      </c>
+      <c r="L93">
+        <v>643</v>
+      </c>
+      <c r="M93">
+        <v>1173</v>
+      </c>
+      <c r="N93">
+        <v>82936.27</v>
+      </c>
+      <c r="O93">
+        <v>78954</v>
+      </c>
+      <c r="P93">
+        <v>108627251.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94">
+        <v>489</v>
+      </c>
+      <c r="E94">
+        <v>24</v>
+      </c>
+      <c r="F94">
+        <v>7217918</v>
+      </c>
+      <c r="G94">
+        <v>2672459</v>
+      </c>
+      <c r="H94">
+        <v>178847</v>
+      </c>
+      <c r="I94">
+        <v>142883</v>
+      </c>
+      <c r="J94">
+        <v>17478</v>
+      </c>
+      <c r="K94">
+        <v>5366</v>
+      </c>
+      <c r="L94">
+        <v>851</v>
+      </c>
+      <c r="M94">
+        <v>773</v>
+      </c>
+      <c r="N94">
+        <v>160676.75</v>
+      </c>
+      <c r="O94">
+        <v>51766</v>
+      </c>
+      <c r="P94">
+        <v>678238336.4400001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95">
+        <v>854</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
+        <v>4848867</v>
+      </c>
+      <c r="G95">
+        <v>5452107</v>
+      </c>
+      <c r="H95">
+        <v>171969</v>
+      </c>
+      <c r="I95">
+        <v>119237</v>
+      </c>
+      <c r="J95">
+        <v>18363</v>
+      </c>
+      <c r="K95">
+        <v>11097</v>
+      </c>
+      <c r="L95">
+        <v>1052</v>
+      </c>
+      <c r="M95">
+        <v>1163</v>
+      </c>
+      <c r="N95">
+        <v>99196.33</v>
+      </c>
+      <c r="O95">
+        <v>79117</v>
+      </c>
+      <c r="P95">
+        <v>237761689.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+      <c r="D96">
+        <v>411</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>3229244</v>
+      </c>
+      <c r="G96">
+        <v>3607714</v>
+      </c>
+      <c r="H96">
+        <v>108845</v>
+      </c>
+      <c r="I96">
+        <v>103475</v>
+      </c>
+      <c r="J96">
+        <v>9779</v>
+      </c>
+      <c r="K96">
+        <v>5514</v>
+      </c>
+      <c r="L96">
+        <v>763</v>
+      </c>
+      <c r="M96">
+        <v>423</v>
+      </c>
+      <c r="N96">
+        <v>107247.13</v>
+      </c>
+      <c r="O96">
+        <v>74899</v>
+      </c>
+      <c r="P96">
+        <v>122707176.62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97">
+        <v>994</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>12721592</v>
+      </c>
+      <c r="G97">
+        <v>6923046</v>
+      </c>
+      <c r="H97">
+        <v>112306</v>
+      </c>
+      <c r="I97">
+        <v>136202</v>
+      </c>
+      <c r="J97">
+        <v>13714</v>
+      </c>
+      <c r="K97">
+        <v>18303</v>
+      </c>
+      <c r="L97">
+        <v>1579</v>
+      </c>
+      <c r="M97">
+        <v>2178</v>
+      </c>
+      <c r="N97">
+        <v>119892.63</v>
+      </c>
+      <c r="O97">
+        <v>91467</v>
+      </c>
+      <c r="P97">
+        <v>625767822.6900001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98">
+        <v>1381</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
+      </c>
+      <c r="F98">
+        <v>8352229</v>
+      </c>
+      <c r="G98">
+        <v>6836919</v>
+      </c>
+      <c r="H98">
+        <v>121221</v>
+      </c>
+      <c r="I98">
+        <v>93780</v>
+      </c>
+      <c r="J98">
+        <v>25066</v>
+      </c>
+      <c r="K98">
+        <v>24074</v>
+      </c>
+      <c r="L98">
+        <v>2468</v>
+      </c>
+      <c r="M98">
+        <v>1998</v>
+      </c>
+      <c r="N98">
+        <v>92827.88</v>
+      </c>
+      <c r="O98">
+        <v>122752</v>
+      </c>
+      <c r="P98">
+        <v>98595015.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99">
+        <v>486</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>4194869</v>
+      </c>
+      <c r="G99">
+        <v>3948933</v>
+      </c>
+      <c r="H99">
+        <v>153502</v>
+      </c>
+      <c r="I99">
+        <v>169597</v>
+      </c>
+      <c r="J99">
+        <v>13119</v>
+      </c>
+      <c r="K99">
+        <v>12029</v>
+      </c>
+      <c r="L99">
+        <v>969</v>
+      </c>
+      <c r="M99">
+        <v>555</v>
+      </c>
+      <c r="N99">
+        <v>85181.82000000001</v>
+      </c>
+      <c r="O99">
+        <v>66259</v>
+      </c>
+      <c r="P99">
+        <v>174032461.59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100">
+        <v>373</v>
+      </c>
+      <c r="E100">
+        <v>21</v>
+      </c>
+      <c r="F100">
+        <v>6187797</v>
+      </c>
+      <c r="G100">
+        <v>2613291</v>
+      </c>
+      <c r="H100">
+        <v>184264</v>
+      </c>
+      <c r="I100">
+        <v>159471</v>
+      </c>
+      <c r="J100">
+        <v>18745</v>
+      </c>
+      <c r="K100">
+        <v>7406</v>
+      </c>
+      <c r="L100">
+        <v>1176</v>
+      </c>
+      <c r="M100">
+        <v>714</v>
+      </c>
+      <c r="N100">
+        <v>121892.46</v>
+      </c>
+      <c r="O100">
+        <v>42598</v>
+      </c>
+      <c r="P100">
+        <v>393968067.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101">
+        <v>1657</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>8925812</v>
+      </c>
+      <c r="G101">
+        <v>6021440</v>
+      </c>
+      <c r="H101">
+        <v>155825</v>
+      </c>
+      <c r="I101">
+        <v>154344</v>
+      </c>
+      <c r="J101">
+        <v>24475</v>
+      </c>
+      <c r="K101">
+        <v>24471</v>
+      </c>
+      <c r="L101">
+        <v>2521</v>
+      </c>
+      <c r="M101">
+        <v>2024</v>
+      </c>
+      <c r="N101">
+        <v>94009.06</v>
+      </c>
+      <c r="O101">
+        <v>105807</v>
+      </c>
+      <c r="P101">
+        <v>251691678.69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102">
+        <v>473</v>
+      </c>
+      <c r="E102">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>1568520</v>
+      </c>
+      <c r="G102">
+        <v>1637806</v>
+      </c>
+      <c r="H102">
+        <v>43194</v>
+      </c>
+      <c r="I102">
+        <v>45610</v>
+      </c>
+      <c r="J102">
+        <v>5768</v>
+      </c>
+      <c r="K102">
+        <v>5308</v>
+      </c>
+      <c r="L102">
+        <v>862</v>
+      </c>
+      <c r="M102">
+        <v>664</v>
+      </c>
+      <c r="N102">
+        <v>33937.02</v>
+      </c>
+      <c r="O102">
+        <v>51432</v>
+      </c>
+      <c r="P102">
+        <v>89782540.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103">
+        <v>753</v>
+      </c>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>2177510</v>
+      </c>
+      <c r="G103">
+        <v>2056208</v>
+      </c>
+      <c r="H103">
+        <v>69847</v>
+      </c>
+      <c r="I103">
+        <v>101578</v>
+      </c>
+      <c r="J103">
+        <v>7131</v>
+      </c>
+      <c r="K103">
+        <v>5363</v>
+      </c>
+      <c r="L103">
+        <v>454</v>
+      </c>
+      <c r="M103">
+        <v>595</v>
+      </c>
+      <c r="N103">
+        <v>42600.98</v>
+      </c>
+      <c r="O103">
+        <v>52266</v>
+      </c>
+      <c r="P103">
+        <v>99893783.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104">
+        <v>484</v>
+      </c>
+      <c r="E104">
+        <v>19</v>
+      </c>
+      <c r="F104">
+        <v>3372410</v>
+      </c>
+      <c r="G104">
+        <v>3222138</v>
+      </c>
+      <c r="H104">
+        <v>128873</v>
+      </c>
+      <c r="I104">
+        <v>89661</v>
+      </c>
+      <c r="J104">
+        <v>8552</v>
+      </c>
+      <c r="K104">
+        <v>4609</v>
+      </c>
+      <c r="L104">
+        <v>577</v>
+      </c>
+      <c r="M104">
+        <v>697</v>
+      </c>
+      <c r="N104">
+        <v>65602.64</v>
+      </c>
+      <c r="O104">
+        <v>43210</v>
+      </c>
+      <c r="P104">
+        <v>190343555.95</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>120</v>
+      </c>
+      <c r="D105">
+        <v>405</v>
+      </c>
+      <c r="E105">
+        <v>19</v>
+      </c>
+      <c r="F105">
+        <v>4995138</v>
+      </c>
+      <c r="G105">
+        <v>2380395</v>
+      </c>
+      <c r="H105">
+        <v>158323</v>
+      </c>
+      <c r="I105">
+        <v>135176</v>
+      </c>
+      <c r="J105">
+        <v>14612</v>
+      </c>
+      <c r="K105">
+        <v>9054</v>
+      </c>
+      <c r="L105">
+        <v>1214</v>
+      </c>
+      <c r="M105">
+        <v>774</v>
+      </c>
+      <c r="N105">
+        <v>95279.86</v>
+      </c>
+      <c r="O105">
+        <v>30615</v>
+      </c>
+      <c r="P105">
+        <v>225252781.84</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106">
+        <v>484</v>
+      </c>
+      <c r="E106">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>2811622</v>
+      </c>
+      <c r="G106">
+        <v>2729658</v>
+      </c>
+      <c r="H106">
+        <v>113857</v>
+      </c>
+      <c r="I106">
+        <v>85597</v>
+      </c>
+      <c r="J106">
+        <v>5720</v>
+      </c>
+      <c r="K106">
+        <v>4268</v>
+      </c>
+      <c r="L106">
+        <v>365</v>
+      </c>
+      <c r="M106">
+        <v>292</v>
+      </c>
+      <c r="N106">
+        <v>69000.78999999999</v>
+      </c>
+      <c r="O106">
+        <v>38643</v>
+      </c>
+      <c r="P106">
+        <v>160895062.67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107">
+        <v>1092</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>4212014</v>
+      </c>
+      <c r="G107">
+        <v>2386597</v>
+      </c>
+      <c r="H107">
+        <v>89531</v>
+      </c>
+      <c r="I107">
+        <v>89843</v>
+      </c>
+      <c r="J107">
+        <v>8990</v>
+      </c>
+      <c r="K107">
+        <v>9688</v>
+      </c>
+      <c r="L107">
+        <v>704</v>
+      </c>
+      <c r="M107">
+        <v>1155</v>
+      </c>
+      <c r="N107">
+        <v>70636.53999999999</v>
+      </c>
+      <c r="O107">
+        <v>58782</v>
+      </c>
+      <c r="P107">
+        <v>192477448.43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108">
+        <v>422</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>1832547</v>
+      </c>
+      <c r="G108">
+        <v>1473531</v>
+      </c>
+      <c r="H108">
+        <v>51402</v>
+      </c>
+      <c r="I108">
+        <v>40475</v>
+      </c>
+      <c r="J108">
+        <v>2695</v>
+      </c>
+      <c r="K108">
+        <v>2671</v>
+      </c>
+      <c r="L108">
+        <v>331</v>
+      </c>
+      <c r="M108">
+        <v>358</v>
+      </c>
+      <c r="N108">
+        <v>32227.58</v>
+      </c>
+      <c r="O108">
+        <v>13349</v>
+      </c>
+      <c r="P108">
+        <v>97451910.59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109">
+        <v>1288</v>
+      </c>
+      <c r="E109">
         <v>15</v>
       </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83">
+      <c r="F109">
+        <v>8270880</v>
+      </c>
+      <c r="G109">
+        <v>7496193</v>
+      </c>
+      <c r="H109">
+        <v>175082</v>
+      </c>
+      <c r="I109">
+        <v>187500</v>
+      </c>
+      <c r="J109">
+        <v>17357</v>
+      </c>
+      <c r="K109">
+        <v>18034</v>
+      </c>
+      <c r="L109">
+        <v>1653</v>
+      </c>
+      <c r="M109">
+        <v>941</v>
+      </c>
+      <c r="N109">
+        <v>67297.34</v>
+      </c>
+      <c r="O109">
+        <v>86983</v>
+      </c>
+      <c r="P109">
+        <v>263751197.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110">
+        <v>635</v>
+      </c>
+      <c r="E110">
+        <v>17</v>
+      </c>
+      <c r="F110">
+        <v>1566321</v>
+      </c>
+      <c r="G110">
+        <v>1557249</v>
+      </c>
+      <c r="H110">
+        <v>32866</v>
+      </c>
+      <c r="I110">
+        <v>41158</v>
+      </c>
+      <c r="J110">
+        <v>3367</v>
+      </c>
+      <c r="K110">
+        <v>4374</v>
+      </c>
+      <c r="L110">
+        <v>441</v>
+      </c>
+      <c r="M110">
+        <v>450</v>
+      </c>
+      <c r="N110">
+        <v>28046.31</v>
+      </c>
+      <c r="O110">
+        <v>24257</v>
+      </c>
+      <c r="P110">
+        <v>65647003.56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111">
+        <v>1158</v>
+      </c>
+      <c r="E111">
+        <v>16</v>
+      </c>
+      <c r="F111">
+        <v>12737234</v>
+      </c>
+      <c r="G111">
+        <v>4294924</v>
+      </c>
+      <c r="H111">
+        <v>171263</v>
+      </c>
+      <c r="I111">
+        <v>101750</v>
+      </c>
+      <c r="J111">
+        <v>31631</v>
+      </c>
+      <c r="K111">
+        <v>14381</v>
+      </c>
+      <c r="L111">
+        <v>1750</v>
+      </c>
+      <c r="M111">
+        <v>762</v>
+      </c>
+      <c r="N111">
+        <v>146331.26</v>
+      </c>
+      <c r="O111">
+        <v>61827</v>
+      </c>
+      <c r="P111">
+        <v>595700260.72</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112">
+        <v>461</v>
+      </c>
+      <c r="E112">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>3563714</v>
+      </c>
+      <c r="G112">
+        <v>2747442</v>
+      </c>
+      <c r="H112">
+        <v>106708</v>
+      </c>
+      <c r="I112">
+        <v>56944</v>
+      </c>
+      <c r="J112">
+        <v>6375</v>
+      </c>
+      <c r="K112">
+        <v>7005</v>
+      </c>
+      <c r="L112">
+        <v>1273</v>
+      </c>
+      <c r="M112">
+        <v>1603</v>
+      </c>
+      <c r="N112">
+        <v>80642.95</v>
+      </c>
+      <c r="O112">
+        <v>42047</v>
+      </c>
+      <c r="P112">
+        <v>148655867.39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D113">
+        <v>534</v>
+      </c>
+      <c r="E113">
+        <v>17</v>
+      </c>
+      <c r="F113">
+        <v>1456067</v>
+      </c>
+      <c r="G113">
+        <v>2143903</v>
+      </c>
+      <c r="H113">
+        <v>54027</v>
+      </c>
+      <c r="I113">
+        <v>59798</v>
+      </c>
+      <c r="J113">
+        <v>2680</v>
+      </c>
+      <c r="K113">
+        <v>4211</v>
+      </c>
+      <c r="L113">
+        <v>337</v>
+      </c>
+      <c r="M113">
+        <v>584</v>
+      </c>
+      <c r="N113">
+        <v>27239.21</v>
+      </c>
+      <c r="O113">
+        <v>52635</v>
+      </c>
+      <c r="P113">
+        <v>41854423.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114">
+        <v>347</v>
+      </c>
+      <c r="E114">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>1549973</v>
+      </c>
+      <c r="G114">
+        <v>1354547</v>
+      </c>
+      <c r="H114">
+        <v>50744</v>
+      </c>
+      <c r="I114">
+        <v>49982</v>
+      </c>
+      <c r="J114">
+        <v>5236</v>
+      </c>
+      <c r="K114">
+        <v>3810</v>
+      </c>
+      <c r="L114">
+        <v>527</v>
+      </c>
+      <c r="M114">
+        <v>432</v>
+      </c>
+      <c r="N114">
+        <v>33898.38</v>
+      </c>
+      <c r="O114">
+        <v>10720</v>
+      </c>
+      <c r="P114">
+        <v>171241431.76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>130</v>
+      </c>
+      <c r="D115">
+        <v>1449</v>
+      </c>
+      <c r="E115">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>4207724</v>
+      </c>
+      <c r="G115">
+        <v>2958544</v>
+      </c>
+      <c r="H115">
+        <v>50214</v>
+      </c>
+      <c r="I115">
+        <v>85027</v>
+      </c>
+      <c r="J115">
+        <v>9397</v>
+      </c>
+      <c r="K115">
+        <v>12636</v>
+      </c>
+      <c r="L115">
+        <v>873</v>
+      </c>
+      <c r="M115">
+        <v>1205</v>
+      </c>
+      <c r="N115">
+        <v>39198.94</v>
+      </c>
+      <c r="O115">
+        <v>87636</v>
+      </c>
+      <c r="P115">
+        <v>59360282.16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116">
+        <v>718</v>
+      </c>
+      <c r="E116">
+        <v>16</v>
+      </c>
+      <c r="F116">
+        <v>4862037</v>
+      </c>
+      <c r="G116">
+        <v>2629155</v>
+      </c>
+      <c r="H116">
+        <v>44394</v>
+      </c>
+      <c r="I116">
+        <v>34644</v>
+      </c>
+      <c r="J116">
+        <v>14592</v>
+      </c>
+      <c r="K116">
+        <v>11190</v>
+      </c>
+      <c r="L116">
+        <v>874</v>
+      </c>
+      <c r="M116">
+        <v>619</v>
+      </c>
+      <c r="N116">
+        <v>43967.48</v>
+      </c>
+      <c r="O116">
+        <v>50826</v>
+      </c>
+      <c r="P116">
+        <v>134581330.45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117">
+        <v>1156</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>4589289</v>
+      </c>
+      <c r="G117">
+        <v>2572816</v>
+      </c>
+      <c r="H117">
+        <v>63691</v>
+      </c>
+      <c r="I117">
+        <v>61990</v>
+      </c>
+      <c r="J117">
+        <v>17376</v>
+      </c>
+      <c r="K117">
+        <v>15771</v>
+      </c>
+      <c r="L117">
+        <v>609</v>
+      </c>
+      <c r="M117">
+        <v>309</v>
+      </c>
+      <c r="N117">
+        <v>31417.17</v>
+      </c>
+      <c r="O117">
+        <v>102578</v>
+      </c>
+      <c r="P117">
+        <v>61749248.31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118">
+        <v>1286</v>
+      </c>
+      <c r="E118">
+        <v>17</v>
+      </c>
+      <c r="F118">
+        <v>3344640</v>
+      </c>
+      <c r="G118">
+        <v>3663813</v>
+      </c>
+      <c r="H118">
+        <v>51916</v>
+      </c>
+      <c r="I118">
+        <v>78267</v>
+      </c>
+      <c r="J118">
+        <v>9415</v>
+      </c>
+      <c r="K118">
+        <v>9935</v>
+      </c>
+      <c r="L118">
+        <v>692</v>
+      </c>
+      <c r="M118">
+        <v>856</v>
+      </c>
+      <c r="N118">
+        <v>46813.04</v>
+      </c>
+      <c r="O118">
+        <v>78379</v>
+      </c>
+      <c r="P118">
+        <v>44544012.15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119">
+        <v>336</v>
+      </c>
+      <c r="E119">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>2983028</v>
+      </c>
+      <c r="G119">
+        <v>1466915</v>
+      </c>
+      <c r="H119">
+        <v>56026</v>
+      </c>
+      <c r="I119">
+        <v>81175</v>
+      </c>
+      <c r="J119">
+        <v>7113</v>
+      </c>
+      <c r="K119">
+        <v>4352</v>
+      </c>
+      <c r="L119">
+        <v>373</v>
+      </c>
+      <c r="M119">
+        <v>347</v>
+      </c>
+      <c r="N119">
+        <v>84461.02</v>
+      </c>
+      <c r="O119">
+        <v>26027</v>
+      </c>
+      <c r="P119">
+        <v>208669954.02</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120">
+        <v>155</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>2773923</v>
+      </c>
+      <c r="G120">
+        <v>1619569</v>
+      </c>
+      <c r="H120">
+        <v>87978</v>
+      </c>
+      <c r="I120">
+        <v>30931</v>
+      </c>
+      <c r="J120">
+        <v>5811</v>
+      </c>
+      <c r="K120">
+        <v>2756</v>
+      </c>
+      <c r="L120">
+        <v>307</v>
+      </c>
+      <c r="M120">
+        <v>132</v>
+      </c>
+      <c r="N120">
+        <v>79729.05</v>
+      </c>
+      <c r="O120">
+        <v>8382</v>
+      </c>
+      <c r="P120">
+        <v>303553553.34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121">
+        <v>325</v>
+      </c>
+      <c r="E121">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <v>1760342</v>
+      </c>
+      <c r="G121">
+        <v>1606378</v>
+      </c>
+      <c r="H121">
+        <v>46074</v>
+      </c>
+      <c r="I121">
+        <v>45189</v>
+      </c>
+      <c r="J121">
+        <v>2576</v>
+      </c>
+      <c r="K121">
+        <v>4352</v>
+      </c>
+      <c r="L121">
+        <v>384</v>
+      </c>
+      <c r="M121">
+        <v>571</v>
+      </c>
+      <c r="N121">
+        <v>25399.76</v>
+      </c>
+      <c r="O121">
+        <v>20343</v>
+      </c>
+      <c r="P121">
+        <v>102115052.86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>137</v>
+      </c>
+      <c r="D122">
+        <v>176</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>4593144</v>
+      </c>
+      <c r="G122">
+        <v>1524449</v>
+      </c>
+      <c r="H122">
+        <v>107735</v>
+      </c>
+      <c r="I122">
+        <v>75633</v>
+      </c>
+      <c r="J122">
+        <v>14506</v>
+      </c>
+      <c r="K122">
+        <v>3771</v>
+      </c>
+      <c r="L122">
+        <v>1329</v>
+      </c>
+      <c r="M122">
+        <v>479</v>
+      </c>
+      <c r="N122">
+        <v>133107.61</v>
+      </c>
+      <c r="O122">
+        <v>7618</v>
+      </c>
+      <c r="P122">
+        <v>460729238.93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123">
+        <v>371</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>4478660</v>
+      </c>
+      <c r="G123">
+        <v>2893357</v>
+      </c>
+      <c r="H123">
+        <v>100227</v>
+      </c>
+      <c r="I123">
+        <v>102287</v>
+      </c>
+      <c r="J123">
+        <v>12819</v>
+      </c>
+      <c r="K123">
+        <v>8512</v>
+      </c>
+      <c r="L123">
+        <v>1268</v>
+      </c>
+      <c r="M123">
+        <v>1091</v>
+      </c>
+      <c r="N123">
+        <v>109579.03</v>
+      </c>
+      <c r="O123">
+        <v>34257</v>
+      </c>
+      <c r="P123">
+        <v>488724459.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
+      <c r="D124">
+        <v>116</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="F124">
+        <v>351400</v>
+      </c>
+      <c r="G124">
+        <v>299841</v>
+      </c>
+      <c r="H124">
+        <v>5027</v>
+      </c>
+      <c r="I124">
+        <v>3047</v>
+      </c>
+      <c r="J124">
+        <v>471</v>
+      </c>
+      <c r="K124">
+        <v>724</v>
+      </c>
+      <c r="L124">
+        <v>19</v>
+      </c>
+      <c r="M124">
+        <v>52</v>
+      </c>
+      <c r="N124">
+        <v>23496.13</v>
+      </c>
+      <c r="O124">
+        <v>3531</v>
+      </c>
+      <c r="P124">
+        <v>102613746.09</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>140</v>
+      </c>
+      <c r="D125">
+        <v>378</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>914012</v>
+      </c>
+      <c r="G125">
+        <v>335203</v>
+      </c>
+      <c r="H125">
+        <v>18548</v>
+      </c>
+      <c r="I125">
+        <v>17637</v>
+      </c>
+      <c r="J125">
+        <v>1620</v>
+      </c>
+      <c r="K125">
+        <v>918</v>
+      </c>
+      <c r="L125">
+        <v>241</v>
+      </c>
+      <c r="M125">
+        <v>231</v>
+      </c>
+      <c r="N125">
+        <v>16603.54</v>
+      </c>
+      <c r="O125">
+        <v>16521</v>
+      </c>
+      <c r="P125">
+        <v>44614923.85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126">
+        <v>1217</v>
+      </c>
+      <c r="E126">
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>1099651</v>
+      </c>
+      <c r="G126">
+        <v>1667414</v>
+      </c>
+      <c r="H126">
+        <v>16055</v>
+      </c>
+      <c r="I126">
+        <v>61127</v>
+      </c>
+      <c r="J126">
+        <v>4548</v>
+      </c>
+      <c r="K126">
+        <v>8578</v>
+      </c>
+      <c r="L126">
+        <v>361</v>
+      </c>
+      <c r="M126">
+        <v>965</v>
+      </c>
+      <c r="N126">
+        <v>20825.95</v>
+      </c>
+      <c r="O126">
+        <v>98194</v>
+      </c>
+      <c r="P126">
+        <v>37574791.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127">
+        <v>268</v>
+      </c>
+      <c r="E127">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>251751</v>
+      </c>
+      <c r="G127">
+        <v>374577</v>
+      </c>
+      <c r="H127">
+        <v>9445</v>
+      </c>
+      <c r="I127">
+        <v>8539</v>
+      </c>
+      <c r="J127">
+        <v>244</v>
+      </c>
+      <c r="K127">
+        <v>705</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>28</v>
+      </c>
+      <c r="N127">
+        <v>11617.66</v>
+      </c>
+      <c r="O127">
+        <v>6654</v>
+      </c>
+      <c r="P127">
+        <v>95018065.79000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>143</v>
+      </c>
+      <c r="D128">
+        <v>136</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>1394538</v>
+      </c>
+      <c r="G128">
+        <v>511786</v>
+      </c>
+      <c r="H128">
+        <v>44778</v>
+      </c>
+      <c r="I128">
+        <v>24213</v>
+      </c>
+      <c r="J128">
+        <v>3505</v>
+      </c>
+      <c r="K128">
+        <v>1168</v>
+      </c>
+      <c r="L128">
+        <v>243</v>
+      </c>
+      <c r="M128">
+        <v>190</v>
+      </c>
+      <c r="N128">
+        <v>44993.33</v>
+      </c>
+      <c r="O128">
+        <v>1865</v>
+      </c>
+      <c r="P128">
+        <v>341343022.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129">
+        <v>164</v>
+      </c>
+      <c r="E129">
+        <v>11</v>
+      </c>
+      <c r="F129">
+        <v>1081367</v>
+      </c>
+      <c r="G129">
+        <v>561454</v>
+      </c>
+      <c r="H129">
+        <v>34064</v>
+      </c>
+      <c r="I129">
+        <v>36224</v>
+      </c>
+      <c r="J129">
+        <v>3183</v>
+      </c>
+      <c r="K129">
+        <v>1864</v>
+      </c>
+      <c r="L129">
+        <v>432</v>
+      </c>
+      <c r="M129">
+        <v>295</v>
+      </c>
+      <c r="N129">
+        <v>43131.36</v>
+      </c>
+      <c r="O129">
+        <v>5747</v>
+      </c>
+      <c r="P129">
+        <v>153234892.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130">
+        <v>484</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130">
+        <v>1416258</v>
+      </c>
+      <c r="G130">
+        <v>1696328</v>
+      </c>
+      <c r="H130">
+        <v>36900</v>
+      </c>
+      <c r="I130">
+        <v>51644</v>
+      </c>
+      <c r="J130">
+        <v>2568</v>
+      </c>
+      <c r="K130">
+        <v>3279</v>
+      </c>
+      <c r="L130">
+        <v>391</v>
+      </c>
+      <c r="M130">
+        <v>401</v>
+      </c>
+      <c r="N130">
+        <v>18670.1</v>
+      </c>
+      <c r="O130">
+        <v>29231</v>
+      </c>
+      <c r="P130">
+        <v>92659534.22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
+      <c r="D131">
+        <v>36</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>765318</v>
+      </c>
+      <c r="G131">
+        <v>468291</v>
+      </c>
+      <c r="H131">
+        <v>12944</v>
+      </c>
+      <c r="I131">
+        <v>21314</v>
+      </c>
+      <c r="J131">
+        <v>803</v>
+      </c>
+      <c r="K131">
+        <v>652</v>
+      </c>
+      <c r="L131">
+        <v>116</v>
+      </c>
+      <c r="M131">
+        <v>115</v>
+      </c>
+      <c r="N131">
+        <v>22843.88</v>
+      </c>
+      <c r="O131">
+        <v>4640</v>
+      </c>
+      <c r="P131">
+        <v>89477958.40000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>147</v>
+      </c>
+      <c r="D132">
+        <v>252</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>446002</v>
+      </c>
+      <c r="G132">
+        <v>375472</v>
+      </c>
+      <c r="H132">
+        <v>12584</v>
+      </c>
+      <c r="I132">
+        <v>11654</v>
+      </c>
+      <c r="J132">
+        <v>1496</v>
+      </c>
+      <c r="K132">
+        <v>1975</v>
+      </c>
+      <c r="L132">
+        <v>51</v>
+      </c>
+      <c r="M132">
+        <v>86</v>
+      </c>
+      <c r="N132">
+        <v>11764.86</v>
+      </c>
+      <c r="O132">
+        <v>10175</v>
+      </c>
+      <c r="P132">
+        <v>46623957.09</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>148</v>
+      </c>
+      <c r="D133">
+        <v>54</v>
+      </c>
+      <c r="E133">
+        <v>11</v>
+      </c>
+      <c r="F133">
+        <v>1156124</v>
+      </c>
+      <c r="G133">
+        <v>465777</v>
+      </c>
+      <c r="H133">
+        <v>21716</v>
+      </c>
+      <c r="I133">
+        <v>20617</v>
+      </c>
+      <c r="J133">
+        <v>1726</v>
+      </c>
+      <c r="K133">
+        <v>915</v>
+      </c>
+      <c r="L133">
+        <v>171</v>
+      </c>
+      <c r="M133">
+        <v>64</v>
+      </c>
+      <c r="N133">
+        <v>58011.54</v>
+      </c>
+      <c r="O133">
+        <v>6192</v>
+      </c>
+      <c r="P133">
+        <v>142039000.24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134">
+        <v>248</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>556237</v>
+      </c>
+      <c r="G134">
+        <v>558547</v>
+      </c>
+      <c r="H134">
+        <v>6922</v>
+      </c>
+      <c r="I134">
+        <v>17144</v>
+      </c>
+      <c r="J134">
+        <v>623</v>
+      </c>
+      <c r="K134">
+        <v>1547</v>
+      </c>
+      <c r="L134">
+        <v>8</v>
+      </c>
+      <c r="M134">
+        <v>43</v>
+      </c>
+      <c r="N134">
+        <v>18354.46</v>
+      </c>
+      <c r="O134">
+        <v>26131</v>
+      </c>
+      <c r="P134">
+        <v>15926602.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135">
+        <v>159</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>237625</v>
+      </c>
+      <c r="G135">
+        <v>98185</v>
+      </c>
+      <c r="H135">
+        <v>1179</v>
+      </c>
+      <c r="I135">
+        <v>1562</v>
+      </c>
+      <c r="J135">
+        <v>142</v>
+      </c>
+      <c r="K135">
+        <v>63</v>
+      </c>
+      <c r="L135">
+        <v>23</v>
+      </c>
+      <c r="M135">
+        <v>16</v>
+      </c>
+      <c r="N135">
+        <v>12650.94</v>
+      </c>
+      <c r="O135">
+        <v>127</v>
+      </c>
+      <c r="P135">
+        <v>88972766.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136">
+        <v>40</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>1582467</v>
+      </c>
+      <c r="G136">
+        <v>465117</v>
+      </c>
+      <c r="H136">
+        <v>39945</v>
+      </c>
+      <c r="I136">
+        <v>18898</v>
+      </c>
+      <c r="J136">
+        <v>2184</v>
+      </c>
+      <c r="K136">
+        <v>485</v>
+      </c>
+      <c r="L136">
+        <v>271</v>
+      </c>
+      <c r="M136">
+        <v>127</v>
+      </c>
+      <c r="N136">
+        <v>27260.79</v>
+      </c>
+      <c r="O136">
+        <v>1954</v>
+      </c>
+      <c r="P136">
+        <v>203479912.49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137">
+        <v>151</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>596595</v>
+      </c>
+      <c r="G137">
+        <v>187161</v>
+      </c>
+      <c r="H137">
+        <v>15284</v>
+      </c>
+      <c r="I137">
+        <v>6367</v>
+      </c>
+      <c r="J137">
+        <v>2406</v>
+      </c>
+      <c r="K137">
+        <v>845</v>
+      </c>
+      <c r="L137">
+        <v>702</v>
+      </c>
+      <c r="M137">
+        <v>99</v>
+      </c>
+      <c r="N137">
+        <v>19017.94</v>
+      </c>
+      <c r="O137">
+        <v>1606</v>
+      </c>
+      <c r="P137">
+        <v>91480260.61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138">
+        <v>85</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>90568</v>
+      </c>
+      <c r="G138">
+        <v>30268</v>
+      </c>
+      <c r="H138">
+        <v>1434</v>
+      </c>
+      <c r="I138">
+        <v>5886</v>
+      </c>
+      <c r="J138">
+        <v>19</v>
+      </c>
+      <c r="K138">
+        <v>110</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>7673.12</v>
+      </c>
+      <c r="O138">
+        <v>5705</v>
+      </c>
+      <c r="P138">
+        <v>68054474.73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139">
+        <v>82</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>767293</v>
+      </c>
+      <c r="G139">
+        <v>590675</v>
+      </c>
+      <c r="H139">
+        <v>12147</v>
+      </c>
+      <c r="I139">
+        <v>7626</v>
+      </c>
+      <c r="J139">
+        <v>465</v>
+      </c>
+      <c r="K139">
+        <v>876</v>
+      </c>
+      <c r="L139">
+        <v>164</v>
+      </c>
+      <c r="M139">
+        <v>215</v>
+      </c>
+      <c r="N139">
+        <v>20937</v>
+      </c>
+      <c r="O139">
+        <v>4460</v>
+      </c>
+      <c r="P139">
+        <v>92332809.78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140">
+        <v>68</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>185728</v>
+      </c>
+      <c r="G140">
+        <v>114857</v>
+      </c>
+      <c r="H140">
+        <v>783</v>
+      </c>
+      <c r="I140">
+        <v>885</v>
+      </c>
+      <c r="J140">
+        <v>15</v>
+      </c>
+      <c r="K140">
+        <v>28</v>
+      </c>
+      <c r="L140">
+        <v>21</v>
+      </c>
+      <c r="M140">
+        <v>28</v>
+      </c>
+      <c r="N140">
+        <v>9720.889999999999</v>
+      </c>
+      <c r="O140">
+        <v>545</v>
+      </c>
+      <c r="P140">
+        <v>60644693.32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141">
+        <v>61</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>52691</v>
+      </c>
+      <c r="G141">
+        <v>61113</v>
+      </c>
+      <c r="H141">
+        <v>1461</v>
+      </c>
+      <c r="I141">
+        <v>591</v>
+      </c>
+      <c r="J141">
+        <v>106</v>
+      </c>
+      <c r="K141">
+        <v>104</v>
+      </c>
+      <c r="L141">
+        <v>32</v>
+      </c>
+      <c r="M141">
+        <v>25</v>
+      </c>
+      <c r="N141">
+        <v>6133.48</v>
+      </c>
+      <c r="O141">
+        <v>1076</v>
+      </c>
+      <c r="P141">
+        <v>38548003.26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>157</v>
+      </c>
+      <c r="D142">
+        <v>101</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>129368</v>
+      </c>
+      <c r="G142">
+        <v>166592</v>
+      </c>
+      <c r="H142">
+        <v>3314</v>
+      </c>
+      <c r="I142">
+        <v>200</v>
+      </c>
+      <c r="J142">
+        <v>15</v>
+      </c>
+      <c r="K142">
+        <v>204</v>
+      </c>
+      <c r="L142">
+        <v>19</v>
+      </c>
+      <c r="M142">
+        <v>35</v>
+      </c>
+      <c r="N142">
+        <v>9486.83</v>
+      </c>
+      <c r="O142">
+        <v>1017</v>
+      </c>
+      <c r="P142">
+        <v>59552178.06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>158</v>
+      </c>
+      <c r="D143">
+        <v>42</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>87744</v>
+      </c>
+      <c r="G143">
+        <v>78193</v>
+      </c>
+      <c r="H143">
+        <v>1502</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>46</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>4092.64</v>
+      </c>
+      <c r="O143">
+        <v>557</v>
+      </c>
+      <c r="P143">
+        <v>46880513.63</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>159</v>
+      </c>
+      <c r="D144">
+        <v>24</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>203815</v>
+      </c>
+      <c r="G144">
+        <v>70980</v>
+      </c>
+      <c r="H144">
+        <v>1418</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>6</v>
+      </c>
+      <c r="N144">
+        <v>5700.86</v>
+      </c>
+      <c r="O144">
+        <v>1139</v>
+      </c>
+      <c r="P144">
+        <v>40332100.69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>160</v>
+      </c>
+      <c r="D145">
+        <v>26</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>115389</v>
+      </c>
+      <c r="G145">
+        <v>63629</v>
+      </c>
+      <c r="H145">
+        <v>2818</v>
+      </c>
+      <c r="I145">
+        <v>3510</v>
+      </c>
+      <c r="J145">
+        <v>28</v>
+      </c>
+      <c r="K145">
+        <v>47</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>5055.27</v>
+      </c>
+      <c r="O145">
+        <v>534</v>
+      </c>
+      <c r="P145">
+        <v>48985368.79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146">
+        <v>13</v>
+      </c>
+      <c r="E146">
+        <v>8</v>
+      </c>
+      <c r="F146">
+        <v>74280</v>
+      </c>
+      <c r="G146">
+        <v>39536</v>
+      </c>
+      <c r="H146">
+        <v>2225</v>
+      </c>
+      <c r="I146">
+        <v>24</v>
+      </c>
+      <c r="J146">
         <v>5</v>
       </c>
-      <c r="E83">
-        <v>5</v>
-      </c>
-      <c r="F83">
+      <c r="K146">
+        <v>12</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>3726.38</v>
+      </c>
+      <c r="O146">
+        <v>269</v>
+      </c>
+      <c r="P146">
+        <v>50828977.34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147">
+        <v>23</v>
+      </c>
+      <c r="E147">
+        <v>7</v>
+      </c>
+      <c r="F147">
+        <v>149029</v>
+      </c>
+      <c r="G147">
+        <v>104417</v>
+      </c>
+      <c r="H147">
+        <v>2300</v>
+      </c>
+      <c r="I147">
+        <v>4047</v>
+      </c>
+      <c r="J147">
+        <v>99</v>
+      </c>
+      <c r="K147">
+        <v>149</v>
+      </c>
+      <c r="L147">
+        <v>16</v>
+      </c>
+      <c r="M147">
+        <v>10</v>
+      </c>
+      <c r="N147">
+        <v>7776.94</v>
+      </c>
+      <c r="O147">
+        <v>1384</v>
+      </c>
+      <c r="P147">
+        <v>76731947.42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>163</v>
+      </c>
+      <c r="D148">
+        <v>53</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>333809</v>
+      </c>
+      <c r="G148">
+        <v>322225</v>
+      </c>
+      <c r="H148">
+        <v>5086</v>
+      </c>
+      <c r="I148">
+        <v>81</v>
+      </c>
+      <c r="J148">
+        <v>280</v>
+      </c>
+      <c r="K148">
+        <v>661</v>
+      </c>
+      <c r="L148">
+        <v>14</v>
+      </c>
+      <c r="M148">
+        <v>21</v>
+      </c>
+      <c r="N148">
+        <v>10437.37</v>
+      </c>
+      <c r="O148">
+        <v>1816</v>
+      </c>
+      <c r="P148">
+        <v>68845038.62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>164</v>
+      </c>
+      <c r="D149">
+        <v>99</v>
+      </c>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>101219</v>
+      </c>
+      <c r="G149">
+        <v>141506</v>
+      </c>
+      <c r="H149">
+        <v>4050</v>
+      </c>
+      <c r="I149">
+        <v>3787</v>
+      </c>
+      <c r="J149">
+        <v>119</v>
+      </c>
+      <c r="K149">
+        <v>203</v>
+      </c>
+      <c r="L149">
+        <v>27</v>
+      </c>
+      <c r="M149">
+        <v>18</v>
+      </c>
+      <c r="N149">
+        <v>3402.74</v>
+      </c>
+      <c r="O149">
+        <v>5565</v>
+      </c>
+      <c r="P149">
+        <v>25227563.73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>165</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="F150">
         <v>0</v>
       </c>
-      <c r="G83">
-        <v>461</v>
-      </c>
-      <c r="H83">
+      <c r="G150">
+        <v>696</v>
+      </c>
+      <c r="H150">
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="I150">
         <v>0</v>
       </c>
-      <c r="J83">
+      <c r="J150">
         <v>0</v>
       </c>
-      <c r="K83">
+      <c r="K150">
         <v>0</v>
       </c>
-      <c r="L83">
+      <c r="L150">
         <v>0</v>
       </c>
-      <c r="M83">
+      <c r="M150">
         <v>0</v>
       </c>
-      <c r="N83">
-        <v>394.13</v>
-      </c>
-      <c r="O83">
+      <c r="N150">
+        <v>994.23</v>
+      </c>
+      <c r="O150">
         <v>0</v>
       </c>
-      <c r="P83">
-        <v>8527456.369999999</v>
+      <c r="P150">
+        <v>15705490.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>166</v>
+      </c>
+      <c r="D151">
+        <v>20</v>
+      </c>
+      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>7804</v>
+      </c>
+      <c r="G151">
+        <v>26594</v>
+      </c>
+      <c r="H151">
+        <v>63</v>
+      </c>
+      <c r="I151">
+        <v>267</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>9</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>7</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>450</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
